--- a/bin/onmyoji.xlsx
+++ b/bin/onmyoji.xlsx
@@ -373,14 +373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>특수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -757,6 +749,14 @@
   </si>
   <si>
     <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보페이지 URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1476,7 +1476,7 @@
   <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1511,10 +1511,10 @@
         <v>94</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1797,16 +1797,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E20" s="3">
         <v>8</v>
@@ -1816,10 +1816,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E21" s="3">
         <v>8</v>
@@ -1829,10 +1829,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E22" s="3">
         <v>6</v>
@@ -1845,7 +1845,7 @@
         <v>53</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E23" s="3">
         <v>6</v>
@@ -1858,7 +1858,7 @@
         <v>54</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
@@ -1871,7 +1871,7 @@
         <v>54</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E25" s="3">
         <v>6</v>
@@ -1884,7 +1884,7 @@
         <v>54</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
@@ -1892,16 +1892,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -1911,10 +1911,10 @@
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E28" s="3">
         <v>4</v>
@@ -1924,10 +1924,10 @@
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E29" s="3">
         <v>4</v>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E30" s="3">
         <v>3</v>
@@ -1954,10 +1954,10 @@
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -1967,10 +1967,10 @@
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
@@ -1980,10 +1980,10 @@
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
@@ -1991,16 +1991,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E34" s="3">
         <v>4</v>
@@ -2010,10 +2010,10 @@
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E35" s="3">
         <v>4</v>
@@ -2023,10 +2023,10 @@
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E36" s="3">
         <v>3</v>
@@ -2036,10 +2036,10 @@
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E37" s="3">
         <v>3</v>
@@ -2049,10 +2049,10 @@
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E38" s="3">
         <v>3</v>
@@ -2062,10 +2062,10 @@
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
@@ -2073,16 +2073,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
@@ -2092,10 +2092,10 @@
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E41" s="3">
         <v>4</v>
@@ -2105,7 +2105,7 @@
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>31</v>
@@ -2118,10 +2118,10 @@
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E43" s="3">
         <v>4</v>
@@ -2131,10 +2131,10 @@
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -2142,16 +2142,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E45" s="3">
         <v>3</v>
@@ -2161,10 +2161,10 @@
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E46" s="3">
         <v>3</v>
@@ -2174,10 +2174,10 @@
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
@@ -2187,10 +2187,10 @@
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E48" s="3">
         <v>3</v>
@@ -2198,16 +2198,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E49" s="3">
         <v>4</v>
@@ -2217,10 +2217,10 @@
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -2230,10 +2230,10 @@
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E51" s="3">
         <v>4</v>
@@ -2241,16 +2241,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E52" s="3">
         <v>7</v>
@@ -2263,7 +2263,7 @@
         <v>54</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -2276,7 +2276,7 @@
         <v>54</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -3297,13 +3297,13 @@
         <v>6</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E114" s="3">
         <v>3</v>
@@ -3313,10 +3313,10 @@
       <c r="A115" s="12"/>
       <c r="B115" s="8"/>
       <c r="C115" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E115" s="3">
         <v>4</v>
@@ -3326,10 +3326,10 @@
       <c r="A116" s="12"/>
       <c r="B116" s="8"/>
       <c r="C116" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E116" s="3">
         <v>3</v>
@@ -3339,10 +3339,10 @@
       <c r="A117" s="12"/>
       <c r="B117" s="8"/>
       <c r="C117" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E117" s="3">
         <v>1</v>
@@ -3352,10 +3352,10 @@
       <c r="A118" s="12"/>
       <c r="B118" s="8"/>
       <c r="C118" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="E118" s="3">
         <v>1</v>
@@ -3366,13 +3366,13 @@
         <v>6</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E119" s="3">
         <v>8</v>
@@ -3382,10 +3382,10 @@
       <c r="A120" s="12"/>
       <c r="B120" s="8"/>
       <c r="C120" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E120" s="3">
         <v>3</v>
@@ -3395,10 +3395,10 @@
       <c r="A121" s="12"/>
       <c r="B121" s="8"/>
       <c r="C121" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E121" s="3">
         <v>5</v>
@@ -3409,13 +3409,13 @@
         <v>6</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E122" s="3">
         <v>5</v>
@@ -3425,10 +3425,10 @@
       <c r="A123" s="12"/>
       <c r="B123" s="8"/>
       <c r="C123" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E123" s="3">
         <v>1</v>
@@ -3439,13 +3439,13 @@
         <v>6</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E124" s="3">
         <v>1</v>
@@ -3455,10 +3455,10 @@
       <c r="A125" s="12"/>
       <c r="B125" s="8"/>
       <c r="C125" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E125" s="3">
         <v>1</v>
@@ -3468,10 +3468,10 @@
       <c r="A126" s="12"/>
       <c r="B126" s="8"/>
       <c r="C126" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E126" s="3">
         <v>2</v>
@@ -3482,13 +3482,13 @@
         <v>6</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E127" s="3">
         <v>1</v>
@@ -3498,10 +3498,10 @@
       <c r="A128" s="12"/>
       <c r="B128" s="8"/>
       <c r="C128" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E128" s="3">
         <v>6</v>
@@ -3511,10 +3511,10 @@
       <c r="A129" s="12"/>
       <c r="B129" s="8"/>
       <c r="C129" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E129" s="3">
         <v>2</v>
@@ -3525,13 +3525,13 @@
         <v>6</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
@@ -3544,7 +3544,7 @@
         <v>54</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
@@ -3555,13 +3555,13 @@
         <v>6</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E132" s="3">
         <v>18</v>
@@ -3571,10 +3571,10 @@
       <c r="A133" s="12"/>
       <c r="B133" s="8"/>
       <c r="C133" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E133" s="3">
         <v>5</v>
@@ -3585,13 +3585,13 @@
         <v>6</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E134" s="3">
         <v>3</v>
@@ -3601,10 +3601,10 @@
       <c r="A135" s="12"/>
       <c r="B135" s="8"/>
       <c r="C135" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E135" s="3">
         <v>4</v>
@@ -3614,10 +3614,10 @@
       <c r="A136" s="12"/>
       <c r="B136" s="8"/>
       <c r="C136" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
@@ -3628,13 +3628,13 @@
         <v>6</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E137" s="3">
         <v>7</v>
@@ -3644,10 +3644,10 @@
       <c r="A138" s="12"/>
       <c r="B138" s="8"/>
       <c r="C138" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
@@ -3657,10 +3657,10 @@
       <c r="A139" s="12"/>
       <c r="B139" s="8"/>
       <c r="C139" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="E139" s="3">
         <v>3</v>
@@ -3671,13 +3671,13 @@
         <v>6</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E140" s="3">
         <v>3</v>
@@ -3688,13 +3688,13 @@
         <v>6</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E141" s="3">
         <v>2</v>
@@ -3704,10 +3704,10 @@
       <c r="A142" s="12"/>
       <c r="B142" s="8"/>
       <c r="C142" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E142" s="3">
         <v>2</v>
@@ -3717,10 +3717,10 @@
       <c r="A143" s="12"/>
       <c r="B143" s="8"/>
       <c r="C143" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E143" s="3">
         <v>1</v>
@@ -4345,13 +4345,13 @@
         <v>24</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E180" s="3">
         <v>3</v>
@@ -4364,7 +4364,7 @@
         <v>54</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E181" s="3">
         <v>1</v>
@@ -4375,13 +4375,13 @@
         <v>24</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E182" s="3">
         <v>2</v>
@@ -4392,13 +4392,13 @@
         <v>24</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E183" s="3">
         <v>1</v>
@@ -4411,7 +4411,7 @@
         <v>54</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E184" s="3">
         <v>1</v>
@@ -4422,13 +4422,13 @@
         <v>24</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E185" s="3">
         <v>1</v>
@@ -4441,7 +4441,7 @@
         <v>54</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E186" s="3">
         <v>1</v>
@@ -4454,7 +4454,7 @@
         <v>54</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E187" s="3">
         <v>1</v>
@@ -4465,13 +4465,13 @@
         <v>24</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E188" s="3">
         <v>1</v>
@@ -4482,13 +4482,13 @@
         <v>24</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E189" s="3">
         <v>3</v>
@@ -4501,7 +4501,7 @@
         <v>54</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E190" s="3">
         <v>10</v>
@@ -4514,7 +4514,7 @@
         <v>54</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E191" s="3">
         <v>6</v>
@@ -4525,13 +4525,13 @@
         <v>24</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D192" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="E192" s="3">
         <v>1</v>
@@ -4624,13 +4624,13 @@
         <v>38</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E198" s="3">
         <v>2</v>
@@ -4641,13 +4641,13 @@
         <v>38</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E199" s="3">
         <v>1</v>
@@ -4660,7 +4660,7 @@
         <v>52</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E200" s="3">
         <v>1</v>
@@ -4673,7 +4673,7 @@
         <v>54</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E201" s="3">
         <v>2</v>
@@ -4686,7 +4686,7 @@
         <v>54</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E202" s="3">
         <v>1</v>
@@ -4697,13 +4697,13 @@
         <v>38</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E203" s="3">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>54</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E204" s="3">
         <v>1</v>
@@ -4727,13 +4727,13 @@
         <v>38</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E205" s="3">
         <v>2</v>
@@ -4741,16 +4741,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D206" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="E206" s="3">
         <v>1</v>
@@ -4758,16 +4758,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B207" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="C207" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D207" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="E207" s="3">
         <v>9</v>
@@ -4780,7 +4780,7 @@
         <v>54</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E208" s="3">
         <v>2</v>
@@ -4788,56 +4788,49 @@
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="F58:F63"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="F78:F82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="F176:F178"/>
-    <mergeCell ref="F193:F196"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="F155:F158"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="F161:F165"/>
-    <mergeCell ref="F166:F169"/>
-    <mergeCell ref="F170:F172"/>
-    <mergeCell ref="F173:F175"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B161:B165"/>
-    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="A137:A139"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="A199:A202"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="F153:F154"/>
@@ -4862,38 +4855,32 @@
     <mergeCell ref="B112:B113"/>
     <mergeCell ref="B109:B111"/>
     <mergeCell ref="B106:B108"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="A199:A202"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="F155:F158"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="F161:F165"/>
+    <mergeCell ref="F166:F169"/>
+    <mergeCell ref="F170:F172"/>
+    <mergeCell ref="F173:F175"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B161:B165"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A52:A54"/>
     <mergeCell ref="B20:B26"/>
     <mergeCell ref="A20:A26"/>
     <mergeCell ref="B27:B29"/>
@@ -4905,17 +4892,30 @@
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="A137:A139"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="F58:F63"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="F70:F74"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="F176:F178"/>
+    <mergeCell ref="F193:F196"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">

--- a/bin/onmyoji.xlsx
+++ b/bin/onmyoji.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr showObjects="none"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr showObjects="none" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\WORKSPACES\WS_STS\onmyojibot\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="챕터정보" sheetId="4" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="450">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2215,10 +2220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kaguyahime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2c/280skin1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2255,10 +2256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/fe/285skin1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2295,10 +2292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enenra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/b0/281skin1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2316,10 +2309,6 @@
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bb/287skin1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Itsumade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2355,11 +2344,27 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>카구야히메</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔엔라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이츠마데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -2784,48 +2789,93 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2844,55 +2894,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3224,14 +3229,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3412,7 +3417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3427,7 +3432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3440,14 +3445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2460" ySplit="660" topLeftCell="A137" activePane="bottomRight"/>
+      <pane xSplit="2460" ySplit="660" topLeftCell="A295" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="F1" sqref="F1:F1048576"/>
       <selection pane="bottomLeft" activeCell="A322" sqref="A322:XFD324"/>
-      <selection pane="bottomRight" activeCell="G149" sqref="G149"/>
+      <selection pane="bottomRight" activeCell="C328" sqref="C328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3490,10 +3495,10 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -3505,7 +3510,7 @@
       <c r="E2" s="7">
         <v>12</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="70" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="9"/>
@@ -3515,7 +3520,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="85"/>
-      <c r="B3" s="74"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="11" t="s">
         <v>52</v>
       </c>
@@ -3531,7 +3536,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="85"/>
-      <c r="B4" s="74"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="11" t="s">
         <v>181</v>
       </c>
@@ -3547,7 +3552,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="85"/>
-      <c r="B5" s="74"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="11" t="s">
         <v>52</v>
       </c>
@@ -3563,7 +3568,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="85"/>
-      <c r="B6" s="74"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="11" t="s">
         <v>52</v>
       </c>
@@ -3579,7 +3584,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="85"/>
-      <c r="B7" s="74"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="11" t="s">
         <v>52</v>
       </c>
@@ -3595,7 +3600,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="85"/>
-      <c r="B8" s="74"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="11" t="s">
         <v>52</v>
       </c>
@@ -3611,7 +3616,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="85"/>
-      <c r="B9" s="74"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="11" t="s">
         <v>181</v>
       </c>
@@ -3627,7 +3632,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="85"/>
-      <c r="B10" s="74"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="11" t="s">
         <v>52</v>
       </c>
@@ -3643,7 +3648,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="85"/>
-      <c r="B11" s="74"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="11" t="s">
         <v>184</v>
       </c>
@@ -3659,7 +3664,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="85"/>
-      <c r="B12" s="74"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="11" t="s">
         <v>184</v>
       </c>
@@ -3675,7 +3680,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="85"/>
-      <c r="B13" s="74"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="11" t="s">
         <v>186</v>
       </c>
@@ -3691,7 +3696,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="85"/>
-      <c r="B14" s="74"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="11" t="s">
         <v>184</v>
       </c>
@@ -3707,7 +3712,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="85"/>
-      <c r="B15" s="74"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="11" t="s">
         <v>184</v>
       </c>
@@ -3722,8 +3727,8 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="86"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="15" t="s">
         <v>50</v>
       </c>
@@ -3733,15 +3738,15 @@
       <c r="E16" s="15">
         <v>2</v>
       </c>
-      <c r="F16" s="73"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="80" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -3753,7 +3758,7 @@
       <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="69" t="s">
         <v>265</v>
       </c>
       <c r="H17" s="19" t="s">
@@ -3761,8 +3766,8 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="89"/>
-      <c r="B18" s="75"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
@@ -3772,12 +3777,12 @@
       <c r="E18" s="3">
         <v>4</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="69"/>
       <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="89"/>
-      <c r="B19" s="75"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
@@ -3787,12 +3792,12 @@
       <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F19" s="69"/>
       <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="89"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
@@ -3802,11 +3807,11 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="70"/>
+      <c r="F20" s="69"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="89"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
@@ -3816,11 +3821,11 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="70"/>
+      <c r="F21" s="69"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="89"/>
-      <c r="B22" s="75"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="3" t="s">
         <v>236</v>
       </c>
@@ -3830,11 +3835,11 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="70"/>
+      <c r="F22" s="69"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="89"/>
-      <c r="B23" s="75"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="3" t="s">
         <v>210</v>
       </c>
@@ -3844,11 +3849,11 @@
       <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="70"/>
+      <c r="F23" s="69"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="89"/>
-      <c r="B24" s="75"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
@@ -3858,13 +3863,13 @@
       <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="70"/>
+      <c r="F24" s="69"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="62" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -3876,7 +3881,7 @@
       <c r="E25" s="7">
         <v>1</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="70" t="s">
         <v>266</v>
       </c>
       <c r="G25" s="20"/>
@@ -3886,7 +3891,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="85"/>
-      <c r="B26" s="74"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="11" t="s">
         <v>229</v>
       </c>
@@ -3902,7 +3907,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="85"/>
-      <c r="B27" s="74"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="11" t="s">
         <v>229</v>
       </c>
@@ -3918,7 +3923,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="85"/>
-      <c r="B28" s="74"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="11" t="s">
         <v>229</v>
       </c>
@@ -3934,7 +3939,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="85"/>
-      <c r="B29" s="74"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="11" t="s">
         <v>229</v>
       </c>
@@ -3950,7 +3955,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="85"/>
-      <c r="B30" s="74"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="11" t="s">
         <v>229</v>
       </c>
@@ -3966,7 +3971,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="85"/>
-      <c r="B31" s="74"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="11" t="s">
         <v>210</v>
       </c>
@@ -3982,7 +3987,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="85"/>
-      <c r="B32" s="74"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="11" t="s">
         <v>210</v>
       </c>
@@ -3998,7 +4003,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="85"/>
-      <c r="B33" s="74"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="11" t="s">
         <v>50</v>
       </c>
@@ -4013,8 +4018,8 @@
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="86"/>
-      <c r="B34" s="65"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="15" t="s">
         <v>51</v>
       </c>
@@ -4024,15 +4029,15 @@
       <c r="E34" s="15">
         <v>3</v>
       </c>
-      <c r="F34" s="73"/>
+      <c r="F34" s="71"/>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -4044,7 +4049,7 @@
       <c r="E35" s="7">
         <v>1</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="70" t="s">
         <v>54</v>
       </c>
       <c r="G35" s="20"/>
@@ -4054,7 +4059,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="85"/>
-      <c r="B36" s="74"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="11" t="s">
         <v>229</v>
       </c>
@@ -4070,7 +4075,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="85"/>
-      <c r="B37" s="74"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="11" t="s">
         <v>229</v>
       </c>
@@ -4086,7 +4091,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="85"/>
-      <c r="B38" s="74"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="11" t="s">
         <v>229</v>
       </c>
@@ -4102,7 +4107,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="85"/>
-      <c r="B39" s="74"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="11" t="s">
         <v>229</v>
       </c>
@@ -4118,7 +4123,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="85"/>
-      <c r="B40" s="74"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="11" t="s">
         <v>229</v>
       </c>
@@ -4134,7 +4139,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="85"/>
-      <c r="B41" s="74"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="11" t="s">
         <v>229</v>
       </c>
@@ -4150,7 +4155,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="85"/>
-      <c r="B42" s="74"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="11" t="s">
         <v>229</v>
       </c>
@@ -4166,7 +4171,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="85"/>
-      <c r="B43" s="74"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="11" t="s">
         <v>229</v>
       </c>
@@ -4182,7 +4187,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="85"/>
-      <c r="B44" s="74"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="11" t="s">
         <v>229</v>
       </c>
@@ -4198,7 +4203,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="85"/>
-      <c r="B45" s="74"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="11" t="s">
         <v>226</v>
       </c>
@@ -4214,7 +4219,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="85"/>
-      <c r="B46" s="74"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="11" t="s">
         <v>210</v>
       </c>
@@ -4230,7 +4235,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="85"/>
-      <c r="B47" s="74"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="11" t="s">
         <v>51</v>
       </c>
@@ -4245,10 +4250,10 @@
       <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="88" t="s">
+      <c r="A48" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="62" t="s">
         <v>151</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -4268,7 +4273,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="85"/>
-      <c r="B49" s="74"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="11" t="s">
         <v>118</v>
       </c>
@@ -4284,7 +4289,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="85"/>
-      <c r="B50" s="74"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="11" t="s">
         <v>118</v>
       </c>
@@ -4300,7 +4305,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="85"/>
-      <c r="B51" s="74"/>
+      <c r="B51" s="63"/>
       <c r="C51" s="11" t="s">
         <v>210</v>
       </c>
@@ -4316,7 +4321,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="85"/>
-      <c r="B52" s="74"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="11" t="s">
         <v>51</v>
       </c>
@@ -4332,7 +4337,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="85"/>
-      <c r="B53" s="74"/>
+      <c r="B53" s="63"/>
       <c r="C53" s="11" t="s">
         <v>52</v>
       </c>
@@ -4348,7 +4353,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="85"/>
-      <c r="B54" s="74"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="11" t="s">
         <v>52</v>
       </c>
@@ -4364,7 +4369,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="85"/>
-      <c r="B55" s="74"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="11" t="s">
         <v>52</v>
       </c>
@@ -4380,7 +4385,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="85"/>
-      <c r="B56" s="74"/>
+      <c r="B56" s="63"/>
       <c r="C56" s="11" t="s">
         <v>52</v>
       </c>
@@ -4396,7 +4401,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="85"/>
-      <c r="B57" s="74"/>
+      <c r="B57" s="63"/>
       <c r="C57" s="11" t="s">
         <v>52</v>
       </c>
@@ -4412,7 +4417,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="85"/>
-      <c r="B58" s="74"/>
+      <c r="B58" s="63"/>
       <c r="C58" s="11" t="s">
         <v>52</v>
       </c>
@@ -4427,8 +4432,8 @@
       <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="86"/>
-      <c r="B59" s="65"/>
+      <c r="A59" s="89"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="15" t="s">
         <v>52</v>
       </c>
@@ -4446,7 +4451,7 @@
       <c r="A60" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="74" t="s">
+      <c r="B60" s="63" t="s">
         <v>152</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -4466,7 +4471,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="85"/>
-      <c r="B61" s="74"/>
+      <c r="B61" s="63"/>
       <c r="C61" s="11" t="s">
         <v>137</v>
       </c>
@@ -4482,7 +4487,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="85"/>
-      <c r="B62" s="74"/>
+      <c r="B62" s="63"/>
       <c r="C62" s="11" t="s">
         <v>52</v>
       </c>
@@ -4498,7 +4503,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="85"/>
-      <c r="B63" s="74"/>
+      <c r="B63" s="63"/>
       <c r="C63" s="11" t="s">
         <v>137</v>
       </c>
@@ -4514,7 +4519,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="85"/>
-      <c r="B64" s="74"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="11" t="s">
         <v>52</v>
       </c>
@@ -4530,7 +4535,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="85"/>
-      <c r="B65" s="74"/>
+      <c r="B65" s="63"/>
       <c r="C65" s="11" t="s">
         <v>52</v>
       </c>
@@ -4546,7 +4551,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="85"/>
-      <c r="B66" s="74"/>
+      <c r="B66" s="63"/>
       <c r="C66" s="11" t="s">
         <v>52</v>
       </c>
@@ -4562,7 +4567,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="85"/>
-      <c r="B67" s="74"/>
+      <c r="B67" s="63"/>
       <c r="C67" s="11" t="s">
         <v>52</v>
       </c>
@@ -4578,7 +4583,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="85"/>
-      <c r="B68" s="74"/>
+      <c r="B68" s="63"/>
       <c r="C68" s="11" t="s">
         <v>52</v>
       </c>
@@ -4593,8 +4598,8 @@
       <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="86"/>
-      <c r="B69" s="65"/>
+      <c r="A69" s="89"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="15" t="s">
         <v>52</v>
       </c>
@@ -4609,10 +4614,10 @@
       <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="88" t="s">
+      <c r="A70" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="B70" s="64" t="s">
+      <c r="B70" s="62" t="s">
         <v>153</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -4632,7 +4637,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="85"/>
-      <c r="B71" s="74"/>
+      <c r="B71" s="63"/>
       <c r="C71" s="11" t="s">
         <v>137</v>
       </c>
@@ -4648,7 +4653,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="85"/>
-      <c r="B72" s="74"/>
+      <c r="B72" s="63"/>
       <c r="C72" s="11" t="s">
         <v>52</v>
       </c>
@@ -4664,7 +4669,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="85"/>
-      <c r="B73" s="74"/>
+      <c r="B73" s="63"/>
       <c r="C73" s="11" t="s">
         <v>137</v>
       </c>
@@ -4679,8 +4684,8 @@
       <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="86"/>
-      <c r="B74" s="65"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="64"/>
       <c r="C74" s="15" t="s">
         <v>137</v>
       </c>
@@ -4695,10 +4700,10 @@
       <c r="H74" s="18"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="89" t="s">
+      <c r="A75" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="B75" s="75" t="s">
+      <c r="B75" s="80" t="s">
         <v>154</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -4715,8 +4720,8 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="89"/>
-      <c r="B76" s="75"/>
+      <c r="A76" s="90"/>
+      <c r="B76" s="80"/>
       <c r="C76" s="3" t="s">
         <v>118</v>
       </c>
@@ -4728,8 +4733,8 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="89"/>
-      <c r="B77" s="75"/>
+      <c r="A77" s="90"/>
+      <c r="B77" s="80"/>
       <c r="C77" s="3" t="s">
         <v>118</v>
       </c>
@@ -4741,8 +4746,8 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="89"/>
-      <c r="B78" s="75"/>
+      <c r="A78" s="90"/>
+      <c r="B78" s="80"/>
       <c r="C78" s="3" t="s">
         <v>236</v>
       </c>
@@ -4754,8 +4759,8 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="89"/>
-      <c r="B79" s="75"/>
+      <c r="A79" s="90"/>
+      <c r="B79" s="80"/>
       <c r="C79" s="3" t="s">
         <v>52</v>
       </c>
@@ -4767,8 +4772,8 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="89"/>
-      <c r="B80" s="75"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="80"/>
       <c r="C80" s="3" t="s">
         <v>52</v>
       </c>
@@ -4780,8 +4785,8 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="89"/>
-      <c r="B81" s="75"/>
+      <c r="A81" s="90"/>
+      <c r="B81" s="80"/>
       <c r="C81" s="3" t="s">
         <v>52</v>
       </c>
@@ -4793,8 +4798,8 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="89"/>
-      <c r="B82" s="75"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="80"/>
       <c r="C82" s="3" t="s">
         <v>52</v>
       </c>
@@ -4806,8 +4811,8 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="89"/>
-      <c r="B83" s="75"/>
+      <c r="A83" s="90"/>
+      <c r="B83" s="80"/>
       <c r="C83" s="3" t="s">
         <v>52</v>
       </c>
@@ -4819,8 +4824,8 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="89"/>
-      <c r="B84" s="75"/>
+      <c r="A84" s="90"/>
+      <c r="B84" s="80"/>
       <c r="C84" s="3" t="s">
         <v>52</v>
       </c>
@@ -4832,8 +4837,8 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="89"/>
-      <c r="B85" s="75"/>
+      <c r="A85" s="90"/>
+      <c r="B85" s="80"/>
       <c r="C85" s="3" t="s">
         <v>137</v>
       </c>
@@ -4845,8 +4850,8 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="89"/>
-      <c r="B86" s="75"/>
+      <c r="A86" s="90"/>
+      <c r="B86" s="80"/>
       <c r="C86" s="3" t="s">
         <v>137</v>
       </c>
@@ -4858,8 +4863,8 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="89"/>
-      <c r="B87" s="75"/>
+      <c r="A87" s="90"/>
+      <c r="B87" s="80"/>
       <c r="C87" s="3" t="s">
         <v>52</v>
       </c>
@@ -4871,8 +4876,8 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="89"/>
-      <c r="B88" s="75"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="80"/>
       <c r="C88" s="3" t="s">
         <v>137</v>
       </c>
@@ -4884,10 +4889,10 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="88" t="s">
+      <c r="A89" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="B89" s="64" t="s">
+      <c r="B89" s="62" t="s">
         <v>155</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -4907,7 +4912,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="85"/>
-      <c r="B90" s="74"/>
+      <c r="B90" s="63"/>
       <c r="C90" s="11" t="s">
         <v>118</v>
       </c>
@@ -4923,7 +4928,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="85"/>
-      <c r="B91" s="74"/>
+      <c r="B91" s="63"/>
       <c r="C91" s="11" t="s">
         <v>184</v>
       </c>
@@ -4939,7 +4944,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="85"/>
-      <c r="B92" s="74"/>
+      <c r="B92" s="63"/>
       <c r="C92" s="11" t="s">
         <v>118</v>
       </c>
@@ -4955,7 +4960,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="85"/>
-      <c r="B93" s="74"/>
+      <c r="B93" s="63"/>
       <c r="C93" s="11" t="s">
         <v>137</v>
       </c>
@@ -4971,7 +4976,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="85"/>
-      <c r="B94" s="74"/>
+      <c r="B94" s="63"/>
       <c r="C94" s="11" t="s">
         <v>52</v>
       </c>
@@ -4987,7 +4992,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="85"/>
-      <c r="B95" s="74"/>
+      <c r="B95" s="63"/>
       <c r="C95" s="11" t="s">
         <v>52</v>
       </c>
@@ -5003,7 +5008,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="85"/>
-      <c r="B96" s="74"/>
+      <c r="B96" s="63"/>
       <c r="C96" s="11" t="s">
         <v>52</v>
       </c>
@@ -5019,7 +5024,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="85"/>
-      <c r="B97" s="74"/>
+      <c r="B97" s="63"/>
       <c r="C97" s="11" t="s">
         <v>52</v>
       </c>
@@ -5035,7 +5040,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="85"/>
-      <c r="B98" s="74"/>
+      <c r="B98" s="63"/>
       <c r="C98" s="11" t="s">
         <v>52</v>
       </c>
@@ -5050,8 +5055,8 @@
       <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="86"/>
-      <c r="B99" s="65"/>
+      <c r="A99" s="89"/>
+      <c r="B99" s="64"/>
       <c r="C99" s="15" t="s">
         <v>137</v>
       </c>
@@ -5066,10 +5071,10 @@
       <c r="H99" s="18"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="95" t="s">
+      <c r="A100" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="B100" s="64" t="s">
+      <c r="B100" s="62" t="s">
         <v>156</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -5086,8 +5091,8 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="96"/>
-      <c r="B101" s="74"/>
+      <c r="A101" s="87"/>
+      <c r="B101" s="63"/>
       <c r="C101" s="3" t="s">
         <v>133</v>
       </c>
@@ -5099,8 +5104,8 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="96"/>
-      <c r="B102" s="74"/>
+      <c r="A102" s="87"/>
+      <c r="B102" s="63"/>
       <c r="C102" s="3" t="s">
         <v>133</v>
       </c>
@@ -5112,8 +5117,8 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="96"/>
-      <c r="B103" s="74"/>
+      <c r="A103" s="87"/>
+      <c r="B103" s="63"/>
       <c r="C103" s="3" t="s">
         <v>133</v>
       </c>
@@ -5125,8 +5130,8 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="96"/>
-      <c r="B104" s="74"/>
+      <c r="A104" s="87"/>
+      <c r="B104" s="63"/>
       <c r="C104" s="3" t="s">
         <v>52</v>
       </c>
@@ -5138,8 +5143,8 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="97"/>
-      <c r="B105" s="65"/>
+      <c r="A105" s="88"/>
+      <c r="B105" s="64"/>
       <c r="C105" s="3" t="s">
         <v>52</v>
       </c>
@@ -5151,10 +5156,10 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="88" t="s">
+      <c r="A106" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="B106" s="64" t="s">
+      <c r="B106" s="62" t="s">
         <v>157</v>
       </c>
       <c r="C106" s="7" t="s">
@@ -5174,7 +5179,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="85"/>
-      <c r="B107" s="74"/>
+      <c r="B107" s="63"/>
       <c r="C107" s="11" t="s">
         <v>137</v>
       </c>
@@ -5189,8 +5194,8 @@
       <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="86"/>
-      <c r="B108" s="65"/>
+      <c r="A108" s="89"/>
+      <c r="B108" s="64"/>
       <c r="C108" s="15" t="s">
         <v>137</v>
       </c>
@@ -5205,10 +5210,10 @@
       <c r="H108" s="18"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="88" t="s">
+      <c r="A109" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="B109" s="64" t="s">
+      <c r="B109" s="62" t="s">
         <v>158</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -5228,7 +5233,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="85"/>
-      <c r="B110" s="74"/>
+      <c r="B110" s="63"/>
       <c r="C110" s="11" t="s">
         <v>52</v>
       </c>
@@ -5244,7 +5249,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="85"/>
-      <c r="B111" s="74"/>
+      <c r="B111" s="63"/>
       <c r="C111" s="11" t="s">
         <v>210</v>
       </c>
@@ -5259,8 +5264,8 @@
       <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="86"/>
-      <c r="B112" s="65"/>
+      <c r="A112" s="89"/>
+      <c r="B112" s="64"/>
       <c r="C112" s="15" t="s">
         <v>52</v>
       </c>
@@ -5275,10 +5280,10 @@
       <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="93" t="s">
+      <c r="A113" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="75" t="s">
+      <c r="B113" s="80" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="3" t="s">
@@ -5290,7 +5295,7 @@
       <c r="E113" s="3">
         <v>6</v>
       </c>
-      <c r="F113" s="70" t="s">
+      <c r="F113" s="69" t="s">
         <v>329</v>
       </c>
       <c r="H113" s="19" t="s">
@@ -5298,8 +5303,8 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="84"/>
-      <c r="B114" s="75"/>
+      <c r="A114" s="76"/>
+      <c r="B114" s="80"/>
       <c r="C114" s="3" t="s">
         <v>52</v>
       </c>
@@ -5309,11 +5314,11 @@
       <c r="E114" s="3">
         <v>2</v>
       </c>
-      <c r="F114" s="70"/>
+      <c r="F114" s="69"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="94"/>
-      <c r="B115" s="75"/>
+      <c r="A115" s="75"/>
+      <c r="B115" s="80"/>
       <c r="C115" s="3" t="s">
         <v>50</v>
       </c>
@@ -5323,13 +5328,13 @@
       <c r="E115" s="3">
         <v>1</v>
       </c>
-      <c r="F115" s="70"/>
+      <c r="F115" s="69"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="62" t="s">
+      <c r="A116" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="64" t="s">
+      <c r="B116" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -5341,7 +5346,7 @@
       <c r="E116" s="7">
         <v>1</v>
       </c>
-      <c r="F116" s="71" t="s">
+      <c r="F116" s="70" t="s">
         <v>55</v>
       </c>
       <c r="G116" s="20"/>
@@ -5350,8 +5355,8 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="87"/>
-      <c r="B117" s="74"/>
+      <c r="A117" s="78"/>
+      <c r="B117" s="63"/>
       <c r="C117" s="11" t="s">
         <v>52</v>
       </c>
@@ -5366,8 +5371,8 @@
       <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="87"/>
-      <c r="B118" s="74"/>
+      <c r="A118" s="78"/>
+      <c r="B118" s="63"/>
       <c r="C118" s="11" t="s">
         <v>52</v>
       </c>
@@ -5382,8 +5387,8 @@
       <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="87"/>
-      <c r="B119" s="74"/>
+      <c r="A119" s="78"/>
+      <c r="B119" s="63"/>
       <c r="C119" s="11" t="s">
         <v>52</v>
       </c>
@@ -5398,8 +5403,8 @@
       <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="87"/>
-      <c r="B120" s="74"/>
+      <c r="A120" s="78"/>
+      <c r="B120" s="63"/>
       <c r="C120" s="11" t="s">
         <v>50</v>
       </c>
@@ -5414,8 +5419,8 @@
       <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="63"/>
-      <c r="B121" s="65"/>
+      <c r="A121" s="79"/>
+      <c r="B121" s="64"/>
       <c r="C121" s="15" t="s">
         <v>50</v>
       </c>
@@ -5425,15 +5430,15 @@
       <c r="E121" s="15">
         <v>1</v>
       </c>
-      <c r="F121" s="73"/>
+      <c r="F121" s="71"/>
       <c r="G121" s="17"/>
       <c r="H121" s="18"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="84" t="s">
+      <c r="A122" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="75" t="s">
+      <c r="B122" s="80" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -5445,7 +5450,7 @@
       <c r="E122" s="3">
         <v>7</v>
       </c>
-      <c r="F122" s="70" t="s">
+      <c r="F122" s="69" t="s">
         <v>56</v>
       </c>
       <c r="H122" s="19" t="s">
@@ -5453,8 +5458,8 @@
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="84"/>
-      <c r="B123" s="75"/>
+      <c r="A123" s="76"/>
+      <c r="B123" s="80"/>
       <c r="C123" s="3" t="s">
         <v>50</v>
       </c>
@@ -5464,11 +5469,11 @@
       <c r="E123" s="3">
         <v>1</v>
       </c>
-      <c r="F123" s="70"/>
+      <c r="F123" s="69"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="84"/>
-      <c r="B124" s="75"/>
+      <c r="A124" s="76"/>
+      <c r="B124" s="80"/>
       <c r="C124" s="3" t="s">
         <v>50</v>
       </c>
@@ -5478,11 +5483,11 @@
       <c r="E124" s="3">
         <v>1</v>
       </c>
-      <c r="F124" s="70"/>
+      <c r="F124" s="69"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="94"/>
-      <c r="B125" s="75"/>
+      <c r="A125" s="75"/>
+      <c r="B125" s="80"/>
       <c r="C125" s="3" t="s">
         <v>50</v>
       </c>
@@ -5492,13 +5497,13 @@
       <c r="E125" s="3">
         <v>1</v>
       </c>
-      <c r="F125" s="70"/>
+      <c r="F125" s="69"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="62" t="s">
+      <c r="A126" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B126" s="64" t="s">
+      <c r="B126" s="62" t="s">
         <v>22</v>
       </c>
       <c r="C126" s="7" t="s">
@@ -5510,7 +5515,7 @@
       <c r="E126" s="7">
         <v>1</v>
       </c>
-      <c r="F126" s="71" t="s">
+      <c r="F126" s="70" t="s">
         <v>354</v>
       </c>
       <c r="G126" s="20"/>
@@ -5519,8 +5524,8 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="63"/>
-      <c r="B127" s="65"/>
+      <c r="A127" s="79"/>
+      <c r="B127" s="64"/>
       <c r="C127" s="15" t="s">
         <v>50</v>
       </c>
@@ -5530,15 +5535,15 @@
       <c r="E127" s="15">
         <v>1</v>
       </c>
-      <c r="F127" s="73"/>
+      <c r="F127" s="71"/>
       <c r="G127" s="17"/>
       <c r="H127" s="18"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="93" t="s">
+      <c r="A128" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="75" t="s">
+      <c r="B128" s="80" t="s">
         <v>20</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -5550,7 +5555,7 @@
       <c r="E128" s="3">
         <v>2</v>
       </c>
-      <c r="F128" s="70" t="s">
+      <c r="F128" s="69" t="s">
         <v>57</v>
       </c>
       <c r="H128" s="19" t="s">
@@ -5558,8 +5563,8 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="84"/>
-      <c r="B129" s="75"/>
+      <c r="A129" s="76"/>
+      <c r="B129" s="80"/>
       <c r="C129" s="3" t="s">
         <v>52</v>
       </c>
@@ -5569,12 +5574,12 @@
       <c r="E129" s="3">
         <v>4</v>
       </c>
-      <c r="F129" s="70"/>
+      <c r="F129" s="69"/>
       <c r="H129" s="19"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="84"/>
-      <c r="B130" s="75"/>
+      <c r="A130" s="76"/>
+      <c r="B130" s="80"/>
       <c r="C130" s="3" t="s">
         <v>52</v>
       </c>
@@ -5584,12 +5589,12 @@
       <c r="E130" s="3">
         <v>6</v>
       </c>
-      <c r="F130" s="70"/>
+      <c r="F130" s="69"/>
       <c r="H130" s="19"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="84"/>
-      <c r="B131" s="75"/>
+      <c r="A131" s="76"/>
+      <c r="B131" s="80"/>
       <c r="C131" s="3" t="s">
         <v>52</v>
       </c>
@@ -5599,11 +5604,11 @@
       <c r="E131" s="3">
         <v>3</v>
       </c>
-      <c r="F131" s="70"/>
+      <c r="F131" s="69"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="84"/>
-      <c r="B132" s="75"/>
+      <c r="A132" s="76"/>
+      <c r="B132" s="80"/>
       <c r="C132" s="3" t="s">
         <v>52</v>
       </c>
@@ -5613,11 +5618,11 @@
       <c r="E132" s="3">
         <v>3</v>
       </c>
-      <c r="F132" s="70"/>
+      <c r="F132" s="69"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="94"/>
-      <c r="B133" s="75"/>
+      <c r="A133" s="75"/>
+      <c r="B133" s="80"/>
       <c r="C133" s="3" t="s">
         <v>256</v>
       </c>
@@ -5627,13 +5632,13 @@
       <c r="E133" s="3">
         <v>1</v>
       </c>
-      <c r="F133" s="70"/>
+      <c r="F133" s="69"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="62" t="s">
+      <c r="A134" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="64" t="s">
+      <c r="B134" s="62" t="s">
         <v>13</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -5645,7 +5650,7 @@
       <c r="E134" s="7">
         <v>2</v>
       </c>
-      <c r="F134" s="71" t="s">
+      <c r="F134" s="70" t="s">
         <v>58</v>
       </c>
       <c r="G134" s="20"/>
@@ -5654,8 +5659,8 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="87"/>
-      <c r="B135" s="74"/>
+      <c r="A135" s="78"/>
+      <c r="B135" s="63"/>
       <c r="C135" s="11" t="s">
         <v>52</v>
       </c>
@@ -5670,8 +5675,8 @@
       <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="63"/>
-      <c r="B136" s="65"/>
+      <c r="A136" s="79"/>
+      <c r="B136" s="64"/>
       <c r="C136" s="15" t="s">
         <v>50</v>
       </c>
@@ -5681,15 +5686,15 @@
       <c r="E136" s="15">
         <v>1</v>
       </c>
-      <c r="F136" s="73"/>
+      <c r="F136" s="71"/>
       <c r="G136" s="17"/>
       <c r="H136" s="18"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="62" t="s">
+      <c r="A137" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="64" t="s">
+      <c r="B137" s="62" t="s">
         <v>14</v>
       </c>
       <c r="C137" s="7" t="s">
@@ -5701,7 +5706,7 @@
       <c r="E137" s="7">
         <v>7</v>
       </c>
-      <c r="F137" s="71" t="s">
+      <c r="F137" s="70" t="s">
         <v>264</v>
       </c>
       <c r="G137" s="20"/>
@@ -5710,8 +5715,8 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="87"/>
-      <c r="B138" s="74"/>
+      <c r="A138" s="78"/>
+      <c r="B138" s="63"/>
       <c r="C138" s="7" t="s">
         <v>52</v>
       </c>
@@ -5726,8 +5731,8 @@
       <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="87"/>
-      <c r="B139" s="74"/>
+      <c r="A139" s="78"/>
+      <c r="B139" s="63"/>
       <c r="C139" s="11" t="s">
         <v>52</v>
       </c>
@@ -5742,8 +5747,8 @@
       <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="87"/>
-      <c r="B140" s="74"/>
+      <c r="A140" s="78"/>
+      <c r="B140" s="63"/>
       <c r="C140" s="11" t="s">
         <v>52</v>
       </c>
@@ -5758,8 +5763,8 @@
       <c r="H140" s="14"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="87"/>
-      <c r="B141" s="74"/>
+      <c r="A141" s="78"/>
+      <c r="B141" s="63"/>
       <c r="C141" s="11" t="s">
         <v>50</v>
       </c>
@@ -5774,8 +5779,8 @@
       <c r="H141" s="14"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="63"/>
-      <c r="B142" s="65"/>
+      <c r="A142" s="79"/>
+      <c r="B142" s="64"/>
       <c r="C142" s="15" t="s">
         <v>50</v>
       </c>
@@ -5785,15 +5790,15 @@
       <c r="E142" s="15">
         <v>1</v>
       </c>
-      <c r="F142" s="73"/>
+      <c r="F142" s="71"/>
       <c r="G142" s="17"/>
       <c r="H142" s="18"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="62" t="s">
+      <c r="A143" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B143" s="64" t="s">
+      <c r="B143" s="62" t="s">
         <v>19</v>
       </c>
       <c r="C143" s="7" t="s">
@@ -5805,7 +5810,7 @@
       <c r="E143" s="7">
         <v>2</v>
       </c>
-      <c r="F143" s="71" t="s">
+      <c r="F143" s="70" t="s">
         <v>59</v>
       </c>
       <c r="G143" s="20"/>
@@ -5814,8 +5819,8 @@
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="63"/>
-      <c r="B144" s="65"/>
+      <c r="A144" s="79"/>
+      <c r="B144" s="64"/>
       <c r="C144" s="15" t="s">
         <v>50</v>
       </c>
@@ -5825,15 +5830,15 @@
       <c r="E144" s="15">
         <v>1</v>
       </c>
-      <c r="F144" s="73"/>
+      <c r="F144" s="71"/>
       <c r="G144" s="17"/>
       <c r="H144" s="18"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="62" t="s">
+      <c r="A145" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B145" s="64" t="s">
+      <c r="B145" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="7" t="s">
@@ -5845,7 +5850,7 @@
       <c r="E145" s="7">
         <v>2</v>
       </c>
-      <c r="F145" s="71" t="s">
+      <c r="F145" s="70" t="s">
         <v>60</v>
       </c>
       <c r="G145" s="20"/>
@@ -5854,8 +5859,8 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="87"/>
-      <c r="B146" s="74"/>
+      <c r="A146" s="78"/>
+      <c r="B146" s="63"/>
       <c r="C146" s="11" t="s">
         <v>52</v>
       </c>
@@ -5870,8 +5875,8 @@
       <c r="H146" s="14"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="87"/>
-      <c r="B147" s="74"/>
+      <c r="A147" s="78"/>
+      <c r="B147" s="63"/>
       <c r="C147" s="11" t="s">
         <v>52</v>
       </c>
@@ -5886,8 +5891,8 @@
       <c r="H147" s="14"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="63"/>
-      <c r="B148" s="65"/>
+      <c r="A148" s="79"/>
+      <c r="B148" s="64"/>
       <c r="C148" s="15" t="s">
         <v>50</v>
       </c>
@@ -5897,15 +5902,15 @@
       <c r="E148" s="15">
         <v>1</v>
       </c>
-      <c r="F148" s="73"/>
+      <c r="F148" s="71"/>
       <c r="G148" s="17"/>
       <c r="H148" s="18"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="62" t="s">
+      <c r="A149" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B149" s="64" t="s">
+      <c r="B149" s="62" t="s">
         <v>277</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -5917,8 +5922,8 @@
       <c r="E149" s="7">
         <v>7</v>
       </c>
-      <c r="F149" s="98" t="s">
-        <v>449</v>
+      <c r="F149" s="73" t="s">
+        <v>445</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="10" t="s">
@@ -5926,8 +5931,8 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="87"/>
-      <c r="B150" s="74"/>
+      <c r="A150" s="78"/>
+      <c r="B150" s="63"/>
       <c r="C150" s="11" t="s">
         <v>52</v>
       </c>
@@ -5942,8 +5947,8 @@
       <c r="H150" s="14"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="87"/>
-      <c r="B151" s="74"/>
+      <c r="A151" s="78"/>
+      <c r="B151" s="63"/>
       <c r="C151" s="11" t="s">
         <v>50</v>
       </c>
@@ -5958,8 +5963,8 @@
       <c r="H151" s="14"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="63"/>
-      <c r="B152" s="65"/>
+      <c r="A152" s="79"/>
+      <c r="B152" s="64"/>
       <c r="C152" s="15" t="s">
         <v>50</v>
       </c>
@@ -5969,15 +5974,15 @@
       <c r="E152" s="15">
         <v>1</v>
       </c>
-      <c r="F152" s="73"/>
+      <c r="F152" s="71"/>
       <c r="G152" s="17"/>
       <c r="H152" s="18"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="62" t="s">
+      <c r="A153" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B153" s="64" t="s">
+      <c r="B153" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -5989,7 +5994,7 @@
       <c r="E153" s="7">
         <v>5</v>
       </c>
-      <c r="F153" s="71" t="s">
+      <c r="F153" s="70" t="s">
         <v>355</v>
       </c>
       <c r="G153" s="20"/>
@@ -5998,8 +6003,8 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="87"/>
-      <c r="B154" s="74"/>
+      <c r="A154" s="78"/>
+      <c r="B154" s="63"/>
       <c r="C154" s="11" t="s">
         <v>248</v>
       </c>
@@ -6014,8 +6019,8 @@
       <c r="H154" s="21"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="87"/>
-      <c r="B155" s="74"/>
+      <c r="A155" s="78"/>
+      <c r="B155" s="63"/>
       <c r="C155" s="11" t="s">
         <v>50</v>
       </c>
@@ -6030,8 +6035,8 @@
       <c r="H155" s="14"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="63"/>
-      <c r="B156" s="65"/>
+      <c r="A156" s="79"/>
+      <c r="B156" s="64"/>
       <c r="C156" s="15" t="s">
         <v>50</v>
       </c>
@@ -6041,15 +6046,15 @@
       <c r="E156" s="15">
         <v>1</v>
       </c>
-      <c r="F156" s="73"/>
+      <c r="F156" s="71"/>
       <c r="G156" s="17"/>
       <c r="H156" s="18"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="93" t="s">
+      <c r="A157" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="75" t="s">
+      <c r="B157" s="80" t="s">
         <v>21</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -6061,7 +6066,7 @@
       <c r="E157" s="3">
         <v>1</v>
       </c>
-      <c r="F157" s="70" t="s">
+      <c r="F157" s="69" t="s">
         <v>61</v>
       </c>
       <c r="H157" s="19" t="s">
@@ -6069,8 +6074,8 @@
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="94"/>
-      <c r="B158" s="75"/>
+      <c r="A158" s="75"/>
+      <c r="B158" s="80"/>
       <c r="C158" s="3" t="s">
         <v>50</v>
       </c>
@@ -6080,13 +6085,13 @@
       <c r="E158" s="3">
         <v>1</v>
       </c>
-      <c r="F158" s="70"/>
+      <c r="F158" s="69"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="62" t="s">
+      <c r="A159" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B159" s="64" t="s">
+      <c r="B159" s="62" t="s">
         <v>16</v>
       </c>
       <c r="C159" s="7" t="s">
@@ -6098,7 +6103,7 @@
       <c r="E159" s="7">
         <v>1</v>
       </c>
-      <c r="F159" s="71" t="s">
+      <c r="F159" s="70" t="s">
         <v>62</v>
       </c>
       <c r="G159" s="20"/>
@@ -6107,8 +6112,8 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="87"/>
-      <c r="B160" s="74"/>
+      <c r="A160" s="78"/>
+      <c r="B160" s="63"/>
       <c r="C160" s="11" t="s">
         <v>248</v>
       </c>
@@ -6123,8 +6128,8 @@
       <c r="H160" s="21"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="87"/>
-      <c r="B161" s="74"/>
+      <c r="A161" s="78"/>
+      <c r="B161" s="63"/>
       <c r="C161" s="11" t="s">
         <v>50</v>
       </c>
@@ -6139,8 +6144,8 @@
       <c r="H161" s="14"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="87"/>
-      <c r="B162" s="74"/>
+      <c r="A162" s="78"/>
+      <c r="B162" s="63"/>
       <c r="C162" s="11" t="s">
         <v>50</v>
       </c>
@@ -6155,8 +6160,8 @@
       <c r="H162" s="14"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="87"/>
-      <c r="B163" s="74"/>
+      <c r="A163" s="78"/>
+      <c r="B163" s="63"/>
       <c r="C163" s="11" t="s">
         <v>50</v>
       </c>
@@ -6171,8 +6176,8 @@
       <c r="H163" s="14"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="63"/>
-      <c r="B164" s="65"/>
+      <c r="A164" s="79"/>
+      <c r="B164" s="64"/>
       <c r="C164" s="15" t="s">
         <v>51</v>
       </c>
@@ -6182,15 +6187,15 @@
       <c r="E164" s="15">
         <v>3</v>
       </c>
-      <c r="F164" s="73"/>
+      <c r="F164" s="71"/>
       <c r="G164" s="17"/>
       <c r="H164" s="18"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="62" t="s">
+      <c r="A165" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B165" s="64" t="s">
+      <c r="B165" s="62" t="s">
         <v>11</v>
       </c>
       <c r="C165" s="7" t="s">
@@ -6202,7 +6207,7 @@
       <c r="E165" s="7">
         <v>2</v>
       </c>
-      <c r="F165" s="71" t="s">
+      <c r="F165" s="70" t="s">
         <v>63</v>
       </c>
       <c r="G165" s="20"/>
@@ -6211,8 +6216,8 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="87"/>
-      <c r="B166" s="74"/>
+      <c r="A166" s="78"/>
+      <c r="B166" s="63"/>
       <c r="C166" s="11" t="s">
         <v>52</v>
       </c>
@@ -6227,8 +6232,8 @@
       <c r="H166" s="14"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="87"/>
-      <c r="B167" s="74"/>
+      <c r="A167" s="78"/>
+      <c r="B167" s="63"/>
       <c r="C167" s="11" t="s">
         <v>256</v>
       </c>
@@ -6243,8 +6248,8 @@
       <c r="H167" s="14"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="87"/>
-      <c r="B168" s="74"/>
+      <c r="A168" s="78"/>
+      <c r="B168" s="63"/>
       <c r="C168" s="11" t="s">
         <v>256</v>
       </c>
@@ -6259,8 +6264,8 @@
       <c r="H168" s="14"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="63"/>
-      <c r="B169" s="65"/>
+      <c r="A169" s="79"/>
+      <c r="B169" s="64"/>
       <c r="C169" s="15" t="s">
         <v>50</v>
       </c>
@@ -6270,15 +6275,15 @@
       <c r="E169" s="15">
         <v>1</v>
       </c>
-      <c r="F169" s="73"/>
+      <c r="F169" s="71"/>
       <c r="G169" s="17"/>
       <c r="H169" s="18"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="62" t="s">
+      <c r="A170" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B170" s="64" t="s">
+      <c r="B170" s="62" t="s">
         <v>18</v>
       </c>
       <c r="C170" s="7" t="s">
@@ -6290,7 +6295,7 @@
       <c r="E170" s="7">
         <v>2</v>
       </c>
-      <c r="F170" s="71" t="s">
+      <c r="F170" s="70" t="s">
         <v>64</v>
       </c>
       <c r="G170" s="20"/>
@@ -6299,8 +6304,8 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="87"/>
-      <c r="B171" s="74"/>
+      <c r="A171" s="78"/>
+      <c r="B171" s="63"/>
       <c r="C171" s="11" t="s">
         <v>248</v>
       </c>
@@ -6315,8 +6320,8 @@
       <c r="H171" s="21"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="87"/>
-      <c r="B172" s="74"/>
+      <c r="A172" s="78"/>
+      <c r="B172" s="63"/>
       <c r="C172" s="11" t="s">
         <v>50</v>
       </c>
@@ -6331,8 +6336,8 @@
       <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="63"/>
-      <c r="B173" s="65"/>
+      <c r="A173" s="79"/>
+      <c r="B173" s="64"/>
       <c r="C173" s="15" t="s">
         <v>50</v>
       </c>
@@ -6342,15 +6347,15 @@
       <c r="E173" s="15">
         <v>1</v>
       </c>
-      <c r="F173" s="73"/>
+      <c r="F173" s="71"/>
       <c r="G173" s="17"/>
       <c r="H173" s="18"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="62" t="s">
+      <c r="A174" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B174" s="64" t="s">
+      <c r="B174" s="62" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="7" t="s">
@@ -6362,7 +6367,7 @@
       <c r="E174" s="7">
         <v>6</v>
       </c>
-      <c r="F174" s="71" t="s">
+      <c r="F174" s="70" t="s">
         <v>263</v>
       </c>
       <c r="G174" s="20"/>
@@ -6371,8 +6376,8 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="87"/>
-      <c r="B175" s="74"/>
+      <c r="A175" s="78"/>
+      <c r="B175" s="63"/>
       <c r="C175" s="11" t="s">
         <v>52</v>
       </c>
@@ -6387,8 +6392,8 @@
       <c r="H175" s="14"/>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="63"/>
-      <c r="B176" s="65"/>
+      <c r="A176" s="79"/>
+      <c r="B176" s="64"/>
       <c r="C176" s="15" t="s">
         <v>50</v>
       </c>
@@ -6398,15 +6403,15 @@
       <c r="E176" s="15">
         <v>1</v>
       </c>
-      <c r="F176" s="73"/>
+      <c r="F176" s="71"/>
       <c r="G176" s="17"/>
       <c r="H176" s="18"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="84" t="s">
+      <c r="A177" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B177" s="75" t="s">
+      <c r="B177" s="80" t="s">
         <v>15</v>
       </c>
       <c r="C177" s="3" t="s">
@@ -6418,7 +6423,7 @@
       <c r="E177" s="3">
         <v>1</v>
       </c>
-      <c r="F177" s="70" t="s">
+      <c r="F177" s="69" t="s">
         <v>65</v>
       </c>
       <c r="H177" s="19" t="s">
@@ -6426,8 +6431,8 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="84"/>
-      <c r="B178" s="75"/>
+      <c r="A178" s="76"/>
+      <c r="B178" s="80"/>
       <c r="C178" s="3" t="s">
         <v>50</v>
       </c>
@@ -6437,13 +6442,13 @@
       <c r="E178" s="3">
         <v>1</v>
       </c>
-      <c r="F178" s="70"/>
+      <c r="F178" s="69"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="62" t="s">
+      <c r="A179" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B179" s="64" t="s">
+      <c r="B179" s="62" t="s">
         <v>121</v>
       </c>
       <c r="C179" s="7" t="s">
@@ -6462,8 +6467,8 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="87"/>
-      <c r="B180" s="74"/>
+      <c r="A180" s="78"/>
+      <c r="B180" s="63"/>
       <c r="C180" s="11" t="s">
         <v>133</v>
       </c>
@@ -6478,8 +6483,8 @@
       <c r="H180" s="14"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="87"/>
-      <c r="B181" s="74"/>
+      <c r="A181" s="78"/>
+      <c r="B181" s="63"/>
       <c r="C181" s="11" t="s">
         <v>133</v>
       </c>
@@ -6494,8 +6499,8 @@
       <c r="H181" s="14"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="87"/>
-      <c r="B182" s="74"/>
+      <c r="A182" s="78"/>
+      <c r="B182" s="63"/>
       <c r="C182" s="11" t="s">
         <v>133</v>
       </c>
@@ -6510,8 +6515,8 @@
       <c r="H182" s="14"/>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="87"/>
-      <c r="B183" s="74"/>
+      <c r="A183" s="78"/>
+      <c r="B183" s="63"/>
       <c r="C183" s="11" t="s">
         <v>248</v>
       </c>
@@ -6526,8 +6531,8 @@
       <c r="H183" s="14"/>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="87"/>
-      <c r="B184" s="74"/>
+      <c r="A184" s="78"/>
+      <c r="B184" s="63"/>
       <c r="C184" s="11" t="s">
         <v>256</v>
       </c>
@@ -6542,10 +6547,10 @@
       <c r="H184" s="14"/>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="62" t="s">
+      <c r="A185" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B185" s="64" t="s">
+      <c r="B185" s="62" t="s">
         <v>122</v>
       </c>
       <c r="C185" s="7" t="s">
@@ -6564,8 +6569,8 @@
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="87"/>
-      <c r="B186" s="74"/>
+      <c r="A186" s="78"/>
+      <c r="B186" s="63"/>
       <c r="C186" s="11" t="s">
         <v>52</v>
       </c>
@@ -6580,8 +6585,8 @@
       <c r="H186" s="21"/>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="87"/>
-      <c r="B187" s="74"/>
+      <c r="A187" s="78"/>
+      <c r="B187" s="63"/>
       <c r="C187" s="11" t="s">
         <v>137</v>
       </c>
@@ -6596,10 +6601,10 @@
       <c r="H187" s="14"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="62" t="s">
+      <c r="A188" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B188" s="64" t="s">
+      <c r="B188" s="62" t="s">
         <v>123</v>
       </c>
       <c r="C188" s="7" t="s">
@@ -6618,8 +6623,8 @@
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="87"/>
-      <c r="B189" s="74"/>
+      <c r="A189" s="78"/>
+      <c r="B189" s="63"/>
       <c r="C189" s="11" t="s">
         <v>52</v>
       </c>
@@ -6634,8 +6639,8 @@
       <c r="H189" s="21"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="63"/>
-      <c r="B190" s="65"/>
+      <c r="A190" s="79"/>
+      <c r="B190" s="64"/>
       <c r="C190" s="15" t="s">
         <v>139</v>
       </c>
@@ -6650,10 +6655,10 @@
       <c r="H190" s="18"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="62" t="s">
+      <c r="A191" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B191" s="64" t="s">
+      <c r="B191" s="62" t="s">
         <v>124</v>
       </c>
       <c r="C191" s="7" t="s">
@@ -6672,8 +6677,8 @@
       </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="87"/>
-      <c r="B192" s="74"/>
+      <c r="A192" s="78"/>
+      <c r="B192" s="63"/>
       <c r="C192" s="11" t="s">
         <v>248</v>
       </c>
@@ -6688,8 +6693,8 @@
       <c r="H192" s="21"/>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="87"/>
-      <c r="B193" s="74"/>
+      <c r="A193" s="78"/>
+      <c r="B193" s="63"/>
       <c r="C193" s="11" t="s">
         <v>137</v>
       </c>
@@ -6704,8 +6709,8 @@
       <c r="H193" s="14"/>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="63"/>
-      <c r="B194" s="65"/>
+      <c r="A194" s="79"/>
+      <c r="B194" s="64"/>
       <c r="C194" s="15" t="s">
         <v>137</v>
       </c>
@@ -6720,10 +6725,10 @@
       <c r="H194" s="18"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="84" t="s">
+      <c r="A195" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B195" s="75" t="s">
+      <c r="B195" s="80" t="s">
         <v>125</v>
       </c>
       <c r="C195" s="3" t="s">
@@ -6740,8 +6745,8 @@
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="84"/>
-      <c r="B196" s="75"/>
+      <c r="A196" s="76"/>
+      <c r="B196" s="80"/>
       <c r="C196" s="3" t="s">
         <v>137</v>
       </c>
@@ -6753,8 +6758,8 @@
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="84"/>
-      <c r="B197" s="75"/>
+      <c r="A197" s="76"/>
+      <c r="B197" s="80"/>
       <c r="C197" s="3" t="s">
         <v>137</v>
       </c>
@@ -6788,10 +6793,10 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="62" t="s">
+      <c r="A199" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B199" s="64" t="s">
+      <c r="B199" s="62" t="s">
         <v>126</v>
       </c>
       <c r="C199" s="7" t="s">
@@ -6810,8 +6815,8 @@
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="63"/>
-      <c r="B200" s="65"/>
+      <c r="A200" s="79"/>
+      <c r="B200" s="64"/>
       <c r="C200" s="15" t="s">
         <v>52</v>
       </c>
@@ -6826,10 +6831,10 @@
       <c r="H200" s="18"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="62" t="s">
+      <c r="A201" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B201" s="64" t="s">
+      <c r="B201" s="62" t="s">
         <v>127</v>
       </c>
       <c r="C201" s="7" t="s">
@@ -6848,8 +6853,8 @@
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="63"/>
-      <c r="B202" s="65"/>
+      <c r="A202" s="79"/>
+      <c r="B202" s="64"/>
       <c r="C202" s="15" t="s">
         <v>136</v>
       </c>
@@ -6864,10 +6869,10 @@
       <c r="H202" s="18"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="62" t="s">
+      <c r="A203" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B203" s="64" t="s">
+      <c r="B203" s="62" t="s">
         <v>128</v>
       </c>
       <c r="C203" s="7" t="s">
@@ -6886,8 +6891,8 @@
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="87"/>
-      <c r="B204" s="74"/>
+      <c r="A204" s="78"/>
+      <c r="B204" s="63"/>
       <c r="C204" s="11" t="s">
         <v>136</v>
       </c>
@@ -6902,8 +6907,8 @@
       <c r="H204" s="14"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="87"/>
-      <c r="B205" s="74"/>
+      <c r="A205" s="78"/>
+      <c r="B205" s="63"/>
       <c r="C205" s="11" t="s">
         <v>256</v>
       </c>
@@ -6918,8 +6923,8 @@
       <c r="H205" s="14"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="63"/>
-      <c r="B206" s="65"/>
+      <c r="A206" s="79"/>
+      <c r="B206" s="64"/>
       <c r="C206" s="15" t="s">
         <v>136</v>
       </c>
@@ -6934,10 +6939,10 @@
       <c r="H206" s="18"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="62" t="s">
+      <c r="A207" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B207" s="64" t="s">
+      <c r="B207" s="62" t="s">
         <v>129</v>
       </c>
       <c r="C207" s="7" t="s">
@@ -6956,8 +6961,8 @@
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="87"/>
-      <c r="B208" s="74"/>
+      <c r="A208" s="78"/>
+      <c r="B208" s="63"/>
       <c r="C208" s="11" t="s">
         <v>147</v>
       </c>
@@ -6972,8 +6977,8 @@
       <c r="H208" s="14"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="87"/>
-      <c r="B209" s="74"/>
+      <c r="A209" s="78"/>
+      <c r="B209" s="63"/>
       <c r="C209" s="11" t="s">
         <v>52</v>
       </c>
@@ -6988,8 +6993,8 @@
       <c r="H209" s="14"/>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="87"/>
-      <c r="B210" s="74"/>
+      <c r="A210" s="78"/>
+      <c r="B210" s="63"/>
       <c r="C210" s="11" t="s">
         <v>52</v>
       </c>
@@ -7004,8 +7009,8 @@
       <c r="H210" s="14"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="87"/>
-      <c r="B211" s="74"/>
+      <c r="A211" s="78"/>
+      <c r="B211" s="63"/>
       <c r="C211" s="11" t="s">
         <v>52</v>
       </c>
@@ -7020,8 +7025,8 @@
       <c r="H211" s="14"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="63"/>
-      <c r="B212" s="65"/>
+      <c r="A212" s="79"/>
+      <c r="B212" s="64"/>
       <c r="C212" s="15" t="s">
         <v>256</v>
       </c>
@@ -7058,10 +7063,10 @@
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="62" t="s">
+      <c r="A214" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B214" s="64" t="s">
+      <c r="B214" s="62" t="s">
         <v>131</v>
       </c>
       <c r="C214" s="7" t="s">
@@ -7080,8 +7085,8 @@
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="87"/>
-      <c r="B215" s="74"/>
+      <c r="A215" s="78"/>
+      <c r="B215" s="63"/>
       <c r="C215" s="11" t="s">
         <v>149</v>
       </c>
@@ -7096,8 +7101,8 @@
       <c r="H215" s="14"/>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="63"/>
-      <c r="B216" s="65"/>
+      <c r="A216" s="79"/>
+      <c r="B216" s="64"/>
       <c r="C216" s="15" t="s">
         <v>112</v>
       </c>
@@ -7112,10 +7117,10 @@
       <c r="H216" s="18"/>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="62" t="s">
+      <c r="A217" s="77" t="s">
         <v>391</v>
       </c>
-      <c r="B217" s="64" t="s">
+      <c r="B217" s="62" t="s">
         <v>390</v>
       </c>
       <c r="C217" s="7" t="s">
@@ -7134,8 +7139,8 @@
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="63"/>
-      <c r="B218" s="65"/>
+      <c r="A218" s="79"/>
+      <c r="B218" s="64"/>
       <c r="C218" s="15" t="s">
         <v>52</v>
       </c>
@@ -7153,7 +7158,7 @@
       <c r="A219" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B219" s="75" t="s">
+      <c r="B219" s="80" t="s">
         <v>24</v>
       </c>
       <c r="C219" s="3" t="s">
@@ -7165,7 +7170,7 @@
       <c r="E219" s="3">
         <v>4</v>
       </c>
-      <c r="F219" s="70" t="s">
+      <c r="F219" s="69" t="s">
         <v>66</v>
       </c>
       <c r="H219" s="19" t="s">
@@ -7174,7 +7179,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="33"/>
-      <c r="B220" s="75"/>
+      <c r="B220" s="80"/>
       <c r="C220" s="3" t="s">
         <v>310</v>
       </c>
@@ -7184,14 +7189,14 @@
       <c r="E220" s="3">
         <v>1</v>
       </c>
-      <c r="F220" s="70"/>
+      <c r="F220" s="69"/>
       <c r="H220" s="19"/>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B221" s="75"/>
+      <c r="B221" s="80"/>
       <c r="C221" s="3" t="s">
         <v>50</v>
       </c>
@@ -7201,13 +7206,13 @@
       <c r="E221" s="3">
         <v>1</v>
       </c>
-      <c r="F221" s="70"/>
+      <c r="F221" s="69"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B222" s="64" t="s">
+      <c r="B222" s="62" t="s">
         <v>25</v>
       </c>
       <c r="C222" s="7" t="s">
@@ -7219,7 +7224,7 @@
       <c r="E222" s="7">
         <v>2</v>
       </c>
-      <c r="F222" s="71" t="s">
+      <c r="F222" s="70" t="s">
         <v>67</v>
       </c>
       <c r="G222" s="20"/>
@@ -7231,7 +7236,7 @@
       <c r="A223" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B223" s="65"/>
+      <c r="B223" s="64"/>
       <c r="C223" s="15" t="s">
         <v>50</v>
       </c>
@@ -7241,7 +7246,7 @@
       <c r="E223" s="15">
         <v>1</v>
       </c>
-      <c r="F223" s="73"/>
+      <c r="F223" s="71"/>
       <c r="G223" s="17"/>
       <c r="H223" s="18"/>
     </row>
@@ -7249,7 +7254,7 @@
       <c r="A224" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B224" s="75" t="s">
+      <c r="B224" s="80" t="s">
         <v>26</v>
       </c>
       <c r="C224" s="3" t="s">
@@ -7261,7 +7266,7 @@
       <c r="E224" s="3">
         <v>1</v>
       </c>
-      <c r="F224" s="70" t="s">
+      <c r="F224" s="69" t="s">
         <v>68</v>
       </c>
       <c r="H224" s="19" t="s">
@@ -7272,7 +7277,7 @@
       <c r="A225" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B225" s="75"/>
+      <c r="B225" s="80"/>
       <c r="C225" s="3" t="s">
         <v>50</v>
       </c>
@@ -7282,13 +7287,13 @@
       <c r="E225" s="3">
         <v>1</v>
       </c>
-      <c r="F225" s="70"/>
+      <c r="F225" s="69"/>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="66" t="s">
+      <c r="A226" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B226" s="64" t="s">
+      <c r="B226" s="62" t="s">
         <v>30</v>
       </c>
       <c r="C226" s="7" t="s">
@@ -7300,7 +7305,7 @@
       <c r="E226" s="7">
         <v>1</v>
       </c>
-      <c r="F226" s="71" t="s">
+      <c r="F226" s="70" t="s">
         <v>69</v>
       </c>
       <c r="G226" s="20"/>
@@ -7309,8 +7314,8 @@
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="92"/>
-      <c r="B227" s="74"/>
+      <c r="A227" s="66"/>
+      <c r="B227" s="63"/>
       <c r="C227" s="11" t="s">
         <v>50</v>
       </c>
@@ -7326,7 +7331,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="67"/>
-      <c r="B228" s="65"/>
+      <c r="B228" s="64"/>
       <c r="C228" s="15" t="s">
         <v>51</v>
       </c>
@@ -7336,7 +7341,7 @@
       <c r="E228" s="15">
         <v>3</v>
       </c>
-      <c r="F228" s="73"/>
+      <c r="F228" s="71"/>
       <c r="G228" s="17"/>
       <c r="H228" s="18"/>
     </row>
@@ -7344,7 +7349,7 @@
       <c r="A229" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B229" s="75" t="s">
+      <c r="B229" s="80" t="s">
         <v>29</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -7356,7 +7361,7 @@
       <c r="E229" s="3">
         <v>1</v>
       </c>
-      <c r="F229" s="70" t="s">
+      <c r="F229" s="69" t="s">
         <v>70</v>
       </c>
       <c r="H229" s="19" t="s">
@@ -7367,7 +7372,7 @@
       <c r="A230" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B230" s="75"/>
+      <c r="B230" s="80"/>
       <c r="C230" s="3" t="s">
         <v>50</v>
       </c>
@@ -7377,13 +7382,13 @@
       <c r="E230" s="3">
         <v>1</v>
       </c>
-      <c r="F230" s="70"/>
+      <c r="F230" s="69"/>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="66" t="s">
+      <c r="A231" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B231" s="64" t="s">
+      <c r="B231" s="62" t="s">
         <v>35</v>
       </c>
       <c r="C231" s="7" t="s">
@@ -7395,7 +7400,7 @@
       <c r="E231" s="7">
         <v>2</v>
       </c>
-      <c r="F231" s="71" t="s">
+      <c r="F231" s="70" t="s">
         <v>71</v>
       </c>
       <c r="G231" s="20"/>
@@ -7404,8 +7409,8 @@
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="92"/>
-      <c r="B232" s="74"/>
+      <c r="A232" s="66"/>
+      <c r="B232" s="63"/>
       <c r="C232" s="11" t="s">
         <v>52</v>
       </c>
@@ -7420,8 +7425,8 @@
       <c r="H232" s="14"/>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="92"/>
-      <c r="B233" s="74"/>
+      <c r="A233" s="66"/>
+      <c r="B233" s="63"/>
       <c r="C233" s="11" t="s">
         <v>50</v>
       </c>
@@ -7437,7 +7442,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="67"/>
-      <c r="B234" s="65"/>
+      <c r="B234" s="64"/>
       <c r="C234" s="15" t="s">
         <v>50</v>
       </c>
@@ -7447,15 +7452,15 @@
       <c r="E234" s="15">
         <v>1</v>
       </c>
-      <c r="F234" s="73"/>
+      <c r="F234" s="71"/>
       <c r="G234" s="17"/>
       <c r="H234" s="18"/>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="66" t="s">
+      <c r="A235" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B235" s="64" t="s">
+      <c r="B235" s="62" t="s">
         <v>28</v>
       </c>
       <c r="C235" s="7" t="s">
@@ -7467,7 +7472,7 @@
       <c r="E235" s="7">
         <v>2</v>
       </c>
-      <c r="F235" s="71" t="s">
+      <c r="F235" s="70" t="s">
         <v>72</v>
       </c>
       <c r="G235" s="20"/>
@@ -7477,7 +7482,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="67"/>
-      <c r="B236" s="65"/>
+      <c r="B236" s="64"/>
       <c r="C236" s="15" t="s">
         <v>50</v>
       </c>
@@ -7487,15 +7492,15 @@
       <c r="E236" s="15">
         <v>1</v>
       </c>
-      <c r="F236" s="73"/>
+      <c r="F236" s="71"/>
       <c r="G236" s="17"/>
       <c r="H236" s="18"/>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="66" t="s">
+      <c r="A237" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B237" s="64" t="s">
+      <c r="B237" s="62" t="s">
         <v>36</v>
       </c>
       <c r="C237" s="7" t="s">
@@ -7507,7 +7512,7 @@
       <c r="E237" s="7">
         <v>2</v>
       </c>
-      <c r="F237" s="71" t="s">
+      <c r="F237" s="70" t="s">
         <v>73</v>
       </c>
       <c r="G237" s="20"/>
@@ -7516,8 +7521,8 @@
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="92"/>
-      <c r="B238" s="74"/>
+      <c r="A238" s="66"/>
+      <c r="B238" s="63"/>
       <c r="C238" s="11" t="s">
         <v>52</v>
       </c>
@@ -7532,8 +7537,8 @@
       <c r="H238" s="21"/>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="92"/>
-      <c r="B239" s="74"/>
+      <c r="A239" s="66"/>
+      <c r="B239" s="63"/>
       <c r="C239" s="11" t="s">
         <v>52</v>
       </c>
@@ -7548,8 +7553,8 @@
       <c r="H239" s="21"/>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="92"/>
-      <c r="B240" s="74"/>
+      <c r="A240" s="66"/>
+      <c r="B240" s="63"/>
       <c r="C240" s="11" t="s">
         <v>52</v>
       </c>
@@ -7564,8 +7569,8 @@
       <c r="H240" s="21"/>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="92"/>
-      <c r="B241" s="74"/>
+      <c r="A241" s="66"/>
+      <c r="B241" s="63"/>
       <c r="C241" s="11" t="s">
         <v>52</v>
       </c>
@@ -7580,8 +7585,8 @@
       <c r="H241" s="14"/>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="92"/>
-      <c r="B242" s="74"/>
+      <c r="A242" s="66"/>
+      <c r="B242" s="63"/>
       <c r="C242" s="11" t="s">
         <v>50</v>
       </c>
@@ -7596,8 +7601,8 @@
       <c r="H242" s="14"/>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="92"/>
-      <c r="B243" s="74"/>
+      <c r="A243" s="66"/>
+      <c r="B243" s="63"/>
       <c r="C243" s="11" t="s">
         <v>50</v>
       </c>
@@ -7613,7 +7618,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="67"/>
-      <c r="B244" s="65"/>
+      <c r="B244" s="64"/>
       <c r="C244" s="15" t="s">
         <v>51</v>
       </c>
@@ -7623,15 +7628,15 @@
       <c r="E244" s="15">
         <v>3</v>
       </c>
-      <c r="F244" s="73"/>
+      <c r="F244" s="71"/>
       <c r="G244" s="17"/>
       <c r="H244" s="18"/>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="66" t="s">
+      <c r="A245" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B245" s="79" t="s">
+      <c r="B245" s="94" t="s">
         <v>34</v>
       </c>
       <c r="C245" s="7" t="s">
@@ -7643,7 +7648,7 @@
       <c r="E245" s="37">
         <v>1</v>
       </c>
-      <c r="F245" s="76" t="s">
+      <c r="F245" s="91" t="s">
         <v>74</v>
       </c>
       <c r="G245" s="38"/>
@@ -7652,8 +7657,8 @@
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="92"/>
-      <c r="B246" s="80"/>
+      <c r="A246" s="66"/>
+      <c r="B246" s="95"/>
       <c r="C246" s="11" t="s">
         <v>52</v>
       </c>
@@ -7663,13 +7668,13 @@
       <c r="E246" s="40">
         <v>2</v>
       </c>
-      <c r="F246" s="77"/>
+      <c r="F246" s="92"/>
       <c r="G246" s="41"/>
       <c r="H246" s="14"/>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="92"/>
-      <c r="B247" s="80"/>
+      <c r="A247" s="66"/>
+      <c r="B247" s="95"/>
       <c r="C247" s="11" t="s">
         <v>50</v>
       </c>
@@ -7679,13 +7684,13 @@
       <c r="E247" s="40">
         <v>1</v>
       </c>
-      <c r="F247" s="77"/>
+      <c r="F247" s="92"/>
       <c r="G247" s="41"/>
       <c r="H247" s="14"/>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="67"/>
-      <c r="B248" s="81"/>
+      <c r="B248" s="96"/>
       <c r="C248" s="15" t="s">
         <v>51</v>
       </c>
@@ -7695,15 +7700,15 @@
       <c r="E248" s="43">
         <v>3</v>
       </c>
-      <c r="F248" s="78"/>
+      <c r="F248" s="93"/>
       <c r="G248" s="44"/>
       <c r="H248" s="18"/>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="66" t="s">
+      <c r="A249" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B249" s="64" t="s">
+      <c r="B249" s="62" t="s">
         <v>33</v>
       </c>
       <c r="C249" s="7" t="s">
@@ -7715,7 +7720,7 @@
       <c r="E249" s="7">
         <v>4</v>
       </c>
-      <c r="F249" s="71" t="s">
+      <c r="F249" s="70" t="s">
         <v>75</v>
       </c>
       <c r="G249" s="20"/>
@@ -7724,8 +7729,8 @@
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="92"/>
-      <c r="B250" s="74"/>
+      <c r="A250" s="66"/>
+      <c r="B250" s="63"/>
       <c r="C250" s="11" t="s">
         <v>52</v>
       </c>
@@ -7741,7 +7746,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="67"/>
-      <c r="B251" s="65"/>
+      <c r="B251" s="64"/>
       <c r="C251" s="15" t="s">
         <v>50</v>
       </c>
@@ -7751,15 +7756,15 @@
       <c r="E251" s="15">
         <v>1</v>
       </c>
-      <c r="F251" s="73"/>
+      <c r="F251" s="71"/>
       <c r="G251" s="17"/>
       <c r="H251" s="18"/>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="91" t="s">
+      <c r="A252" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B252" s="75" t="s">
+      <c r="B252" s="80" t="s">
         <v>27</v>
       </c>
       <c r="C252" s="3" t="s">
@@ -7771,7 +7776,7 @@
       <c r="E252" s="3">
         <v>2</v>
       </c>
-      <c r="F252" s="70" t="s">
+      <c r="F252" s="69" t="s">
         <v>76</v>
       </c>
       <c r="H252" s="19" t="s">
@@ -7779,8 +7784,8 @@
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="91"/>
-      <c r="B253" s="75"/>
+      <c r="A253" s="68"/>
+      <c r="B253" s="80"/>
       <c r="C253" s="3" t="s">
         <v>50</v>
       </c>
@@ -7790,11 +7795,11 @@
       <c r="E253" s="3">
         <v>1</v>
       </c>
-      <c r="F253" s="70"/>
+      <c r="F253" s="69"/>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="91"/>
-      <c r="B254" s="75"/>
+      <c r="A254" s="68"/>
+      <c r="B254" s="80"/>
       <c r="C254" s="3" t="s">
         <v>51</v>
       </c>
@@ -7804,13 +7809,13 @@
       <c r="E254" s="3">
         <v>3</v>
       </c>
-      <c r="F254" s="70"/>
+      <c r="F254" s="69"/>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="66" t="s">
+      <c r="A255" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B255" s="64" t="s">
+      <c r="B255" s="62" t="s">
         <v>31</v>
       </c>
       <c r="C255" s="7" t="s">
@@ -7822,7 +7827,7 @@
       <c r="E255" s="7">
         <v>6</v>
       </c>
-      <c r="F255" s="71" t="s">
+      <c r="F255" s="70" t="s">
         <v>77</v>
       </c>
       <c r="G255" s="20"/>
@@ -7831,8 +7836,8 @@
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="92"/>
-      <c r="B256" s="74"/>
+      <c r="A256" s="66"/>
+      <c r="B256" s="63"/>
       <c r="C256" s="11" t="s">
         <v>50</v>
       </c>
@@ -7848,7 +7853,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="67"/>
-      <c r="B257" s="65"/>
+      <c r="B257" s="64"/>
       <c r="C257" s="15" t="s">
         <v>50</v>
       </c>
@@ -7858,7 +7863,7 @@
       <c r="E257" s="15">
         <v>1</v>
       </c>
-      <c r="F257" s="73"/>
+      <c r="F257" s="71"/>
       <c r="G257" s="17"/>
       <c r="H257" s="18"/>
     </row>
@@ -7887,10 +7892,10 @@
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="66" t="s">
+      <c r="A259" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B259" s="64" t="s">
+      <c r="B259" s="62" t="s">
         <v>101</v>
       </c>
       <c r="C259" s="7" t="s">
@@ -7910,7 +7915,7 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="67"/>
-      <c r="B260" s="65"/>
+      <c r="B260" s="64"/>
       <c r="C260" s="15" t="s">
         <v>52</v>
       </c>
@@ -7947,10 +7952,10 @@
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="66" t="s">
+      <c r="A262" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B262" s="64" t="s">
+      <c r="B262" s="62" t="s">
         <v>103</v>
       </c>
       <c r="C262" s="7" t="s">
@@ -7970,7 +7975,7 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="67"/>
-      <c r="B263" s="65"/>
+      <c r="B263" s="64"/>
       <c r="C263" s="15" t="s">
         <v>52</v>
       </c>
@@ -7985,10 +7990,10 @@
       <c r="H263" s="18"/>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="91" t="s">
+      <c r="A264" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B264" s="75" t="s">
+      <c r="B264" s="80" t="s">
         <v>104</v>
       </c>
       <c r="C264" s="3" t="s">
@@ -8005,8 +8010,8 @@
       </c>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="91"/>
-      <c r="B265" s="75"/>
+      <c r="A265" s="68"/>
+      <c r="B265" s="80"/>
       <c r="C265" s="3" t="s">
         <v>52</v>
       </c>
@@ -8018,8 +8023,8 @@
       </c>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" s="91"/>
-      <c r="B266" s="75"/>
+      <c r="A266" s="68"/>
+      <c r="B266" s="80"/>
       <c r="C266" s="3" t="s">
         <v>52</v>
       </c>
@@ -8053,10 +8058,10 @@
       </c>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268" s="66" t="s">
+      <c r="A268" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="B268" s="64" t="s">
+      <c r="B268" s="62" t="s">
         <v>325</v>
       </c>
       <c r="C268" s="7" t="s">
@@ -8076,7 +8081,7 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="67"/>
-      <c r="B269" s="65"/>
+      <c r="B269" s="64"/>
       <c r="C269" s="15" t="s">
         <v>310</v>
       </c>
@@ -8091,10 +8096,10 @@
       <c r="H269" s="47"/>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270" s="66" t="s">
+      <c r="A270" s="65" t="s">
         <v>374</v>
       </c>
-      <c r="B270" s="64" t="s">
+      <c r="B270" s="62" t="s">
         <v>323</v>
       </c>
       <c r="C270" s="7" t="s">
@@ -8114,7 +8119,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="67"/>
-      <c r="B271" s="65"/>
+      <c r="B271" s="64"/>
       <c r="C271" s="15" t="s">
         <v>310</v>
       </c>
@@ -8217,10 +8222,10 @@
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="66" t="s">
+      <c r="A276" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B276" s="64" t="s">
+      <c r="B276" s="62" t="s">
         <v>106</v>
       </c>
       <c r="C276" s="7" t="s">
@@ -8239,8 +8244,8 @@
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="92"/>
-      <c r="B277" s="74"/>
+      <c r="A277" s="66"/>
+      <c r="B277" s="63"/>
       <c r="C277" s="11" t="s">
         <v>52</v>
       </c>
@@ -8255,8 +8260,8 @@
       <c r="H277" s="14"/>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="92"/>
-      <c r="B278" s="74"/>
+      <c r="A278" s="66"/>
+      <c r="B278" s="63"/>
       <c r="C278" s="11" t="s">
         <v>310</v>
       </c>
@@ -8271,8 +8276,8 @@
       <c r="H278" s="14"/>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="92"/>
-      <c r="B279" s="74"/>
+      <c r="A279" s="66"/>
+      <c r="B279" s="63"/>
       <c r="C279" s="11" t="s">
         <v>307</v>
       </c>
@@ -8288,7 +8293,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="67"/>
-      <c r="B280" s="65"/>
+      <c r="B280" s="64"/>
       <c r="C280" s="15" t="s">
         <v>52</v>
       </c>
@@ -8303,10 +8308,10 @@
       <c r="H280" s="18"/>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="66" t="s">
+      <c r="A281" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B281" s="64" t="s">
+      <c r="B281" s="62" t="s">
         <v>304</v>
       </c>
       <c r="C281" s="7" t="s">
@@ -8325,8 +8330,8 @@
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="92"/>
-      <c r="B282" s="74"/>
+      <c r="A282" s="66"/>
+      <c r="B282" s="63"/>
       <c r="C282" s="11" t="s">
         <v>52</v>
       </c>
@@ -8342,7 +8347,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="67"/>
-      <c r="B283" s="65"/>
+      <c r="B283" s="64"/>
       <c r="C283" s="15" t="s">
         <v>307</v>
       </c>
@@ -8443,10 +8448,10 @@
       </c>
     </row>
     <row r="289" spans="1:8">
-      <c r="A289" s="82" t="s">
+      <c r="A289" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B289" s="64" t="s">
+      <c r="B289" s="62" t="s">
         <v>38</v>
       </c>
       <c r="C289" s="7" t="s">
@@ -8458,7 +8463,7 @@
       <c r="E289" s="7">
         <v>2</v>
       </c>
-      <c r="F289" s="71" t="s">
+      <c r="F289" s="70" t="s">
         <v>79</v>
       </c>
       <c r="G289" s="20"/>
@@ -8467,8 +8472,8 @@
       </c>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290" s="90"/>
-      <c r="B290" s="74"/>
+      <c r="A290" s="82"/>
+      <c r="B290" s="63"/>
       <c r="C290" s="11" t="s">
         <v>52</v>
       </c>
@@ -8483,8 +8488,8 @@
       <c r="H290" s="14"/>
     </row>
     <row r="291" spans="1:8">
-      <c r="A291" s="90"/>
-      <c r="B291" s="74"/>
+      <c r="A291" s="82"/>
+      <c r="B291" s="63"/>
       <c r="C291" s="11" t="s">
         <v>50</v>
       </c>
@@ -8500,7 +8505,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="83"/>
-      <c r="B292" s="65"/>
+      <c r="B292" s="64"/>
       <c r="C292" s="15" t="s">
         <v>50</v>
       </c>
@@ -8510,7 +8515,7 @@
       <c r="E292" s="15">
         <v>2</v>
       </c>
-      <c r="F292" s="73"/>
+      <c r="F292" s="71"/>
       <c r="G292" s="17"/>
       <c r="H292" s="18"/>
     </row>
@@ -8559,10 +8564,10 @@
       </c>
     </row>
     <row r="295" spans="1:8">
-      <c r="A295" s="82" t="s">
+      <c r="A295" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B295" s="64" t="s">
+      <c r="B295" s="62" t="s">
         <v>91</v>
       </c>
       <c r="C295" s="7" t="s">
@@ -8581,8 +8586,8 @@
       </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="A296" s="90"/>
-      <c r="B296" s="74"/>
+      <c r="A296" s="82"/>
+      <c r="B296" s="63"/>
       <c r="C296" s="11" t="s">
         <v>50</v>
       </c>
@@ -8597,8 +8602,8 @@
       <c r="H296" s="14"/>
     </row>
     <row r="297" spans="1:8">
-      <c r="A297" s="90"/>
-      <c r="B297" s="74"/>
+      <c r="A297" s="82"/>
+      <c r="B297" s="63"/>
       <c r="C297" s="11" t="s">
         <v>52</v>
       </c>
@@ -8614,7 +8619,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="83"/>
-      <c r="B298" s="65"/>
+      <c r="B298" s="64"/>
       <c r="C298" s="15" t="s">
         <v>52</v>
       </c>
@@ -8629,10 +8634,10 @@
       <c r="H298" s="18"/>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="82" t="s">
+      <c r="A299" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B299" s="64" t="s">
+      <c r="B299" s="62" t="s">
         <v>92</v>
       </c>
       <c r="C299" s="7" t="s">
@@ -8652,7 +8657,7 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="83"/>
-      <c r="B300" s="65"/>
+      <c r="B300" s="64"/>
       <c r="C300" s="15" t="s">
         <v>52</v>
       </c>
@@ -8784,8 +8789,8 @@
       <c r="A307" s="61" t="s">
         <v>408</v>
       </c>
-      <c r="B307" s="11" t="s">
-        <v>418</v>
+      <c r="B307" s="97" t="s">
+        <v>446</v>
       </c>
       <c r="C307" s="11"/>
       <c r="D307" s="12"/>
@@ -8793,7 +8798,7 @@
       <c r="F307" s="23"/>
       <c r="G307" s="13"/>
       <c r="H307" s="53" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8801,7 +8806,7 @@
         <v>408</v>
       </c>
       <c r="B308" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C308" s="28"/>
       <c r="D308" s="29"/>
@@ -8809,7 +8814,7 @@
       <c r="F308" s="30"/>
       <c r="G308" s="31"/>
       <c r="H308" s="58" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8817,7 +8822,7 @@
         <v>408</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C309" s="11"/>
       <c r="D309" s="12"/>
@@ -8825,7 +8830,7 @@
       <c r="F309" s="23"/>
       <c r="G309" s="13"/>
       <c r="H309" s="53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8833,7 +8838,7 @@
         <v>408</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C310" s="11"/>
       <c r="D310" s="12"/>
@@ -8841,7 +8846,7 @@
       <c r="F310" s="23"/>
       <c r="G310" s="13"/>
       <c r="H310" s="53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8849,7 +8854,7 @@
         <v>408</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C311" s="11"/>
       <c r="D311" s="12"/>
@@ -8857,15 +8862,15 @@
       <c r="F311" s="23"/>
       <c r="G311" s="13"/>
       <c r="H311" s="53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="B312" s="11" t="s">
-        <v>428</v>
+      <c r="B312" s="97" t="s">
+        <v>449</v>
       </c>
       <c r="C312" s="11"/>
       <c r="D312" s="12"/>
@@ -8873,7 +8878,7 @@
       <c r="F312" s="23"/>
       <c r="G312" s="13"/>
       <c r="H312" s="53" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8881,7 +8886,7 @@
         <v>386</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C313" s="11"/>
       <c r="D313" s="12"/>
@@ -8889,7 +8894,7 @@
       <c r="F313" s="23"/>
       <c r="G313" s="13"/>
       <c r="H313" s="53" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8897,7 +8902,7 @@
         <v>386</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C314" s="11"/>
       <c r="D314" s="12"/>
@@ -8905,7 +8910,7 @@
       <c r="F314" s="23"/>
       <c r="G314" s="13"/>
       <c r="H314" s="53" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8913,7 +8918,7 @@
         <v>386</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C315" s="11"/>
       <c r="D315" s="12"/>
@@ -8921,7 +8926,7 @@
       <c r="F315" s="23"/>
       <c r="G315" s="13"/>
       <c r="H315" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8929,7 +8934,7 @@
         <v>386</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C316" s="11"/>
       <c r="D316" s="12"/>
@@ -8937,19 +8942,21 @@
       <c r="F316" s="23"/>
       <c r="G316" s="13"/>
       <c r="H316" s="53" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="B317" s="98" t="s">
+        <v>447</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D317" s="8" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="A317" s="66" t="s">
-        <v>386</v>
-      </c>
-      <c r="B317" s="68" t="s">
-        <v>438</v>
-      </c>
-      <c r="C317" s="7"/>
-      <c r="D317" s="8" t="s">
-        <v>440</v>
       </c>
       <c r="E317" s="7">
         <v>6</v>
@@ -8957,15 +8964,17 @@
       <c r="F317" s="22"/>
       <c r="G317" s="20"/>
       <c r="H317" s="54" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="67"/>
-      <c r="B318" s="69"/>
-      <c r="C318" s="15"/>
+      <c r="B318" s="64"/>
+      <c r="C318" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D318" s="16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E318" s="15">
         <v>8</v>
@@ -8979,7 +8988,7 @@
         <v>386</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C319" s="11"/>
       <c r="D319" s="12"/>
@@ -8987,15 +8996,15 @@
       <c r="F319" s="23"/>
       <c r="G319" s="13"/>
       <c r="H319" s="53" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="B320" s="11" t="s">
-        <v>444</v>
+      <c r="B320" s="97" t="s">
+        <v>448</v>
       </c>
       <c r="C320" s="11"/>
       <c r="D320" s="12"/>
@@ -9003,15 +9012,15 @@
       <c r="F320" s="23"/>
       <c r="G320" s="13"/>
       <c r="H320" s="53" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="51" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C321" s="11"/>
       <c r="D321" s="12"/>
@@ -9019,7 +9028,7 @@
       <c r="F321" s="23"/>
       <c r="G321" s="13"/>
       <c r="H321" s="53" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9065,7 +9074,7 @@
       <c r="A324" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="B324" s="30" t="s">
+      <c r="B324" s="27" t="s">
         <v>394</v>
       </c>
       <c r="C324" s="28" t="s">
@@ -9083,22 +9092,119 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="B207:B212"/>
-    <mergeCell ref="B281:B283"/>
-    <mergeCell ref="A281:A283"/>
-    <mergeCell ref="A270:A271"/>
-    <mergeCell ref="B270:B271"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="A237:A244"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="A317:A318"/>
+    <mergeCell ref="B317:B318"/>
+    <mergeCell ref="F224:F225"/>
+    <mergeCell ref="F226:F228"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="B226:B228"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="F255:F257"/>
+    <mergeCell ref="F289:F292"/>
+    <mergeCell ref="B255:B257"/>
+    <mergeCell ref="F231:F234"/>
+    <mergeCell ref="F235:F236"/>
+    <mergeCell ref="F237:F244"/>
+    <mergeCell ref="F245:F248"/>
+    <mergeCell ref="F249:F251"/>
+    <mergeCell ref="F252:F254"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="B249:B251"/>
+    <mergeCell ref="B245:B248"/>
+    <mergeCell ref="B237:B244"/>
+    <mergeCell ref="F229:F230"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="A299:A300"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="A191:A194"/>
+    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="B191:B194"/>
+    <mergeCell ref="A295:A298"/>
+    <mergeCell ref="B295:B298"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="F2:F16"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="F25:F34"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B75:B88"/>
+    <mergeCell ref="A75:A88"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="F35:F47"/>
+    <mergeCell ref="B35:B47"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="F159:F164"/>
+    <mergeCell ref="F165:F169"/>
+    <mergeCell ref="F170:F173"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="B48:B59"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="B128:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B142"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="B116:B121"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B179:B184"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A48:A59"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A70:A74"/>
     <mergeCell ref="F219:F221"/>
     <mergeCell ref="F222:F223"/>
     <mergeCell ref="F145:F148"/>
@@ -9123,122 +9229,25 @@
     <mergeCell ref="B113:B115"/>
     <mergeCell ref="B126:B127"/>
     <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="B281:B283"/>
+    <mergeCell ref="A281:A283"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="B270:B271"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A237:A244"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A245:A248"/>
     <mergeCell ref="A264:A266"/>
     <mergeCell ref="B276:B280"/>
     <mergeCell ref="A276:A280"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="A35:A47"/>
-    <mergeCell ref="B128:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B142"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="B116:B121"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B179:B184"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B75:B88"/>
-    <mergeCell ref="A75:A88"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="F35:F47"/>
-    <mergeCell ref="B35:B47"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="F159:F164"/>
-    <mergeCell ref="F165:F169"/>
-    <mergeCell ref="F170:F173"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="B48:B59"/>
-    <mergeCell ref="F2:F16"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="F17:F24"/>
-    <mergeCell ref="F25:F34"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B60:B69"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="F229:F230"/>
-    <mergeCell ref="B203:B206"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="A299:A300"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="A191:A194"/>
-    <mergeCell ref="A207:A212"/>
-    <mergeCell ref="B191:B194"/>
-    <mergeCell ref="A295:A298"/>
-    <mergeCell ref="B295:B298"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="A317:A318"/>
-    <mergeCell ref="B317:B318"/>
-    <mergeCell ref="F224:F225"/>
-    <mergeCell ref="F226:F228"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="B226:B228"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="F255:F257"/>
-    <mergeCell ref="F289:F292"/>
-    <mergeCell ref="B255:B257"/>
-    <mergeCell ref="F231:F234"/>
-    <mergeCell ref="F235:F236"/>
-    <mergeCell ref="F237:F244"/>
-    <mergeCell ref="F245:F248"/>
-    <mergeCell ref="F249:F251"/>
-    <mergeCell ref="F252:F254"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="B249:B251"/>
-    <mergeCell ref="B245:B248"/>
-    <mergeCell ref="B237:B244"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -9253,105 +9262,105 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H60" r:id="rId2"/>
-    <hyperlink ref="H70" r:id="rId3"/>
-    <hyperlink ref="H89" r:id="rId4"/>
-    <hyperlink ref="H106" r:id="rId5"/>
-    <hyperlink ref="H100" r:id="rId6"/>
-    <hyperlink ref="H109" r:id="rId7"/>
-    <hyperlink ref="H48" r:id="rId8"/>
-    <hyperlink ref="H35" r:id="rId9"/>
-    <hyperlink ref="H25" r:id="rId10"/>
-    <hyperlink ref="H17" r:id="rId11"/>
-    <hyperlink ref="H75" r:id="rId12"/>
-    <hyperlink ref="H170" r:id="rId13"/>
-    <hyperlink ref="H137" r:id="rId14"/>
-    <hyperlink ref="H179" r:id="rId15"/>
-    <hyperlink ref="H207" r:id="rId16"/>
-    <hyperlink ref="H203" r:id="rId17"/>
-    <hyperlink ref="H159" r:id="rId18"/>
-    <hyperlink ref="H185" r:id="rId19"/>
-    <hyperlink ref="H143" r:id="rId20"/>
-    <hyperlink ref="H188" r:id="rId21"/>
-    <hyperlink ref="H134" r:id="rId22"/>
-    <hyperlink ref="H165" r:id="rId23"/>
-    <hyperlink ref="H201" r:id="rId24"/>
-    <hyperlink ref="H199" r:id="rId25"/>
-    <hyperlink ref="H153" r:id="rId26"/>
-    <hyperlink ref="H149" r:id="rId27"/>
-    <hyperlink ref="H198" r:id="rId28"/>
-    <hyperlink ref="H145" r:id="rId29"/>
-    <hyperlink ref="H213" r:id="rId30"/>
-    <hyperlink ref="H174" r:id="rId31"/>
-    <hyperlink ref="H214" r:id="rId32"/>
-    <hyperlink ref="H177" r:id="rId33"/>
-    <hyperlink ref="H126" r:id="rId34"/>
-    <hyperlink ref="H191" r:id="rId35"/>
-    <hyperlink ref="H195" r:id="rId36"/>
-    <hyperlink ref="H157" r:id="rId37"/>
-    <hyperlink ref="H128" r:id="rId38"/>
-    <hyperlink ref="H122" r:id="rId39"/>
-    <hyperlink ref="H116" r:id="rId40"/>
-    <hyperlink ref="H113" r:id="rId41"/>
-    <hyperlink ref="H323" r:id="rId42"/>
-    <hyperlink ref="H258" r:id="rId43"/>
-    <hyperlink ref="H284" r:id="rId44"/>
-    <hyperlink ref="H281" r:id="rId45"/>
-    <hyperlink ref="H276" r:id="rId46"/>
-    <hyperlink ref="H287" r:id="rId47"/>
-    <hyperlink ref="H275" r:id="rId48"/>
-    <hyperlink ref="H286" r:id="rId49"/>
-    <hyperlink ref="H285" r:id="rId50"/>
-    <hyperlink ref="H274" r:id="rId51"/>
-    <hyperlink ref="H273" r:id="rId52"/>
-    <hyperlink ref="H272" r:id="rId53"/>
-    <hyperlink ref="H270" r:id="rId54"/>
-    <hyperlink ref="H268" r:id="rId55"/>
-    <hyperlink ref="H267" r:id="rId56"/>
-    <hyperlink ref="H222" r:id="rId57"/>
-    <hyperlink ref="H255" r:id="rId58"/>
-    <hyperlink ref="H226" r:id="rId59"/>
-    <hyperlink ref="H259" r:id="rId60"/>
-    <hyperlink ref="H224" r:id="rId61"/>
-    <hyperlink ref="H231" r:id="rId62"/>
-    <hyperlink ref="H235" r:id="rId63"/>
-    <hyperlink ref="H237" r:id="rId64"/>
-    <hyperlink ref="H229" r:id="rId65"/>
-    <hyperlink ref="H245" r:id="rId66"/>
-    <hyperlink ref="H261" r:id="rId67"/>
-    <hyperlink ref="H249" r:id="rId68"/>
-    <hyperlink ref="H252" r:id="rId69"/>
-    <hyperlink ref="H262" r:id="rId70"/>
-    <hyperlink ref="H264" r:id="rId71"/>
-    <hyperlink ref="H219" r:id="rId72"/>
-    <hyperlink ref="H299" r:id="rId73"/>
-    <hyperlink ref="H302" r:id="rId74"/>
-    <hyperlink ref="H288" r:id="rId75"/>
-    <hyperlink ref="H217" r:id="rId76"/>
-    <hyperlink ref="H301" r:id="rId77"/>
-    <hyperlink ref="H295" r:id="rId78"/>
-    <hyperlink ref="H289" r:id="rId79"/>
-    <hyperlink ref="H303" r:id="rId80"/>
-    <hyperlink ref="H304" r:id="rId81"/>
-    <hyperlink ref="H305" r:id="rId82"/>
-    <hyperlink ref="H293" r:id="rId83"/>
-    <hyperlink ref="H294" r:id="rId84"/>
-    <hyperlink ref="H306" r:id="rId85"/>
-    <hyperlink ref="H307" r:id="rId86"/>
-    <hyperlink ref="H308" r:id="rId87"/>
-    <hyperlink ref="H309" r:id="rId88"/>
-    <hyperlink ref="H310" r:id="rId89"/>
-    <hyperlink ref="H311" r:id="rId90"/>
-    <hyperlink ref="H312" r:id="rId91"/>
-    <hyperlink ref="H313" r:id="rId92"/>
-    <hyperlink ref="H314" r:id="rId93"/>
-    <hyperlink ref="H315" r:id="rId94"/>
-    <hyperlink ref="H316" r:id="rId95"/>
-    <hyperlink ref="H317" r:id="rId96"/>
-    <hyperlink ref="H319" r:id="rId97"/>
-    <hyperlink ref="H320" r:id="rId98"/>
-    <hyperlink ref="H321" r:id="rId99"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="H60" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="H70" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="H89" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="H106" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="H100" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="H109" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="H48" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="H35" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="H25" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="H17" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="H75" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="H170" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="H137" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="H179" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="H207" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="H203" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="H159" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="H185" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="H143" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="H188" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="H134" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="H165" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="H201" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="H199" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="H153" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="H149" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="H198" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="H145" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="H213" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="H174" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="H214" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="H177" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="H126" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="H191" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="H195" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="H157" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="H128" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="H122" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="H116" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="H113" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="H323" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="H258" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="H284" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="H281" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
+    <hyperlink ref="H276" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="H287" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
+    <hyperlink ref="H275" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
+    <hyperlink ref="H286" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="H285" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
+    <hyperlink ref="H274" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="H273" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="H272" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
+    <hyperlink ref="H270" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
+    <hyperlink ref="H268" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
+    <hyperlink ref="H267" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
+    <hyperlink ref="H222" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
+    <hyperlink ref="H255" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
+    <hyperlink ref="H226" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
+    <hyperlink ref="H259" r:id="rId60" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
+    <hyperlink ref="H224" r:id="rId61" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
+    <hyperlink ref="H231" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
+    <hyperlink ref="H235" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
+    <hyperlink ref="H237" r:id="rId64" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
+    <hyperlink ref="H229" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
+    <hyperlink ref="H245" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
+    <hyperlink ref="H261" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
+    <hyperlink ref="H249" r:id="rId68" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
+    <hyperlink ref="H252" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
+    <hyperlink ref="H262" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
+    <hyperlink ref="H264" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
+    <hyperlink ref="H219" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
+    <hyperlink ref="H299" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
+    <hyperlink ref="H302" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
+    <hyperlink ref="H288" r:id="rId75" xr:uid="{00000000-0004-0000-0300-00004A000000}"/>
+    <hyperlink ref="H217" r:id="rId76" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
+    <hyperlink ref="H301" r:id="rId77" xr:uid="{00000000-0004-0000-0300-00004C000000}"/>
+    <hyperlink ref="H295" r:id="rId78" xr:uid="{00000000-0004-0000-0300-00004D000000}"/>
+    <hyperlink ref="H289" r:id="rId79" xr:uid="{00000000-0004-0000-0300-00004E000000}"/>
+    <hyperlink ref="H303" r:id="rId80" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
+    <hyperlink ref="H304" r:id="rId81" xr:uid="{00000000-0004-0000-0300-000050000000}"/>
+    <hyperlink ref="H305" r:id="rId82" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
+    <hyperlink ref="H293" r:id="rId83" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
+    <hyperlink ref="H294" r:id="rId84" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
+    <hyperlink ref="H306" r:id="rId85" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
+    <hyperlink ref="H307" r:id="rId86" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
+    <hyperlink ref="H308" r:id="rId87" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
+    <hyperlink ref="H309" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
+    <hyperlink ref="H310" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
+    <hyperlink ref="H311" r:id="rId90" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
+    <hyperlink ref="H312" r:id="rId91" xr:uid="{00000000-0004-0000-0300-00005A000000}"/>
+    <hyperlink ref="H313" r:id="rId92" xr:uid="{00000000-0004-0000-0300-00005B000000}"/>
+    <hyperlink ref="H314" r:id="rId93" xr:uid="{00000000-0004-0000-0300-00005C000000}"/>
+    <hyperlink ref="H315" r:id="rId94" xr:uid="{00000000-0004-0000-0300-00005D000000}"/>
+    <hyperlink ref="H316" r:id="rId95" xr:uid="{00000000-0004-0000-0300-00005E000000}"/>
+    <hyperlink ref="H317" r:id="rId96" xr:uid="{00000000-0004-0000-0300-00005F000000}"/>
+    <hyperlink ref="H319" r:id="rId97" xr:uid="{00000000-0004-0000-0300-000060000000}"/>
+    <hyperlink ref="H320" r:id="rId98" xr:uid="{00000000-0004-0000-0300-000061000000}"/>
+    <hyperlink ref="H321" r:id="rId99" xr:uid="{00000000-0004-0000-0300-000062000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
@@ -9359,7 +9368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/bin/onmyoji.xlsx
+++ b/bin/onmyoji.xlsx
@@ -2232,10 +2232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Susabi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/07/283skin1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2257,10 +2253,6 @@
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/fe/285skin1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kingyohime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2358,6 +2350,14 @@
   </si>
   <si>
     <t>짐조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스사비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킨쿄히메</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2789,115 +2789,115 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2983,7 +2983,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3035,7 +3035,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3449,10 +3449,10 @@
   <dimension ref="A1:H324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2460" ySplit="660" topLeftCell="A295" activePane="bottomRight"/>
+      <pane xSplit="2460" ySplit="660" topLeftCell="A307" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="F1" sqref="F1:F1048576"/>
       <selection pane="bottomLeft" activeCell="A322" sqref="A322:XFD324"/>
-      <selection pane="bottomRight" activeCell="C328" sqref="C328"/>
+      <selection pane="bottomRight" activeCell="E330" sqref="E330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3495,10 +3495,10 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="71" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -3510,7 +3510,7 @@
       <c r="E2" s="7">
         <v>12</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="68" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="9"/>
@@ -3519,8 +3519,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="85"/>
-      <c r="B3" s="63"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="11" t="s">
         <v>52</v>
       </c>
@@ -3530,13 +3530,13 @@
       <c r="E3" s="11">
         <v>12</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="85"/>
-      <c r="B4" s="63"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="11" t="s">
         <v>181</v>
       </c>
@@ -3546,13 +3546,13 @@
       <c r="E4" s="11">
         <v>6</v>
       </c>
-      <c r="F4" s="72"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="85"/>
-      <c r="B5" s="63"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="11" t="s">
         <v>52</v>
       </c>
@@ -3562,13 +3562,13 @@
       <c r="E5" s="11">
         <v>7</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="85"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="11" t="s">
         <v>52</v>
       </c>
@@ -3578,13 +3578,13 @@
       <c r="E6" s="11">
         <v>6</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="85"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="11" t="s">
         <v>52</v>
       </c>
@@ -3594,13 +3594,13 @@
       <c r="E7" s="11">
         <v>4</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="85"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="11" t="s">
         <v>52</v>
       </c>
@@ -3610,13 +3610,13 @@
       <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="85"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="11" t="s">
         <v>181</v>
       </c>
@@ -3626,13 +3626,13 @@
       <c r="E9" s="11">
         <v>4</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="85"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="11" t="s">
         <v>52</v>
       </c>
@@ -3642,13 +3642,13 @@
       <c r="E10" s="11">
         <v>7</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="85"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="11" t="s">
         <v>184</v>
       </c>
@@ -3658,13 +3658,13 @@
       <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="85"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="11" t="s">
         <v>184</v>
       </c>
@@ -3674,13 +3674,13 @@
       <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="85"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="11" t="s">
         <v>186</v>
       </c>
@@ -3690,13 +3690,13 @@
       <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="85"/>
-      <c r="B14" s="63"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="11" t="s">
         <v>184</v>
       </c>
@@ -3706,13 +3706,13 @@
       <c r="E14" s="11">
         <v>1</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="85"/>
-      <c r="B15" s="63"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="11" t="s">
         <v>184</v>
       </c>
@@ -3722,13 +3722,13 @@
       <c r="E15" s="11">
         <v>2</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="89"/>
-      <c r="B16" s="64"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="15" t="s">
         <v>50</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="E16" s="15">
         <v>2</v>
       </c>
-      <c r="F16" s="71"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
     </row>
@@ -3746,7 +3746,7 @@
       <c r="A17" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="73" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -3758,7 +3758,7 @@
       <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="67" t="s">
         <v>265</v>
       </c>
       <c r="H17" s="19" t="s">
@@ -3767,7 +3767,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="90"/>
-      <c r="B18" s="80"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
@@ -3777,12 +3777,12 @@
       <c r="E18" s="3">
         <v>4</v>
       </c>
-      <c r="F18" s="69"/>
+      <c r="F18" s="67"/>
       <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="90"/>
-      <c r="B19" s="80"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
@@ -3792,12 +3792,12 @@
       <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="69"/>
+      <c r="F19" s="67"/>
       <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="90"/>
-      <c r="B20" s="80"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
@@ -3807,11 +3807,11 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="69"/>
+      <c r="F20" s="67"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="90"/>
-      <c r="B21" s="80"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
@@ -3821,11 +3821,11 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="69"/>
+      <c r="F21" s="67"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="90"/>
-      <c r="B22" s="80"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="3" t="s">
         <v>236</v>
       </c>
@@ -3835,11 +3835,11 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="69"/>
+      <c r="F22" s="67"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="90"/>
-      <c r="B23" s="80"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="3" t="s">
         <v>210</v>
       </c>
@@ -3849,11 +3849,11 @@
       <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="69"/>
+      <c r="F23" s="67"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="90"/>
-      <c r="B24" s="80"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
@@ -3863,13 +3863,13 @@
       <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="69"/>
+      <c r="F24" s="67"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="71" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -3881,7 +3881,7 @@
       <c r="E25" s="7">
         <v>1</v>
       </c>
-      <c r="F25" s="70" t="s">
+      <c r="F25" s="68" t="s">
         <v>266</v>
       </c>
       <c r="G25" s="20"/>
@@ -3890,8 +3890,8 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="85"/>
-      <c r="B26" s="63"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="11" t="s">
         <v>229</v>
       </c>
@@ -3901,13 +3901,13 @@
       <c r="E26" s="11">
         <v>2</v>
       </c>
-      <c r="F26" s="72"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="13"/>
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="85"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="11" t="s">
         <v>229</v>
       </c>
@@ -3917,13 +3917,13 @@
       <c r="E27" s="11">
         <v>2</v>
       </c>
-      <c r="F27" s="72"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="13"/>
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="85"/>
-      <c r="B28" s="63"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="11" t="s">
         <v>229</v>
       </c>
@@ -3933,13 +3933,13 @@
       <c r="E28" s="11">
         <v>3</v>
       </c>
-      <c r="F28" s="72"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="13"/>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="85"/>
-      <c r="B29" s="63"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="11" t="s">
         <v>229</v>
       </c>
@@ -3949,13 +3949,13 @@
       <c r="E29" s="11">
         <v>4</v>
       </c>
-      <c r="F29" s="72"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="13"/>
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="85"/>
-      <c r="B30" s="63"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="11" t="s">
         <v>229</v>
       </c>
@@ -3965,13 +3965,13 @@
       <c r="E30" s="11">
         <v>2</v>
       </c>
-      <c r="F30" s="72"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="13"/>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="85"/>
-      <c r="B31" s="63"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="11" t="s">
         <v>210</v>
       </c>
@@ -3981,13 +3981,13 @@
       <c r="E31" s="11">
         <v>3</v>
       </c>
-      <c r="F31" s="72"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="13"/>
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="85"/>
-      <c r="B32" s="63"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="11" t="s">
         <v>210</v>
       </c>
@@ -3997,13 +3997,13 @@
       <c r="E32" s="11">
         <v>1</v>
       </c>
-      <c r="F32" s="72"/>
+      <c r="F32" s="69"/>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="85"/>
-      <c r="B33" s="63"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="11" t="s">
         <v>50</v>
       </c>
@@ -4013,13 +4013,13 @@
       <c r="E33" s="11">
         <v>1</v>
       </c>
-      <c r="F33" s="72"/>
+      <c r="F33" s="69"/>
       <c r="G33" s="13"/>
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="89"/>
-      <c r="B34" s="64"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="15" t="s">
         <v>51</v>
       </c>
@@ -4029,15 +4029,15 @@
       <c r="E34" s="15">
         <v>3</v>
       </c>
-      <c r="F34" s="71"/>
+      <c r="F34" s="70"/>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="71" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -4049,7 +4049,7 @@
       <c r="E35" s="7">
         <v>1</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="68" t="s">
         <v>54</v>
       </c>
       <c r="G35" s="20"/>
@@ -4058,8 +4058,8 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="85"/>
-      <c r="B36" s="63"/>
+      <c r="A36" s="88"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="11" t="s">
         <v>229</v>
       </c>
@@ -4069,13 +4069,13 @@
       <c r="E36" s="11">
         <v>9</v>
       </c>
-      <c r="F36" s="72"/>
+      <c r="F36" s="69"/>
       <c r="G36" s="13"/>
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="85"/>
-      <c r="B37" s="63"/>
+      <c r="A37" s="88"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="11" t="s">
         <v>229</v>
       </c>
@@ -4085,13 +4085,13 @@
       <c r="E37" s="11">
         <v>10</v>
       </c>
-      <c r="F37" s="72"/>
+      <c r="F37" s="69"/>
       <c r="G37" s="13"/>
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="85"/>
-      <c r="B38" s="63"/>
+      <c r="A38" s="88"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="11" t="s">
         <v>229</v>
       </c>
@@ -4101,13 +4101,13 @@
       <c r="E38" s="11">
         <v>4</v>
       </c>
-      <c r="F38" s="72"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="13"/>
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="85"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="88"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="11" t="s">
         <v>229</v>
       </c>
@@ -4117,13 +4117,13 @@
       <c r="E39" s="11">
         <v>2</v>
       </c>
-      <c r="F39" s="72"/>
+      <c r="F39" s="69"/>
       <c r="G39" s="13"/>
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="85"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="88"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="11" t="s">
         <v>229</v>
       </c>
@@ -4133,13 +4133,13 @@
       <c r="E40" s="11">
         <v>3</v>
       </c>
-      <c r="F40" s="72"/>
+      <c r="F40" s="69"/>
       <c r="G40" s="13"/>
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="85"/>
-      <c r="B41" s="63"/>
+      <c r="A41" s="88"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="11" t="s">
         <v>229</v>
       </c>
@@ -4149,13 +4149,13 @@
       <c r="E41" s="11">
         <v>5</v>
       </c>
-      <c r="F41" s="72"/>
+      <c r="F41" s="69"/>
       <c r="G41" s="13"/>
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="85"/>
-      <c r="B42" s="63"/>
+      <c r="A42" s="88"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="11" t="s">
         <v>229</v>
       </c>
@@ -4165,13 +4165,13 @@
       <c r="E42" s="11">
         <v>2</v>
       </c>
-      <c r="F42" s="72"/>
+      <c r="F42" s="69"/>
       <c r="G42" s="13"/>
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="85"/>
-      <c r="B43" s="63"/>
+      <c r="A43" s="88"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="11" t="s">
         <v>229</v>
       </c>
@@ -4181,13 +4181,13 @@
       <c r="E43" s="11">
         <v>3</v>
       </c>
-      <c r="F43" s="72"/>
+      <c r="F43" s="69"/>
       <c r="G43" s="13"/>
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="85"/>
-      <c r="B44" s="63"/>
+      <c r="A44" s="88"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="11" t="s">
         <v>229</v>
       </c>
@@ -4197,13 +4197,13 @@
       <c r="E44" s="11">
         <v>18</v>
       </c>
-      <c r="F44" s="72"/>
+      <c r="F44" s="69"/>
       <c r="G44" s="13"/>
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="85"/>
-      <c r="B45" s="63"/>
+      <c r="A45" s="88"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="11" t="s">
         <v>226</v>
       </c>
@@ -4213,13 +4213,13 @@
       <c r="E45" s="11">
         <v>1</v>
       </c>
-      <c r="F45" s="72"/>
+      <c r="F45" s="69"/>
       <c r="G45" s="13"/>
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="85"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="11" t="s">
         <v>210</v>
       </c>
@@ -4229,13 +4229,13 @@
       <c r="E46" s="11">
         <v>1</v>
       </c>
-      <c r="F46" s="72"/>
+      <c r="F46" s="69"/>
       <c r="G46" s="13"/>
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="85"/>
-      <c r="B47" s="63"/>
+      <c r="A47" s="88"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="11" t="s">
         <v>51</v>
       </c>
@@ -4245,15 +4245,15 @@
       <c r="E47" s="11">
         <v>4</v>
       </c>
-      <c r="F47" s="72"/>
+      <c r="F47" s="69"/>
       <c r="G47" s="13"/>
       <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="71" t="s">
         <v>151</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -4272,8 +4272,8 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="85"/>
-      <c r="B49" s="63"/>
+      <c r="A49" s="88"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="11" t="s">
         <v>118</v>
       </c>
@@ -4288,8 +4288,8 @@
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="85"/>
-      <c r="B50" s="63"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="11" t="s">
         <v>118</v>
       </c>
@@ -4304,8 +4304,8 @@
       <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="85"/>
-      <c r="B51" s="63"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="11" t="s">
         <v>210</v>
       </c>
@@ -4320,8 +4320,8 @@
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="85"/>
-      <c r="B52" s="63"/>
+      <c r="A52" s="88"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="11" t="s">
         <v>51</v>
       </c>
@@ -4336,8 +4336,8 @@
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="85"/>
-      <c r="B53" s="63"/>
+      <c r="A53" s="88"/>
+      <c r="B53" s="72"/>
       <c r="C53" s="11" t="s">
         <v>52</v>
       </c>
@@ -4352,8 +4352,8 @@
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="85"/>
-      <c r="B54" s="63"/>
+      <c r="A54" s="88"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="11" t="s">
         <v>52</v>
       </c>
@@ -4368,8 +4368,8 @@
       <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="85"/>
-      <c r="B55" s="63"/>
+      <c r="A55" s="88"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="11" t="s">
         <v>52</v>
       </c>
@@ -4384,8 +4384,8 @@
       <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="85"/>
-      <c r="B56" s="63"/>
+      <c r="A56" s="88"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="11" t="s">
         <v>52</v>
       </c>
@@ -4400,8 +4400,8 @@
       <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="85"/>
-      <c r="B57" s="63"/>
+      <c r="A57" s="88"/>
+      <c r="B57" s="72"/>
       <c r="C57" s="11" t="s">
         <v>52</v>
       </c>
@@ -4416,8 +4416,8 @@
       <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="85"/>
-      <c r="B58" s="63"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="72"/>
       <c r="C58" s="11" t="s">
         <v>52</v>
       </c>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="89"/>
-      <c r="B59" s="64"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="15" t="s">
         <v>52</v>
       </c>
@@ -4448,10 +4448,10 @@
       <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="85" t="s">
+      <c r="A60" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="63" t="s">
+      <c r="B60" s="72" t="s">
         <v>152</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -4470,8 +4470,8 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="85"/>
-      <c r="B61" s="63"/>
+      <c r="A61" s="88"/>
+      <c r="B61" s="72"/>
       <c r="C61" s="11" t="s">
         <v>137</v>
       </c>
@@ -4486,8 +4486,8 @@
       <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="85"/>
-      <c r="B62" s="63"/>
+      <c r="A62" s="88"/>
+      <c r="B62" s="72"/>
       <c r="C62" s="11" t="s">
         <v>52</v>
       </c>
@@ -4502,8 +4502,8 @@
       <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="85"/>
-      <c r="B63" s="63"/>
+      <c r="A63" s="88"/>
+      <c r="B63" s="72"/>
       <c r="C63" s="11" t="s">
         <v>137</v>
       </c>
@@ -4518,8 +4518,8 @@
       <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="85"/>
-      <c r="B64" s="63"/>
+      <c r="A64" s="88"/>
+      <c r="B64" s="72"/>
       <c r="C64" s="11" t="s">
         <v>52</v>
       </c>
@@ -4534,8 +4534,8 @@
       <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="85"/>
-      <c r="B65" s="63"/>
+      <c r="A65" s="88"/>
+      <c r="B65" s="72"/>
       <c r="C65" s="11" t="s">
         <v>52</v>
       </c>
@@ -4550,8 +4550,8 @@
       <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="85"/>
-      <c r="B66" s="63"/>
+      <c r="A66" s="88"/>
+      <c r="B66" s="72"/>
       <c r="C66" s="11" t="s">
         <v>52</v>
       </c>
@@ -4566,8 +4566,8 @@
       <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="85"/>
-      <c r="B67" s="63"/>
+      <c r="A67" s="88"/>
+      <c r="B67" s="72"/>
       <c r="C67" s="11" t="s">
         <v>52</v>
       </c>
@@ -4582,8 +4582,8 @@
       <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="85"/>
-      <c r="B68" s="63"/>
+      <c r="A68" s="88"/>
+      <c r="B68" s="72"/>
       <c r="C68" s="11" t="s">
         <v>52</v>
       </c>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="89"/>
-      <c r="B69" s="64"/>
+      <c r="B69" s="66"/>
       <c r="C69" s="15" t="s">
         <v>52</v>
       </c>
@@ -4614,10 +4614,10 @@
       <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="84" t="s">
+      <c r="A70" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="71" t="s">
         <v>153</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -4636,8 +4636,8 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="85"/>
-      <c r="B71" s="63"/>
+      <c r="A71" s="88"/>
+      <c r="B71" s="72"/>
       <c r="C71" s="11" t="s">
         <v>137</v>
       </c>
@@ -4652,8 +4652,8 @@
       <c r="H71" s="14"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="85"/>
-      <c r="B72" s="63"/>
+      <c r="A72" s="88"/>
+      <c r="B72" s="72"/>
       <c r="C72" s="11" t="s">
         <v>52</v>
       </c>
@@ -4668,8 +4668,8 @@
       <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="85"/>
-      <c r="B73" s="63"/>
+      <c r="A73" s="88"/>
+      <c r="B73" s="72"/>
       <c r="C73" s="11" t="s">
         <v>137</v>
       </c>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="89"/>
-      <c r="B74" s="64"/>
+      <c r="B74" s="66"/>
       <c r="C74" s="15" t="s">
         <v>137</v>
       </c>
@@ -4703,7 +4703,7 @@
       <c r="A75" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="B75" s="80" t="s">
+      <c r="B75" s="73" t="s">
         <v>154</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -4721,7 +4721,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="90"/>
-      <c r="B76" s="80"/>
+      <c r="B76" s="73"/>
       <c r="C76" s="3" t="s">
         <v>118</v>
       </c>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="90"/>
-      <c r="B77" s="80"/>
+      <c r="B77" s="73"/>
       <c r="C77" s="3" t="s">
         <v>118</v>
       </c>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="90"/>
-      <c r="B78" s="80"/>
+      <c r="B78" s="73"/>
       <c r="C78" s="3" t="s">
         <v>236</v>
       </c>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="90"/>
-      <c r="B79" s="80"/>
+      <c r="B79" s="73"/>
       <c r="C79" s="3" t="s">
         <v>52</v>
       </c>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="90"/>
-      <c r="B80" s="80"/>
+      <c r="B80" s="73"/>
       <c r="C80" s="3" t="s">
         <v>52</v>
       </c>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="90"/>
-      <c r="B81" s="80"/>
+      <c r="B81" s="73"/>
       <c r="C81" s="3" t="s">
         <v>52</v>
       </c>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="90"/>
-      <c r="B82" s="80"/>
+      <c r="B82" s="73"/>
       <c r="C82" s="3" t="s">
         <v>52</v>
       </c>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="90"/>
-      <c r="B83" s="80"/>
+      <c r="B83" s="73"/>
       <c r="C83" s="3" t="s">
         <v>52</v>
       </c>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="90"/>
-      <c r="B84" s="80"/>
+      <c r="B84" s="73"/>
       <c r="C84" s="3" t="s">
         <v>52</v>
       </c>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="90"/>
-      <c r="B85" s="80"/>
+      <c r="B85" s="73"/>
       <c r="C85" s="3" t="s">
         <v>137</v>
       </c>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="90"/>
-      <c r="B86" s="80"/>
+      <c r="B86" s="73"/>
       <c r="C86" s="3" t="s">
         <v>137</v>
       </c>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="90"/>
-      <c r="B87" s="80"/>
+      <c r="B87" s="73"/>
       <c r="C87" s="3" t="s">
         <v>52</v>
       </c>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="90"/>
-      <c r="B88" s="80"/>
+      <c r="B88" s="73"/>
       <c r="C88" s="3" t="s">
         <v>137</v>
       </c>
@@ -4889,10 +4889,10 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="84" t="s">
+      <c r="A89" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="B89" s="62" t="s">
+      <c r="B89" s="71" t="s">
         <v>155</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -4911,8 +4911,8 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="85"/>
-      <c r="B90" s="63"/>
+      <c r="A90" s="88"/>
+      <c r="B90" s="72"/>
       <c r="C90" s="11" t="s">
         <v>118</v>
       </c>
@@ -4927,8 +4927,8 @@
       <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="85"/>
-      <c r="B91" s="63"/>
+      <c r="A91" s="88"/>
+      <c r="B91" s="72"/>
       <c r="C91" s="11" t="s">
         <v>184</v>
       </c>
@@ -4943,8 +4943,8 @@
       <c r="H91" s="14"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="85"/>
-      <c r="B92" s="63"/>
+      <c r="A92" s="88"/>
+      <c r="B92" s="72"/>
       <c r="C92" s="11" t="s">
         <v>118</v>
       </c>
@@ -4959,8 +4959,8 @@
       <c r="H92" s="14"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="85"/>
-      <c r="B93" s="63"/>
+      <c r="A93" s="88"/>
+      <c r="B93" s="72"/>
       <c r="C93" s="11" t="s">
         <v>137</v>
       </c>
@@ -4975,8 +4975,8 @@
       <c r="H93" s="14"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="85"/>
-      <c r="B94" s="63"/>
+      <c r="A94" s="88"/>
+      <c r="B94" s="72"/>
       <c r="C94" s="11" t="s">
         <v>52</v>
       </c>
@@ -4991,8 +4991,8 @@
       <c r="H94" s="14"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="85"/>
-      <c r="B95" s="63"/>
+      <c r="A95" s="88"/>
+      <c r="B95" s="72"/>
       <c r="C95" s="11" t="s">
         <v>52</v>
       </c>
@@ -5007,8 +5007,8 @@
       <c r="H95" s="14"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="85"/>
-      <c r="B96" s="63"/>
+      <c r="A96" s="88"/>
+      <c r="B96" s="72"/>
       <c r="C96" s="11" t="s">
         <v>52</v>
       </c>
@@ -5023,8 +5023,8 @@
       <c r="H96" s="14"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="85"/>
-      <c r="B97" s="63"/>
+      <c r="A97" s="88"/>
+      <c r="B97" s="72"/>
       <c r="C97" s="11" t="s">
         <v>52</v>
       </c>
@@ -5039,8 +5039,8 @@
       <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="85"/>
-      <c r="B98" s="63"/>
+      <c r="A98" s="88"/>
+      <c r="B98" s="72"/>
       <c r="C98" s="11" t="s">
         <v>52</v>
       </c>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="89"/>
-      <c r="B99" s="64"/>
+      <c r="B99" s="66"/>
       <c r="C99" s="15" t="s">
         <v>137</v>
       </c>
@@ -5071,10 +5071,10 @@
       <c r="H99" s="18"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="86" t="s">
+      <c r="A100" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="B100" s="62" t="s">
+      <c r="B100" s="71" t="s">
         <v>156</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -5091,8 +5091,8 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="87"/>
-      <c r="B101" s="63"/>
+      <c r="A101" s="92"/>
+      <c r="B101" s="72"/>
       <c r="C101" s="3" t="s">
         <v>133</v>
       </c>
@@ -5104,8 +5104,8 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="87"/>
-      <c r="B102" s="63"/>
+      <c r="A102" s="92"/>
+      <c r="B102" s="72"/>
       <c r="C102" s="3" t="s">
         <v>133</v>
       </c>
@@ -5117,8 +5117,8 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="87"/>
-      <c r="B103" s="63"/>
+      <c r="A103" s="92"/>
+      <c r="B103" s="72"/>
       <c r="C103" s="3" t="s">
         <v>133</v>
       </c>
@@ -5130,8 +5130,8 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="87"/>
-      <c r="B104" s="63"/>
+      <c r="A104" s="92"/>
+      <c r="B104" s="72"/>
       <c r="C104" s="3" t="s">
         <v>52</v>
       </c>
@@ -5143,8 +5143,8 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="88"/>
-      <c r="B105" s="64"/>
+      <c r="A105" s="93"/>
+      <c r="B105" s="66"/>
       <c r="C105" s="3" t="s">
         <v>52</v>
       </c>
@@ -5156,10 +5156,10 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="84" t="s">
+      <c r="A106" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="B106" s="62" t="s">
+      <c r="B106" s="71" t="s">
         <v>157</v>
       </c>
       <c r="C106" s="7" t="s">
@@ -5178,8 +5178,8 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="85"/>
-      <c r="B107" s="63"/>
+      <c r="A107" s="88"/>
+      <c r="B107" s="72"/>
       <c r="C107" s="11" t="s">
         <v>137</v>
       </c>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="89"/>
-      <c r="B108" s="64"/>
+      <c r="B108" s="66"/>
       <c r="C108" s="15" t="s">
         <v>137</v>
       </c>
@@ -5210,10 +5210,10 @@
       <c r="H108" s="18"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="84" t="s">
+      <c r="A109" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="B109" s="62" t="s">
+      <c r="B109" s="71" t="s">
         <v>158</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -5232,8 +5232,8 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="85"/>
-      <c r="B110" s="63"/>
+      <c r="A110" s="88"/>
+      <c r="B110" s="72"/>
       <c r="C110" s="11" t="s">
         <v>52</v>
       </c>
@@ -5248,8 +5248,8 @@
       <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="85"/>
-      <c r="B111" s="63"/>
+      <c r="A111" s="88"/>
+      <c r="B111" s="72"/>
       <c r="C111" s="11" t="s">
         <v>210</v>
       </c>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="89"/>
-      <c r="B112" s="64"/>
+      <c r="B112" s="66"/>
       <c r="C112" s="15" t="s">
         <v>52</v>
       </c>
@@ -5280,10 +5280,10 @@
       <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="74" t="s">
+      <c r="A113" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="80" t="s">
+      <c r="B113" s="73" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="3" t="s">
@@ -5295,7 +5295,7 @@
       <c r="E113" s="3">
         <v>6</v>
       </c>
-      <c r="F113" s="69" t="s">
+      <c r="F113" s="67" t="s">
         <v>329</v>
       </c>
       <c r="H113" s="19" t="s">
@@ -5303,8 +5303,8 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="76"/>
-      <c r="B114" s="80"/>
+      <c r="A114" s="82"/>
+      <c r="B114" s="73"/>
       <c r="C114" s="3" t="s">
         <v>52</v>
       </c>
@@ -5314,11 +5314,11 @@
       <c r="E114" s="3">
         <v>2</v>
       </c>
-      <c r="F114" s="69"/>
+      <c r="F114" s="67"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="75"/>
-      <c r="B115" s="80"/>
+      <c r="A115" s="96"/>
+      <c r="B115" s="73"/>
       <c r="C115" s="3" t="s">
         <v>50</v>
       </c>
@@ -5328,13 +5328,13 @@
       <c r="E115" s="3">
         <v>1</v>
       </c>
-      <c r="F115" s="69"/>
+      <c r="F115" s="67"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="77" t="s">
+      <c r="A116" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="62" t="s">
+      <c r="B116" s="71" t="s">
         <v>17</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -5346,7 +5346,7 @@
       <c r="E116" s="7">
         <v>1</v>
       </c>
-      <c r="F116" s="70" t="s">
+      <c r="F116" s="68" t="s">
         <v>55</v>
       </c>
       <c r="G116" s="20"/>
@@ -5355,8 +5355,8 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="78"/>
-      <c r="B117" s="63"/>
+      <c r="A117" s="84"/>
+      <c r="B117" s="72"/>
       <c r="C117" s="11" t="s">
         <v>52</v>
       </c>
@@ -5366,13 +5366,13 @@
       <c r="E117" s="11">
         <v>2</v>
       </c>
-      <c r="F117" s="72"/>
+      <c r="F117" s="69"/>
       <c r="G117" s="13"/>
       <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="78"/>
-      <c r="B118" s="63"/>
+      <c r="A118" s="84"/>
+      <c r="B118" s="72"/>
       <c r="C118" s="11" t="s">
         <v>52</v>
       </c>
@@ -5382,13 +5382,13 @@
       <c r="E118" s="11">
         <v>4</v>
       </c>
-      <c r="F118" s="72"/>
+      <c r="F118" s="69"/>
       <c r="G118" s="13"/>
       <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="78"/>
-      <c r="B119" s="63"/>
+      <c r="A119" s="84"/>
+      <c r="B119" s="72"/>
       <c r="C119" s="11" t="s">
         <v>52</v>
       </c>
@@ -5398,13 +5398,13 @@
       <c r="E119" s="11">
         <v>4</v>
       </c>
-      <c r="F119" s="72"/>
+      <c r="F119" s="69"/>
       <c r="G119" s="13"/>
       <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="78"/>
-      <c r="B120" s="63"/>
+      <c r="A120" s="84"/>
+      <c r="B120" s="72"/>
       <c r="C120" s="11" t="s">
         <v>50</v>
       </c>
@@ -5414,13 +5414,13 @@
       <c r="E120" s="11">
         <v>2</v>
       </c>
-      <c r="F120" s="72"/>
+      <c r="F120" s="69"/>
       <c r="G120" s="13"/>
       <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="79"/>
-      <c r="B121" s="64"/>
+      <c r="A121" s="85"/>
+      <c r="B121" s="66"/>
       <c r="C121" s="15" t="s">
         <v>50</v>
       </c>
@@ -5430,15 +5430,15 @@
       <c r="E121" s="15">
         <v>1</v>
       </c>
-      <c r="F121" s="71"/>
+      <c r="F121" s="70"/>
       <c r="G121" s="17"/>
       <c r="H121" s="18"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="80" t="s">
+      <c r="B122" s="73" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -5450,7 +5450,7 @@
       <c r="E122" s="3">
         <v>7</v>
       </c>
-      <c r="F122" s="69" t="s">
+      <c r="F122" s="67" t="s">
         <v>56</v>
       </c>
       <c r="H122" s="19" t="s">
@@ -5458,8 +5458,8 @@
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="76"/>
-      <c r="B123" s="80"/>
+      <c r="A123" s="82"/>
+      <c r="B123" s="73"/>
       <c r="C123" s="3" t="s">
         <v>50</v>
       </c>
@@ -5469,11 +5469,11 @@
       <c r="E123" s="3">
         <v>1</v>
       </c>
-      <c r="F123" s="69"/>
+      <c r="F123" s="67"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="76"/>
-      <c r="B124" s="80"/>
+      <c r="A124" s="82"/>
+      <c r="B124" s="73"/>
       <c r="C124" s="3" t="s">
         <v>50</v>
       </c>
@@ -5483,11 +5483,11 @@
       <c r="E124" s="3">
         <v>1</v>
       </c>
-      <c r="F124" s="69"/>
+      <c r="F124" s="67"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="75"/>
-      <c r="B125" s="80"/>
+      <c r="A125" s="96"/>
+      <c r="B125" s="73"/>
       <c r="C125" s="3" t="s">
         <v>50</v>
       </c>
@@ -5497,13 +5497,13 @@
       <c r="E125" s="3">
         <v>1</v>
       </c>
-      <c r="F125" s="69"/>
+      <c r="F125" s="67"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="77" t="s">
+      <c r="A126" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B126" s="62" t="s">
+      <c r="B126" s="71" t="s">
         <v>22</v>
       </c>
       <c r="C126" s="7" t="s">
@@ -5515,7 +5515,7 @@
       <c r="E126" s="7">
         <v>1</v>
       </c>
-      <c r="F126" s="70" t="s">
+      <c r="F126" s="68" t="s">
         <v>354</v>
       </c>
       <c r="G126" s="20"/>
@@ -5524,8 +5524,8 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="79"/>
-      <c r="B127" s="64"/>
+      <c r="A127" s="85"/>
+      <c r="B127" s="66"/>
       <c r="C127" s="15" t="s">
         <v>50</v>
       </c>
@@ -5535,15 +5535,15 @@
       <c r="E127" s="15">
         <v>1</v>
       </c>
-      <c r="F127" s="71"/>
+      <c r="F127" s="70"/>
       <c r="G127" s="17"/>
       <c r="H127" s="18"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="74" t="s">
+      <c r="A128" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="80" t="s">
+      <c r="B128" s="73" t="s">
         <v>20</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -5555,7 +5555,7 @@
       <c r="E128" s="3">
         <v>2</v>
       </c>
-      <c r="F128" s="69" t="s">
+      <c r="F128" s="67" t="s">
         <v>57</v>
       </c>
       <c r="H128" s="19" t="s">
@@ -5563,8 +5563,8 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="76"/>
-      <c r="B129" s="80"/>
+      <c r="A129" s="82"/>
+      <c r="B129" s="73"/>
       <c r="C129" s="3" t="s">
         <v>52</v>
       </c>
@@ -5574,12 +5574,12 @@
       <c r="E129" s="3">
         <v>4</v>
       </c>
-      <c r="F129" s="69"/>
+      <c r="F129" s="67"/>
       <c r="H129" s="19"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="76"/>
-      <c r="B130" s="80"/>
+      <c r="A130" s="82"/>
+      <c r="B130" s="73"/>
       <c r="C130" s="3" t="s">
         <v>52</v>
       </c>
@@ -5589,12 +5589,12 @@
       <c r="E130" s="3">
         <v>6</v>
       </c>
-      <c r="F130" s="69"/>
+      <c r="F130" s="67"/>
       <c r="H130" s="19"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="76"/>
-      <c r="B131" s="80"/>
+      <c r="A131" s="82"/>
+      <c r="B131" s="73"/>
       <c r="C131" s="3" t="s">
         <v>52</v>
       </c>
@@ -5604,11 +5604,11 @@
       <c r="E131" s="3">
         <v>3</v>
       </c>
-      <c r="F131" s="69"/>
+      <c r="F131" s="67"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="76"/>
-      <c r="B132" s="80"/>
+      <c r="A132" s="82"/>
+      <c r="B132" s="73"/>
       <c r="C132" s="3" t="s">
         <v>52</v>
       </c>
@@ -5618,11 +5618,11 @@
       <c r="E132" s="3">
         <v>3</v>
       </c>
-      <c r="F132" s="69"/>
+      <c r="F132" s="67"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="75"/>
-      <c r="B133" s="80"/>
+      <c r="A133" s="96"/>
+      <c r="B133" s="73"/>
       <c r="C133" s="3" t="s">
         <v>256</v>
       </c>
@@ -5632,13 +5632,13 @@
       <c r="E133" s="3">
         <v>1</v>
       </c>
-      <c r="F133" s="69"/>
+      <c r="F133" s="67"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="77" t="s">
+      <c r="A134" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="62" t="s">
+      <c r="B134" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -5650,7 +5650,7 @@
       <c r="E134" s="7">
         <v>2</v>
       </c>
-      <c r="F134" s="70" t="s">
+      <c r="F134" s="68" t="s">
         <v>58</v>
       </c>
       <c r="G134" s="20"/>
@@ -5659,8 +5659,8 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="78"/>
-      <c r="B135" s="63"/>
+      <c r="A135" s="84"/>
+      <c r="B135" s="72"/>
       <c r="C135" s="11" t="s">
         <v>52</v>
       </c>
@@ -5670,13 +5670,13 @@
       <c r="E135" s="11">
         <v>2</v>
       </c>
-      <c r="F135" s="72"/>
+      <c r="F135" s="69"/>
       <c r="G135" s="13"/>
       <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="79"/>
-      <c r="B136" s="64"/>
+      <c r="A136" s="85"/>
+      <c r="B136" s="66"/>
       <c r="C136" s="15" t="s">
         <v>50</v>
       </c>
@@ -5686,15 +5686,15 @@
       <c r="E136" s="15">
         <v>1</v>
       </c>
-      <c r="F136" s="71"/>
+      <c r="F136" s="70"/>
       <c r="G136" s="17"/>
       <c r="H136" s="18"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="77" t="s">
+      <c r="A137" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="62" t="s">
+      <c r="B137" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C137" s="7" t="s">
@@ -5706,7 +5706,7 @@
       <c r="E137" s="7">
         <v>7</v>
       </c>
-      <c r="F137" s="70" t="s">
+      <c r="F137" s="68" t="s">
         <v>264</v>
       </c>
       <c r="G137" s="20"/>
@@ -5715,8 +5715,8 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="78"/>
-      <c r="B138" s="63"/>
+      <c r="A138" s="84"/>
+      <c r="B138" s="72"/>
       <c r="C138" s="7" t="s">
         <v>52</v>
       </c>
@@ -5726,13 +5726,13 @@
       <c r="E138" s="11">
         <v>6</v>
       </c>
-      <c r="F138" s="72"/>
+      <c r="F138" s="69"/>
       <c r="G138" s="13"/>
       <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="78"/>
-      <c r="B139" s="63"/>
+      <c r="A139" s="84"/>
+      <c r="B139" s="72"/>
       <c r="C139" s="11" t="s">
         <v>52</v>
       </c>
@@ -5742,13 +5742,13 @@
       <c r="E139" s="11">
         <v>1</v>
       </c>
-      <c r="F139" s="72"/>
+      <c r="F139" s="69"/>
       <c r="G139" s="13"/>
       <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="78"/>
-      <c r="B140" s="63"/>
+      <c r="A140" s="84"/>
+      <c r="B140" s="72"/>
       <c r="C140" s="11" t="s">
         <v>52</v>
       </c>
@@ -5758,13 +5758,13 @@
       <c r="E140" s="11">
         <v>5</v>
       </c>
-      <c r="F140" s="72"/>
+      <c r="F140" s="69"/>
       <c r="G140" s="13"/>
       <c r="H140" s="14"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="78"/>
-      <c r="B141" s="63"/>
+      <c r="A141" s="84"/>
+      <c r="B141" s="72"/>
       <c r="C141" s="11" t="s">
         <v>50</v>
       </c>
@@ -5774,13 +5774,13 @@
       <c r="E141" s="11">
         <v>2</v>
       </c>
-      <c r="F141" s="72"/>
+      <c r="F141" s="69"/>
       <c r="G141" s="13"/>
       <c r="H141" s="14"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="79"/>
-      <c r="B142" s="64"/>
+      <c r="A142" s="85"/>
+      <c r="B142" s="66"/>
       <c r="C142" s="15" t="s">
         <v>50</v>
       </c>
@@ -5790,15 +5790,15 @@
       <c r="E142" s="15">
         <v>1</v>
       </c>
-      <c r="F142" s="71"/>
+      <c r="F142" s="70"/>
       <c r="G142" s="17"/>
       <c r="H142" s="18"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="77" t="s">
+      <c r="A143" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B143" s="62" t="s">
+      <c r="B143" s="71" t="s">
         <v>19</v>
       </c>
       <c r="C143" s="7" t="s">
@@ -5810,7 +5810,7 @@
       <c r="E143" s="7">
         <v>2</v>
       </c>
-      <c r="F143" s="70" t="s">
+      <c r="F143" s="68" t="s">
         <v>59</v>
       </c>
       <c r="G143" s="20"/>
@@ -5819,8 +5819,8 @@
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="79"/>
-      <c r="B144" s="64"/>
+      <c r="A144" s="85"/>
+      <c r="B144" s="66"/>
       <c r="C144" s="15" t="s">
         <v>50</v>
       </c>
@@ -5830,15 +5830,15 @@
       <c r="E144" s="15">
         <v>1</v>
       </c>
-      <c r="F144" s="71"/>
+      <c r="F144" s="70"/>
       <c r="G144" s="17"/>
       <c r="H144" s="18"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="77" t="s">
+      <c r="A145" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B145" s="62" t="s">
+      <c r="B145" s="71" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="7" t="s">
@@ -5850,7 +5850,7 @@
       <c r="E145" s="7">
         <v>2</v>
       </c>
-      <c r="F145" s="70" t="s">
+      <c r="F145" s="68" t="s">
         <v>60</v>
       </c>
       <c r="G145" s="20"/>
@@ -5859,8 +5859,8 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="78"/>
-      <c r="B146" s="63"/>
+      <c r="A146" s="84"/>
+      <c r="B146" s="72"/>
       <c r="C146" s="11" t="s">
         <v>52</v>
       </c>
@@ -5870,13 +5870,13 @@
       <c r="E146" s="11">
         <v>1</v>
       </c>
-      <c r="F146" s="72"/>
+      <c r="F146" s="69"/>
       <c r="G146" s="13"/>
       <c r="H146" s="14"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="78"/>
-      <c r="B147" s="63"/>
+      <c r="A147" s="84"/>
+      <c r="B147" s="72"/>
       <c r="C147" s="11" t="s">
         <v>52</v>
       </c>
@@ -5886,13 +5886,13 @@
       <c r="E147" s="11">
         <v>3</v>
       </c>
-      <c r="F147" s="72"/>
+      <c r="F147" s="69"/>
       <c r="G147" s="13"/>
       <c r="H147" s="14"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="79"/>
-      <c r="B148" s="64"/>
+      <c r="A148" s="85"/>
+      <c r="B148" s="66"/>
       <c r="C148" s="15" t="s">
         <v>50</v>
       </c>
@@ -5902,15 +5902,15 @@
       <c r="E148" s="15">
         <v>1</v>
       </c>
-      <c r="F148" s="71"/>
+      <c r="F148" s="70"/>
       <c r="G148" s="17"/>
       <c r="H148" s="18"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="77" t="s">
+      <c r="A149" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B149" s="62" t="s">
+      <c r="B149" s="71" t="s">
         <v>277</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -5922,8 +5922,8 @@
       <c r="E149" s="7">
         <v>7</v>
       </c>
-      <c r="F149" s="73" t="s">
-        <v>445</v>
+      <c r="F149" s="94" t="s">
+        <v>443</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="10" t="s">
@@ -5931,8 +5931,8 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="78"/>
-      <c r="B150" s="63"/>
+      <c r="A150" s="84"/>
+      <c r="B150" s="72"/>
       <c r="C150" s="11" t="s">
         <v>52</v>
       </c>
@@ -5942,13 +5942,13 @@
       <c r="E150" s="11">
         <v>2</v>
       </c>
-      <c r="F150" s="72"/>
+      <c r="F150" s="69"/>
       <c r="G150" s="13"/>
       <c r="H150" s="14"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="78"/>
-      <c r="B151" s="63"/>
+      <c r="A151" s="84"/>
+      <c r="B151" s="72"/>
       <c r="C151" s="11" t="s">
         <v>50</v>
       </c>
@@ -5958,13 +5958,13 @@
       <c r="E151" s="11">
         <v>1</v>
       </c>
-      <c r="F151" s="72"/>
+      <c r="F151" s="69"/>
       <c r="G151" s="13"/>
       <c r="H151" s="14"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="79"/>
-      <c r="B152" s="64"/>
+      <c r="A152" s="85"/>
+      <c r="B152" s="66"/>
       <c r="C152" s="15" t="s">
         <v>50</v>
       </c>
@@ -5974,15 +5974,15 @@
       <c r="E152" s="15">
         <v>1</v>
       </c>
-      <c r="F152" s="71"/>
+      <c r="F152" s="70"/>
       <c r="G152" s="17"/>
       <c r="H152" s="18"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="77" t="s">
+      <c r="A153" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B153" s="62" t="s">
+      <c r="B153" s="71" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -5994,7 +5994,7 @@
       <c r="E153" s="7">
         <v>5</v>
       </c>
-      <c r="F153" s="70" t="s">
+      <c r="F153" s="68" t="s">
         <v>355</v>
       </c>
       <c r="G153" s="20"/>
@@ -6003,8 +6003,8 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="78"/>
-      <c r="B154" s="63"/>
+      <c r="A154" s="84"/>
+      <c r="B154" s="72"/>
       <c r="C154" s="11" t="s">
         <v>248</v>
       </c>
@@ -6014,13 +6014,13 @@
       <c r="E154" s="11">
         <v>7</v>
       </c>
-      <c r="F154" s="72"/>
+      <c r="F154" s="69"/>
       <c r="G154" s="13"/>
       <c r="H154" s="21"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="78"/>
-      <c r="B155" s="63"/>
+      <c r="A155" s="84"/>
+      <c r="B155" s="72"/>
       <c r="C155" s="11" t="s">
         <v>50</v>
       </c>
@@ -6030,13 +6030,13 @@
       <c r="E155" s="11">
         <v>1</v>
       </c>
-      <c r="F155" s="72"/>
+      <c r="F155" s="69"/>
       <c r="G155" s="13"/>
       <c r="H155" s="14"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="79"/>
-      <c r="B156" s="64"/>
+      <c r="A156" s="85"/>
+      <c r="B156" s="66"/>
       <c r="C156" s="15" t="s">
         <v>50</v>
       </c>
@@ -6046,15 +6046,15 @@
       <c r="E156" s="15">
         <v>1</v>
       </c>
-      <c r="F156" s="71"/>
+      <c r="F156" s="70"/>
       <c r="G156" s="17"/>
       <c r="H156" s="18"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="74" t="s">
+      <c r="A157" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="80" t="s">
+      <c r="B157" s="73" t="s">
         <v>21</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -6066,7 +6066,7 @@
       <c r="E157" s="3">
         <v>1</v>
       </c>
-      <c r="F157" s="69" t="s">
+      <c r="F157" s="67" t="s">
         <v>61</v>
       </c>
       <c r="H157" s="19" t="s">
@@ -6074,8 +6074,8 @@
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="75"/>
-      <c r="B158" s="80"/>
+      <c r="A158" s="96"/>
+      <c r="B158" s="73"/>
       <c r="C158" s="3" t="s">
         <v>50</v>
       </c>
@@ -6085,13 +6085,13 @@
       <c r="E158" s="3">
         <v>1</v>
       </c>
-      <c r="F158" s="69"/>
+      <c r="F158" s="67"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="77" t="s">
+      <c r="A159" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B159" s="62" t="s">
+      <c r="B159" s="71" t="s">
         <v>16</v>
       </c>
       <c r="C159" s="7" t="s">
@@ -6103,7 +6103,7 @@
       <c r="E159" s="7">
         <v>1</v>
       </c>
-      <c r="F159" s="70" t="s">
+      <c r="F159" s="68" t="s">
         <v>62</v>
       </c>
       <c r="G159" s="20"/>
@@ -6112,8 +6112,8 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="78"/>
-      <c r="B160" s="63"/>
+      <c r="A160" s="84"/>
+      <c r="B160" s="72"/>
       <c r="C160" s="11" t="s">
         <v>248</v>
       </c>
@@ -6123,13 +6123,13 @@
       <c r="E160" s="11">
         <v>1</v>
       </c>
-      <c r="F160" s="72"/>
+      <c r="F160" s="69"/>
       <c r="G160" s="13"/>
       <c r="H160" s="21"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="78"/>
-      <c r="B161" s="63"/>
+      <c r="A161" s="84"/>
+      <c r="B161" s="72"/>
       <c r="C161" s="11" t="s">
         <v>50</v>
       </c>
@@ -6139,13 +6139,13 @@
       <c r="E161" s="11">
         <v>1</v>
       </c>
-      <c r="F161" s="72"/>
+      <c r="F161" s="69"/>
       <c r="G161" s="13"/>
       <c r="H161" s="14"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="78"/>
-      <c r="B162" s="63"/>
+      <c r="A162" s="84"/>
+      <c r="B162" s="72"/>
       <c r="C162" s="11" t="s">
         <v>50</v>
       </c>
@@ -6155,13 +6155,13 @@
       <c r="E162" s="11">
         <v>1</v>
       </c>
-      <c r="F162" s="72"/>
+      <c r="F162" s="69"/>
       <c r="G162" s="13"/>
       <c r="H162" s="14"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="78"/>
-      <c r="B163" s="63"/>
+      <c r="A163" s="84"/>
+      <c r="B163" s="72"/>
       <c r="C163" s="11" t="s">
         <v>50</v>
       </c>
@@ -6171,13 +6171,13 @@
       <c r="E163" s="11">
         <v>1</v>
       </c>
-      <c r="F163" s="72"/>
+      <c r="F163" s="69"/>
       <c r="G163" s="13"/>
       <c r="H163" s="14"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="79"/>
-      <c r="B164" s="64"/>
+      <c r="A164" s="85"/>
+      <c r="B164" s="66"/>
       <c r="C164" s="15" t="s">
         <v>51</v>
       </c>
@@ -6187,15 +6187,15 @@
       <c r="E164" s="15">
         <v>3</v>
       </c>
-      <c r="F164" s="71"/>
+      <c r="F164" s="70"/>
       <c r="G164" s="17"/>
       <c r="H164" s="18"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="77" t="s">
+      <c r="A165" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B165" s="62" t="s">
+      <c r="B165" s="71" t="s">
         <v>11</v>
       </c>
       <c r="C165" s="7" t="s">
@@ -6207,7 +6207,7 @@
       <c r="E165" s="7">
         <v>2</v>
       </c>
-      <c r="F165" s="70" t="s">
+      <c r="F165" s="68" t="s">
         <v>63</v>
       </c>
       <c r="G165" s="20"/>
@@ -6216,8 +6216,8 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="78"/>
-      <c r="B166" s="63"/>
+      <c r="A166" s="84"/>
+      <c r="B166" s="72"/>
       <c r="C166" s="11" t="s">
         <v>52</v>
       </c>
@@ -6227,13 +6227,13 @@
       <c r="E166" s="11">
         <v>3</v>
       </c>
-      <c r="F166" s="72"/>
+      <c r="F166" s="69"/>
       <c r="G166" s="13"/>
       <c r="H166" s="14"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="78"/>
-      <c r="B167" s="63"/>
+      <c r="A167" s="84"/>
+      <c r="B167" s="72"/>
       <c r="C167" s="11" t="s">
         <v>256</v>
       </c>
@@ -6243,13 +6243,13 @@
       <c r="E167" s="11">
         <v>1</v>
       </c>
-      <c r="F167" s="72"/>
+      <c r="F167" s="69"/>
       <c r="G167" s="13"/>
       <c r="H167" s="14"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="78"/>
-      <c r="B168" s="63"/>
+      <c r="A168" s="84"/>
+      <c r="B168" s="72"/>
       <c r="C168" s="11" t="s">
         <v>256</v>
       </c>
@@ -6259,13 +6259,13 @@
       <c r="E168" s="11">
         <v>1</v>
       </c>
-      <c r="F168" s="72"/>
+      <c r="F168" s="69"/>
       <c r="G168" s="13"/>
       <c r="H168" s="14"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="79"/>
-      <c r="B169" s="64"/>
+      <c r="A169" s="85"/>
+      <c r="B169" s="66"/>
       <c r="C169" s="15" t="s">
         <v>50</v>
       </c>
@@ -6275,15 +6275,15 @@
       <c r="E169" s="15">
         <v>1</v>
       </c>
-      <c r="F169" s="71"/>
+      <c r="F169" s="70"/>
       <c r="G169" s="17"/>
       <c r="H169" s="18"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="77" t="s">
+      <c r="A170" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B170" s="62" t="s">
+      <c r="B170" s="71" t="s">
         <v>18</v>
       </c>
       <c r="C170" s="7" t="s">
@@ -6295,7 +6295,7 @@
       <c r="E170" s="7">
         <v>2</v>
       </c>
-      <c r="F170" s="70" t="s">
+      <c r="F170" s="68" t="s">
         <v>64</v>
       </c>
       <c r="G170" s="20"/>
@@ -6304,8 +6304,8 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="78"/>
-      <c r="B171" s="63"/>
+      <c r="A171" s="84"/>
+      <c r="B171" s="72"/>
       <c r="C171" s="11" t="s">
         <v>248</v>
       </c>
@@ -6315,13 +6315,13 @@
       <c r="E171" s="11">
         <v>2</v>
       </c>
-      <c r="F171" s="72"/>
+      <c r="F171" s="69"/>
       <c r="G171" s="13"/>
       <c r="H171" s="21"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="78"/>
-      <c r="B172" s="63"/>
+      <c r="A172" s="84"/>
+      <c r="B172" s="72"/>
       <c r="C172" s="11" t="s">
         <v>50</v>
       </c>
@@ -6331,13 +6331,13 @@
       <c r="E172" s="11">
         <v>1</v>
       </c>
-      <c r="F172" s="72"/>
+      <c r="F172" s="69"/>
       <c r="G172" s="13"/>
       <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="79"/>
-      <c r="B173" s="64"/>
+      <c r="A173" s="85"/>
+      <c r="B173" s="66"/>
       <c r="C173" s="15" t="s">
         <v>50</v>
       </c>
@@ -6347,15 +6347,15 @@
       <c r="E173" s="15">
         <v>1</v>
       </c>
-      <c r="F173" s="71"/>
+      <c r="F173" s="70"/>
       <c r="G173" s="17"/>
       <c r="H173" s="18"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="77" t="s">
+      <c r="A174" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B174" s="62" t="s">
+      <c r="B174" s="71" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="7" t="s">
@@ -6367,7 +6367,7 @@
       <c r="E174" s="7">
         <v>6</v>
       </c>
-      <c r="F174" s="70" t="s">
+      <c r="F174" s="68" t="s">
         <v>263</v>
       </c>
       <c r="G174" s="20"/>
@@ -6376,8 +6376,8 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="78"/>
-      <c r="B175" s="63"/>
+      <c r="A175" s="84"/>
+      <c r="B175" s="72"/>
       <c r="C175" s="11" t="s">
         <v>52</v>
       </c>
@@ -6387,13 +6387,13 @@
       <c r="E175" s="11">
         <v>1</v>
       </c>
-      <c r="F175" s="72"/>
+      <c r="F175" s="69"/>
       <c r="G175" s="13"/>
       <c r="H175" s="14"/>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="79"/>
-      <c r="B176" s="64"/>
+      <c r="A176" s="85"/>
+      <c r="B176" s="66"/>
       <c r="C176" s="15" t="s">
         <v>50</v>
       </c>
@@ -6403,15 +6403,15 @@
       <c r="E176" s="15">
         <v>1</v>
       </c>
-      <c r="F176" s="71"/>
+      <c r="F176" s="70"/>
       <c r="G176" s="17"/>
       <c r="H176" s="18"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="76" t="s">
+      <c r="A177" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B177" s="80" t="s">
+      <c r="B177" s="73" t="s">
         <v>15</v>
       </c>
       <c r="C177" s="3" t="s">
@@ -6423,7 +6423,7 @@
       <c r="E177" s="3">
         <v>1</v>
       </c>
-      <c r="F177" s="69" t="s">
+      <c r="F177" s="67" t="s">
         <v>65</v>
       </c>
       <c r="H177" s="19" t="s">
@@ -6431,8 +6431,8 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="76"/>
-      <c r="B178" s="80"/>
+      <c r="A178" s="82"/>
+      <c r="B178" s="73"/>
       <c r="C178" s="3" t="s">
         <v>50</v>
       </c>
@@ -6442,13 +6442,13 @@
       <c r="E178" s="3">
         <v>1</v>
       </c>
-      <c r="F178" s="69"/>
+      <c r="F178" s="67"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="77" t="s">
+      <c r="A179" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B179" s="62" t="s">
+      <c r="B179" s="71" t="s">
         <v>121</v>
       </c>
       <c r="C179" s="7" t="s">
@@ -6467,8 +6467,8 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="78"/>
-      <c r="B180" s="63"/>
+      <c r="A180" s="84"/>
+      <c r="B180" s="72"/>
       <c r="C180" s="11" t="s">
         <v>133</v>
       </c>
@@ -6483,8 +6483,8 @@
       <c r="H180" s="14"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="78"/>
-      <c r="B181" s="63"/>
+      <c r="A181" s="84"/>
+      <c r="B181" s="72"/>
       <c r="C181" s="11" t="s">
         <v>133</v>
       </c>
@@ -6499,8 +6499,8 @@
       <c r="H181" s="14"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="78"/>
-      <c r="B182" s="63"/>
+      <c r="A182" s="84"/>
+      <c r="B182" s="72"/>
       <c r="C182" s="11" t="s">
         <v>133</v>
       </c>
@@ -6515,8 +6515,8 @@
       <c r="H182" s="14"/>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="78"/>
-      <c r="B183" s="63"/>
+      <c r="A183" s="84"/>
+      <c r="B183" s="72"/>
       <c r="C183" s="11" t="s">
         <v>248</v>
       </c>
@@ -6531,8 +6531,8 @@
       <c r="H183" s="14"/>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="78"/>
-      <c r="B184" s="63"/>
+      <c r="A184" s="84"/>
+      <c r="B184" s="72"/>
       <c r="C184" s="11" t="s">
         <v>256</v>
       </c>
@@ -6547,10 +6547,10 @@
       <c r="H184" s="14"/>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="77" t="s">
+      <c r="A185" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B185" s="62" t="s">
+      <c r="B185" s="71" t="s">
         <v>122</v>
       </c>
       <c r="C185" s="7" t="s">
@@ -6569,8 +6569,8 @@
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="78"/>
-      <c r="B186" s="63"/>
+      <c r="A186" s="84"/>
+      <c r="B186" s="72"/>
       <c r="C186" s="11" t="s">
         <v>52</v>
       </c>
@@ -6585,8 +6585,8 @@
       <c r="H186" s="21"/>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="78"/>
-      <c r="B187" s="63"/>
+      <c r="A187" s="84"/>
+      <c r="B187" s="72"/>
       <c r="C187" s="11" t="s">
         <v>137</v>
       </c>
@@ -6601,10 +6601,10 @@
       <c r="H187" s="14"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="77" t="s">
+      <c r="A188" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B188" s="62" t="s">
+      <c r="B188" s="71" t="s">
         <v>123</v>
       </c>
       <c r="C188" s="7" t="s">
@@ -6623,8 +6623,8 @@
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="78"/>
-      <c r="B189" s="63"/>
+      <c r="A189" s="84"/>
+      <c r="B189" s="72"/>
       <c r="C189" s="11" t="s">
         <v>52</v>
       </c>
@@ -6639,8 +6639,8 @@
       <c r="H189" s="21"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="79"/>
-      <c r="B190" s="64"/>
+      <c r="A190" s="85"/>
+      <c r="B190" s="66"/>
       <c r="C190" s="15" t="s">
         <v>139</v>
       </c>
@@ -6655,10 +6655,10 @@
       <c r="H190" s="18"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="77" t="s">
+      <c r="A191" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B191" s="62" t="s">
+      <c r="B191" s="71" t="s">
         <v>124</v>
       </c>
       <c r="C191" s="7" t="s">
@@ -6677,8 +6677,8 @@
       </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="78"/>
-      <c r="B192" s="63"/>
+      <c r="A192" s="84"/>
+      <c r="B192" s="72"/>
       <c r="C192" s="11" t="s">
         <v>248</v>
       </c>
@@ -6693,8 +6693,8 @@
       <c r="H192" s="21"/>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="78"/>
-      <c r="B193" s="63"/>
+      <c r="A193" s="84"/>
+      <c r="B193" s="72"/>
       <c r="C193" s="11" t="s">
         <v>137</v>
       </c>
@@ -6709,8 +6709,8 @@
       <c r="H193" s="14"/>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="79"/>
-      <c r="B194" s="64"/>
+      <c r="A194" s="85"/>
+      <c r="B194" s="66"/>
       <c r="C194" s="15" t="s">
         <v>137</v>
       </c>
@@ -6725,10 +6725,10 @@
       <c r="H194" s="18"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="76" t="s">
+      <c r="A195" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B195" s="80" t="s">
+      <c r="B195" s="73" t="s">
         <v>125</v>
       </c>
       <c r="C195" s="3" t="s">
@@ -6745,8 +6745,8 @@
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="76"/>
-      <c r="B196" s="80"/>
+      <c r="A196" s="82"/>
+      <c r="B196" s="73"/>
       <c r="C196" s="3" t="s">
         <v>137</v>
       </c>
@@ -6758,8 +6758,8 @@
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="76"/>
-      <c r="B197" s="80"/>
+      <c r="A197" s="82"/>
+      <c r="B197" s="73"/>
       <c r="C197" s="3" t="s">
         <v>137</v>
       </c>
@@ -6793,10 +6793,10 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="77" t="s">
+      <c r="A199" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B199" s="62" t="s">
+      <c r="B199" s="71" t="s">
         <v>126</v>
       </c>
       <c r="C199" s="7" t="s">
@@ -6815,8 +6815,8 @@
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="79"/>
-      <c r="B200" s="64"/>
+      <c r="A200" s="85"/>
+      <c r="B200" s="66"/>
       <c r="C200" s="15" t="s">
         <v>52</v>
       </c>
@@ -6831,10 +6831,10 @@
       <c r="H200" s="18"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="77" t="s">
+      <c r="A201" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B201" s="62" t="s">
+      <c r="B201" s="71" t="s">
         <v>127</v>
       </c>
       <c r="C201" s="7" t="s">
@@ -6853,8 +6853,8 @@
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="79"/>
-      <c r="B202" s="64"/>
+      <c r="A202" s="85"/>
+      <c r="B202" s="66"/>
       <c r="C202" s="15" t="s">
         <v>136</v>
       </c>
@@ -6869,10 +6869,10 @@
       <c r="H202" s="18"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="77" t="s">
+      <c r="A203" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B203" s="62" t="s">
+      <c r="B203" s="71" t="s">
         <v>128</v>
       </c>
       <c r="C203" s="7" t="s">
@@ -6891,8 +6891,8 @@
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="78"/>
-      <c r="B204" s="63"/>
+      <c r="A204" s="84"/>
+      <c r="B204" s="72"/>
       <c r="C204" s="11" t="s">
         <v>136</v>
       </c>
@@ -6907,8 +6907,8 @@
       <c r="H204" s="14"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="78"/>
-      <c r="B205" s="63"/>
+      <c r="A205" s="84"/>
+      <c r="B205" s="72"/>
       <c r="C205" s="11" t="s">
         <v>256</v>
       </c>
@@ -6923,8 +6923,8 @@
       <c r="H205" s="14"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="79"/>
-      <c r="B206" s="64"/>
+      <c r="A206" s="85"/>
+      <c r="B206" s="66"/>
       <c r="C206" s="15" t="s">
         <v>136</v>
       </c>
@@ -6939,10 +6939,10 @@
       <c r="H206" s="18"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="77" t="s">
+      <c r="A207" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B207" s="62" t="s">
+      <c r="B207" s="71" t="s">
         <v>129</v>
       </c>
       <c r="C207" s="7" t="s">
@@ -6961,8 +6961,8 @@
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="78"/>
-      <c r="B208" s="63"/>
+      <c r="A208" s="84"/>
+      <c r="B208" s="72"/>
       <c r="C208" s="11" t="s">
         <v>147</v>
       </c>
@@ -6977,8 +6977,8 @@
       <c r="H208" s="14"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="78"/>
-      <c r="B209" s="63"/>
+      <c r="A209" s="84"/>
+      <c r="B209" s="72"/>
       <c r="C209" s="11" t="s">
         <v>52</v>
       </c>
@@ -6993,8 +6993,8 @@
       <c r="H209" s="14"/>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="78"/>
-      <c r="B210" s="63"/>
+      <c r="A210" s="84"/>
+      <c r="B210" s="72"/>
       <c r="C210" s="11" t="s">
         <v>52</v>
       </c>
@@ -7009,8 +7009,8 @@
       <c r="H210" s="14"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="78"/>
-      <c r="B211" s="63"/>
+      <c r="A211" s="84"/>
+      <c r="B211" s="72"/>
       <c r="C211" s="11" t="s">
         <v>52</v>
       </c>
@@ -7025,8 +7025,8 @@
       <c r="H211" s="14"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="79"/>
-      <c r="B212" s="64"/>
+      <c r="A212" s="85"/>
+      <c r="B212" s="66"/>
       <c r="C212" s="15" t="s">
         <v>256</v>
       </c>
@@ -7063,10 +7063,10 @@
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="77" t="s">
+      <c r="A214" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B214" s="62" t="s">
+      <c r="B214" s="71" t="s">
         <v>131</v>
       </c>
       <c r="C214" s="7" t="s">
@@ -7085,8 +7085,8 @@
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="78"/>
-      <c r="B215" s="63"/>
+      <c r="A215" s="84"/>
+      <c r="B215" s="72"/>
       <c r="C215" s="11" t="s">
         <v>149</v>
       </c>
@@ -7101,8 +7101,8 @@
       <c r="H215" s="14"/>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="79"/>
-      <c r="B216" s="64"/>
+      <c r="A216" s="85"/>
+      <c r="B216" s="66"/>
       <c r="C216" s="15" t="s">
         <v>112</v>
       </c>
@@ -7117,10 +7117,10 @@
       <c r="H216" s="18"/>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="77" t="s">
+      <c r="A217" s="83" t="s">
         <v>391</v>
       </c>
-      <c r="B217" s="62" t="s">
+      <c r="B217" s="71" t="s">
         <v>390</v>
       </c>
       <c r="C217" s="7" t="s">
@@ -7139,8 +7139,8 @@
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="79"/>
-      <c r="B218" s="64"/>
+      <c r="A218" s="85"/>
+      <c r="B218" s="66"/>
       <c r="C218" s="15" t="s">
         <v>52</v>
       </c>
@@ -7158,7 +7158,7 @@
       <c r="A219" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B219" s="80" t="s">
+      <c r="B219" s="73" t="s">
         <v>24</v>
       </c>
       <c r="C219" s="3" t="s">
@@ -7170,7 +7170,7 @@
       <c r="E219" s="3">
         <v>4</v>
       </c>
-      <c r="F219" s="69" t="s">
+      <c r="F219" s="67" t="s">
         <v>66</v>
       </c>
       <c r="H219" s="19" t="s">
@@ -7179,7 +7179,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="33"/>
-      <c r="B220" s="80"/>
+      <c r="B220" s="73"/>
       <c r="C220" s="3" t="s">
         <v>310</v>
       </c>
@@ -7189,14 +7189,14 @@
       <c r="E220" s="3">
         <v>1</v>
       </c>
-      <c r="F220" s="69"/>
+      <c r="F220" s="67"/>
       <c r="H220" s="19"/>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B221" s="80"/>
+      <c r="B221" s="73"/>
       <c r="C221" s="3" t="s">
         <v>50</v>
       </c>
@@ -7206,13 +7206,13 @@
       <c r="E221" s="3">
         <v>1</v>
       </c>
-      <c r="F221" s="69"/>
+      <c r="F221" s="67"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B222" s="62" t="s">
+      <c r="B222" s="71" t="s">
         <v>25</v>
       </c>
       <c r="C222" s="7" t="s">
@@ -7224,7 +7224,7 @@
       <c r="E222" s="7">
         <v>2</v>
       </c>
-      <c r="F222" s="70" t="s">
+      <c r="F222" s="68" t="s">
         <v>67</v>
       </c>
       <c r="G222" s="20"/>
@@ -7236,7 +7236,7 @@
       <c r="A223" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B223" s="64"/>
+      <c r="B223" s="66"/>
       <c r="C223" s="15" t="s">
         <v>50</v>
       </c>
@@ -7246,7 +7246,7 @@
       <c r="E223" s="15">
         <v>1</v>
       </c>
-      <c r="F223" s="71"/>
+      <c r="F223" s="70"/>
       <c r="G223" s="17"/>
       <c r="H223" s="18"/>
     </row>
@@ -7254,7 +7254,7 @@
       <c r="A224" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B224" s="80" t="s">
+      <c r="B224" s="73" t="s">
         <v>26</v>
       </c>
       <c r="C224" s="3" t="s">
@@ -7266,7 +7266,7 @@
       <c r="E224" s="3">
         <v>1</v>
       </c>
-      <c r="F224" s="69" t="s">
+      <c r="F224" s="67" t="s">
         <v>68</v>
       </c>
       <c r="H224" s="19" t="s">
@@ -7277,7 +7277,7 @@
       <c r="A225" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B225" s="80"/>
+      <c r="B225" s="73"/>
       <c r="C225" s="3" t="s">
         <v>50</v>
       </c>
@@ -7287,13 +7287,13 @@
       <c r="E225" s="3">
         <v>1</v>
       </c>
-      <c r="F225" s="69"/>
+      <c r="F225" s="67"/>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="65" t="s">
+      <c r="A226" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B226" s="62" t="s">
+      <c r="B226" s="71" t="s">
         <v>30</v>
       </c>
       <c r="C226" s="7" t="s">
@@ -7305,7 +7305,7 @@
       <c r="E226" s="7">
         <v>1</v>
       </c>
-      <c r="F226" s="70" t="s">
+      <c r="F226" s="68" t="s">
         <v>69</v>
       </c>
       <c r="G226" s="20"/>
@@ -7314,8 +7314,8 @@
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="66"/>
-      <c r="B227" s="63"/>
+      <c r="A227" s="97"/>
+      <c r="B227" s="72"/>
       <c r="C227" s="11" t="s">
         <v>50</v>
       </c>
@@ -7325,13 +7325,13 @@
       <c r="E227" s="11">
         <v>1</v>
       </c>
-      <c r="F227" s="72"/>
+      <c r="F227" s="69"/>
       <c r="G227" s="13"/>
       <c r="H227" s="14"/>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="67"/>
-      <c r="B228" s="64"/>
+      <c r="A228" s="64"/>
+      <c r="B228" s="66"/>
       <c r="C228" s="15" t="s">
         <v>51</v>
       </c>
@@ -7341,7 +7341,7 @@
       <c r="E228" s="15">
         <v>3</v>
       </c>
-      <c r="F228" s="71"/>
+      <c r="F228" s="70"/>
       <c r="G228" s="17"/>
       <c r="H228" s="18"/>
     </row>
@@ -7349,7 +7349,7 @@
       <c r="A229" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B229" s="80" t="s">
+      <c r="B229" s="73" t="s">
         <v>29</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -7361,7 +7361,7 @@
       <c r="E229" s="3">
         <v>1</v>
       </c>
-      <c r="F229" s="69" t="s">
+      <c r="F229" s="67" t="s">
         <v>70</v>
       </c>
       <c r="H229" s="19" t="s">
@@ -7372,7 +7372,7 @@
       <c r="A230" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B230" s="80"/>
+      <c r="B230" s="73"/>
       <c r="C230" s="3" t="s">
         <v>50</v>
       </c>
@@ -7382,13 +7382,13 @@
       <c r="E230" s="3">
         <v>1</v>
       </c>
-      <c r="F230" s="69"/>
+      <c r="F230" s="67"/>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="65" t="s">
+      <c r="A231" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B231" s="62" t="s">
+      <c r="B231" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C231" s="7" t="s">
@@ -7400,7 +7400,7 @@
       <c r="E231" s="7">
         <v>2</v>
       </c>
-      <c r="F231" s="70" t="s">
+      <c r="F231" s="68" t="s">
         <v>71</v>
       </c>
       <c r="G231" s="20"/>
@@ -7409,8 +7409,8 @@
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="66"/>
-      <c r="B232" s="63"/>
+      <c r="A232" s="97"/>
+      <c r="B232" s="72"/>
       <c r="C232" s="11" t="s">
         <v>52</v>
       </c>
@@ -7420,13 +7420,13 @@
       <c r="E232" s="11">
         <v>3</v>
       </c>
-      <c r="F232" s="72"/>
+      <c r="F232" s="69"/>
       <c r="G232" s="13"/>
       <c r="H232" s="14"/>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="66"/>
-      <c r="B233" s="63"/>
+      <c r="A233" s="97"/>
+      <c r="B233" s="72"/>
       <c r="C233" s="11" t="s">
         <v>50</v>
       </c>
@@ -7436,13 +7436,13 @@
       <c r="E233" s="11">
         <v>2</v>
       </c>
-      <c r="F233" s="72"/>
+      <c r="F233" s="69"/>
       <c r="G233" s="13"/>
       <c r="H233" s="14"/>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" s="67"/>
-      <c r="B234" s="64"/>
+      <c r="A234" s="64"/>
+      <c r="B234" s="66"/>
       <c r="C234" s="15" t="s">
         <v>50</v>
       </c>
@@ -7452,15 +7452,15 @@
       <c r="E234" s="15">
         <v>1</v>
       </c>
-      <c r="F234" s="71"/>
+      <c r="F234" s="70"/>
       <c r="G234" s="17"/>
       <c r="H234" s="18"/>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="65" t="s">
+      <c r="A235" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B235" s="62" t="s">
+      <c r="B235" s="71" t="s">
         <v>28</v>
       </c>
       <c r="C235" s="7" t="s">
@@ -7472,7 +7472,7 @@
       <c r="E235" s="7">
         <v>2</v>
       </c>
-      <c r="F235" s="70" t="s">
+      <c r="F235" s="68" t="s">
         <v>72</v>
       </c>
       <c r="G235" s="20"/>
@@ -7481,8 +7481,8 @@
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="67"/>
-      <c r="B236" s="64"/>
+      <c r="A236" s="64"/>
+      <c r="B236" s="66"/>
       <c r="C236" s="15" t="s">
         <v>50</v>
       </c>
@@ -7492,15 +7492,15 @@
       <c r="E236" s="15">
         <v>1</v>
       </c>
-      <c r="F236" s="71"/>
+      <c r="F236" s="70"/>
       <c r="G236" s="17"/>
       <c r="H236" s="18"/>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="65" t="s">
+      <c r="A237" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B237" s="62" t="s">
+      <c r="B237" s="71" t="s">
         <v>36</v>
       </c>
       <c r="C237" s="7" t="s">
@@ -7512,7 +7512,7 @@
       <c r="E237" s="7">
         <v>2</v>
       </c>
-      <c r="F237" s="70" t="s">
+      <c r="F237" s="68" t="s">
         <v>73</v>
       </c>
       <c r="G237" s="20"/>
@@ -7521,8 +7521,8 @@
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="66"/>
-      <c r="B238" s="63"/>
+      <c r="A238" s="97"/>
+      <c r="B238" s="72"/>
       <c r="C238" s="11" t="s">
         <v>52</v>
       </c>
@@ -7532,13 +7532,13 @@
       <c r="E238" s="11">
         <v>1</v>
       </c>
-      <c r="F238" s="72"/>
+      <c r="F238" s="69"/>
       <c r="G238" s="13"/>
       <c r="H238" s="21"/>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="66"/>
-      <c r="B239" s="63"/>
+      <c r="A239" s="97"/>
+      <c r="B239" s="72"/>
       <c r="C239" s="11" t="s">
         <v>52</v>
       </c>
@@ -7548,13 +7548,13 @@
       <c r="E239" s="11">
         <v>1</v>
       </c>
-      <c r="F239" s="72"/>
+      <c r="F239" s="69"/>
       <c r="G239" s="13"/>
       <c r="H239" s="21"/>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="66"/>
-      <c r="B240" s="63"/>
+      <c r="A240" s="97"/>
+      <c r="B240" s="72"/>
       <c r="C240" s="11" t="s">
         <v>52</v>
       </c>
@@ -7564,13 +7564,13 @@
       <c r="E240" s="11">
         <v>1</v>
       </c>
-      <c r="F240" s="72"/>
+      <c r="F240" s="69"/>
       <c r="G240" s="13"/>
       <c r="H240" s="21"/>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="66"/>
-      <c r="B241" s="63"/>
+      <c r="A241" s="97"/>
+      <c r="B241" s="72"/>
       <c r="C241" s="11" t="s">
         <v>52</v>
       </c>
@@ -7580,13 +7580,13 @@
       <c r="E241" s="11">
         <v>2</v>
       </c>
-      <c r="F241" s="72"/>
+      <c r="F241" s="69"/>
       <c r="G241" s="13"/>
       <c r="H241" s="14"/>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="66"/>
-      <c r="B242" s="63"/>
+      <c r="A242" s="97"/>
+      <c r="B242" s="72"/>
       <c r="C242" s="11" t="s">
         <v>50</v>
       </c>
@@ -7596,13 +7596,13 @@
       <c r="E242" s="11">
         <v>2</v>
       </c>
-      <c r="F242" s="72"/>
+      <c r="F242" s="69"/>
       <c r="G242" s="13"/>
       <c r="H242" s="14"/>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="66"/>
-      <c r="B243" s="63"/>
+      <c r="A243" s="97"/>
+      <c r="B243" s="72"/>
       <c r="C243" s="11" t="s">
         <v>50</v>
       </c>
@@ -7612,13 +7612,13 @@
       <c r="E243" s="11">
         <v>1</v>
       </c>
-      <c r="F243" s="72"/>
+      <c r="F243" s="69"/>
       <c r="G243" s="13"/>
       <c r="H243" s="14"/>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244" s="67"/>
-      <c r="B244" s="64"/>
+      <c r="A244" s="64"/>
+      <c r="B244" s="66"/>
       <c r="C244" s="15" t="s">
         <v>51</v>
       </c>
@@ -7628,15 +7628,15 @@
       <c r="E244" s="15">
         <v>3</v>
       </c>
-      <c r="F244" s="71"/>
+      <c r="F244" s="70"/>
       <c r="G244" s="17"/>
       <c r="H244" s="18"/>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="65" t="s">
+      <c r="A245" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B245" s="94" t="s">
+      <c r="B245" s="77" t="s">
         <v>34</v>
       </c>
       <c r="C245" s="7" t="s">
@@ -7648,7 +7648,7 @@
       <c r="E245" s="37">
         <v>1</v>
       </c>
-      <c r="F245" s="91" t="s">
+      <c r="F245" s="74" t="s">
         <v>74</v>
       </c>
       <c r="G245" s="38"/>
@@ -7657,8 +7657,8 @@
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="66"/>
-      <c r="B246" s="95"/>
+      <c r="A246" s="97"/>
+      <c r="B246" s="78"/>
       <c r="C246" s="11" t="s">
         <v>52</v>
       </c>
@@ -7668,13 +7668,13 @@
       <c r="E246" s="40">
         <v>2</v>
       </c>
-      <c r="F246" s="92"/>
+      <c r="F246" s="75"/>
       <c r="G246" s="41"/>
       <c r="H246" s="14"/>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="66"/>
-      <c r="B247" s="95"/>
+      <c r="A247" s="97"/>
+      <c r="B247" s="78"/>
       <c r="C247" s="11" t="s">
         <v>50</v>
       </c>
@@ -7684,13 +7684,13 @@
       <c r="E247" s="40">
         <v>1</v>
       </c>
-      <c r="F247" s="92"/>
+      <c r="F247" s="75"/>
       <c r="G247" s="41"/>
       <c r="H247" s="14"/>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="67"/>
-      <c r="B248" s="96"/>
+      <c r="A248" s="64"/>
+      <c r="B248" s="79"/>
       <c r="C248" s="15" t="s">
         <v>51</v>
       </c>
@@ -7700,15 +7700,15 @@
       <c r="E248" s="43">
         <v>3</v>
       </c>
-      <c r="F248" s="93"/>
+      <c r="F248" s="76"/>
       <c r="G248" s="44"/>
       <c r="H248" s="18"/>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="65" t="s">
+      <c r="A249" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B249" s="62" t="s">
+      <c r="B249" s="71" t="s">
         <v>33</v>
       </c>
       <c r="C249" s="7" t="s">
@@ -7720,7 +7720,7 @@
       <c r="E249" s="7">
         <v>4</v>
       </c>
-      <c r="F249" s="70" t="s">
+      <c r="F249" s="68" t="s">
         <v>75</v>
       </c>
       <c r="G249" s="20"/>
@@ -7729,8 +7729,8 @@
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="66"/>
-      <c r="B250" s="63"/>
+      <c r="A250" s="97"/>
+      <c r="B250" s="72"/>
       <c r="C250" s="11" t="s">
         <v>52</v>
       </c>
@@ -7740,13 +7740,13 @@
       <c r="E250" s="11">
         <v>2</v>
       </c>
-      <c r="F250" s="72"/>
+      <c r="F250" s="69"/>
       <c r="G250" s="13"/>
       <c r="H250" s="14"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="67"/>
-      <c r="B251" s="64"/>
+      <c r="A251" s="64"/>
+      <c r="B251" s="66"/>
       <c r="C251" s="15" t="s">
         <v>50</v>
       </c>
@@ -7756,15 +7756,15 @@
       <c r="E251" s="15">
         <v>1</v>
       </c>
-      <c r="F251" s="71"/>
+      <c r="F251" s="70"/>
       <c r="G251" s="17"/>
       <c r="H251" s="18"/>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="68" t="s">
+      <c r="A252" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B252" s="80" t="s">
+      <c r="B252" s="73" t="s">
         <v>27</v>
       </c>
       <c r="C252" s="3" t="s">
@@ -7776,7 +7776,7 @@
       <c r="E252" s="3">
         <v>2</v>
       </c>
-      <c r="F252" s="69" t="s">
+      <c r="F252" s="67" t="s">
         <v>76</v>
       </c>
       <c r="H252" s="19" t="s">
@@ -7784,8 +7784,8 @@
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="68"/>
-      <c r="B253" s="80"/>
+      <c r="A253" s="98"/>
+      <c r="B253" s="73"/>
       <c r="C253" s="3" t="s">
         <v>50</v>
       </c>
@@ -7795,11 +7795,11 @@
       <c r="E253" s="3">
         <v>1</v>
       </c>
-      <c r="F253" s="69"/>
+      <c r="F253" s="67"/>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="68"/>
-      <c r="B254" s="80"/>
+      <c r="A254" s="98"/>
+      <c r="B254" s="73"/>
       <c r="C254" s="3" t="s">
         <v>51</v>
       </c>
@@ -7809,13 +7809,13 @@
       <c r="E254" s="3">
         <v>3</v>
       </c>
-      <c r="F254" s="69"/>
+      <c r="F254" s="67"/>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="65" t="s">
+      <c r="A255" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B255" s="62" t="s">
+      <c r="B255" s="71" t="s">
         <v>31</v>
       </c>
       <c r="C255" s="7" t="s">
@@ -7827,7 +7827,7 @@
       <c r="E255" s="7">
         <v>6</v>
       </c>
-      <c r="F255" s="70" t="s">
+      <c r="F255" s="68" t="s">
         <v>77</v>
       </c>
       <c r="G255" s="20"/>
@@ -7836,8 +7836,8 @@
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="66"/>
-      <c r="B256" s="63"/>
+      <c r="A256" s="97"/>
+      <c r="B256" s="72"/>
       <c r="C256" s="11" t="s">
         <v>50</v>
       </c>
@@ -7847,13 +7847,13 @@
       <c r="E256" s="11">
         <v>2</v>
       </c>
-      <c r="F256" s="72"/>
+      <c r="F256" s="69"/>
       <c r="G256" s="13"/>
       <c r="H256" s="14"/>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="67"/>
-      <c r="B257" s="64"/>
+      <c r="A257" s="64"/>
+      <c r="B257" s="66"/>
       <c r="C257" s="15" t="s">
         <v>50</v>
       </c>
@@ -7863,7 +7863,7 @@
       <c r="E257" s="15">
         <v>1</v>
       </c>
-      <c r="F257" s="71"/>
+      <c r="F257" s="70"/>
       <c r="G257" s="17"/>
       <c r="H257" s="18"/>
     </row>
@@ -7892,10 +7892,10 @@
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="65" t="s">
+      <c r="A259" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B259" s="62" t="s">
+      <c r="B259" s="71" t="s">
         <v>101</v>
       </c>
       <c r="C259" s="7" t="s">
@@ -7914,8 +7914,8 @@
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" s="67"/>
-      <c r="B260" s="64"/>
+      <c r="A260" s="64"/>
+      <c r="B260" s="66"/>
       <c r="C260" s="15" t="s">
         <v>52</v>
       </c>
@@ -7952,10 +7952,10 @@
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="65" t="s">
+      <c r="A262" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B262" s="62" t="s">
+      <c r="B262" s="71" t="s">
         <v>103</v>
       </c>
       <c r="C262" s="7" t="s">
@@ -7974,8 +7974,8 @@
       </c>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" s="67"/>
-      <c r="B263" s="64"/>
+      <c r="A263" s="64"/>
+      <c r="B263" s="66"/>
       <c r="C263" s="15" t="s">
         <v>52</v>
       </c>
@@ -7990,10 +7990,10 @@
       <c r="H263" s="18"/>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="68" t="s">
+      <c r="A264" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B264" s="80" t="s">
+      <c r="B264" s="73" t="s">
         <v>104</v>
       </c>
       <c r="C264" s="3" t="s">
@@ -8010,8 +8010,8 @@
       </c>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="68"/>
-      <c r="B265" s="80"/>
+      <c r="A265" s="98"/>
+      <c r="B265" s="73"/>
       <c r="C265" s="3" t="s">
         <v>52</v>
       </c>
@@ -8023,8 +8023,8 @@
       </c>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" s="68"/>
-      <c r="B266" s="80"/>
+      <c r="A266" s="98"/>
+      <c r="B266" s="73"/>
       <c r="C266" s="3" t="s">
         <v>52</v>
       </c>
@@ -8058,10 +8058,10 @@
       </c>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268" s="65" t="s">
+      <c r="A268" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="B268" s="62" t="s">
+      <c r="B268" s="71" t="s">
         <v>325</v>
       </c>
       <c r="C268" s="7" t="s">
@@ -8080,8 +8080,8 @@
       </c>
     </row>
     <row r="269" spans="1:8">
-      <c r="A269" s="67"/>
-      <c r="B269" s="64"/>
+      <c r="A269" s="64"/>
+      <c r="B269" s="66"/>
       <c r="C269" s="15" t="s">
         <v>310</v>
       </c>
@@ -8096,10 +8096,10 @@
       <c r="H269" s="47"/>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270" s="65" t="s">
+      <c r="A270" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="B270" s="62" t="s">
+      <c r="B270" s="71" t="s">
         <v>323</v>
       </c>
       <c r="C270" s="7" t="s">
@@ -8118,8 +8118,8 @@
       </c>
     </row>
     <row r="271" spans="1:8">
-      <c r="A271" s="67"/>
-      <c r="B271" s="64"/>
+      <c r="A271" s="64"/>
+      <c r="B271" s="66"/>
       <c r="C271" s="15" t="s">
         <v>310</v>
       </c>
@@ -8222,10 +8222,10 @@
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="65" t="s">
+      <c r="A276" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B276" s="62" t="s">
+      <c r="B276" s="71" t="s">
         <v>106</v>
       </c>
       <c r="C276" s="7" t="s">
@@ -8244,8 +8244,8 @@
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="66"/>
-      <c r="B277" s="63"/>
+      <c r="A277" s="97"/>
+      <c r="B277" s="72"/>
       <c r="C277" s="11" t="s">
         <v>52</v>
       </c>
@@ -8260,8 +8260,8 @@
       <c r="H277" s="14"/>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="66"/>
-      <c r="B278" s="63"/>
+      <c r="A278" s="97"/>
+      <c r="B278" s="72"/>
       <c r="C278" s="11" t="s">
         <v>310</v>
       </c>
@@ -8276,8 +8276,8 @@
       <c r="H278" s="14"/>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="66"/>
-      <c r="B279" s="63"/>
+      <c r="A279" s="97"/>
+      <c r="B279" s="72"/>
       <c r="C279" s="11" t="s">
         <v>307</v>
       </c>
@@ -8292,8 +8292,8 @@
       <c r="H279" s="14"/>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280" s="67"/>
-      <c r="B280" s="64"/>
+      <c r="A280" s="64"/>
+      <c r="B280" s="66"/>
       <c r="C280" s="15" t="s">
         <v>52</v>
       </c>
@@ -8308,10 +8308,10 @@
       <c r="H280" s="18"/>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="65" t="s">
+      <c r="A281" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B281" s="62" t="s">
+      <c r="B281" s="71" t="s">
         <v>304</v>
       </c>
       <c r="C281" s="7" t="s">
@@ -8330,8 +8330,8 @@
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="66"/>
-      <c r="B282" s="63"/>
+      <c r="A282" s="97"/>
+      <c r="B282" s="72"/>
       <c r="C282" s="11" t="s">
         <v>52</v>
       </c>
@@ -8346,8 +8346,8 @@
       <c r="H282" s="21"/>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="67"/>
-      <c r="B283" s="64"/>
+      <c r="A283" s="64"/>
+      <c r="B283" s="66"/>
       <c r="C283" s="15" t="s">
         <v>307</v>
       </c>
@@ -8448,10 +8448,10 @@
       </c>
     </row>
     <row r="289" spans="1:8">
-      <c r="A289" s="81" t="s">
+      <c r="A289" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B289" s="62" t="s">
+      <c r="B289" s="71" t="s">
         <v>38</v>
       </c>
       <c r="C289" s="7" t="s">
@@ -8463,7 +8463,7 @@
       <c r="E289" s="7">
         <v>2</v>
       </c>
-      <c r="F289" s="70" t="s">
+      <c r="F289" s="68" t="s">
         <v>79</v>
       </c>
       <c r="G289" s="20"/>
@@ -8472,8 +8472,8 @@
       </c>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290" s="82"/>
-      <c r="B290" s="63"/>
+      <c r="A290" s="86"/>
+      <c r="B290" s="72"/>
       <c r="C290" s="11" t="s">
         <v>52</v>
       </c>
@@ -8483,13 +8483,13 @@
       <c r="E290" s="11">
         <v>1</v>
       </c>
-      <c r="F290" s="72"/>
+      <c r="F290" s="69"/>
       <c r="G290" s="13"/>
       <c r="H290" s="14"/>
     </row>
     <row r="291" spans="1:8">
-      <c r="A291" s="82"/>
-      <c r="B291" s="63"/>
+      <c r="A291" s="86"/>
+      <c r="B291" s="72"/>
       <c r="C291" s="11" t="s">
         <v>50</v>
       </c>
@@ -8499,13 +8499,13 @@
       <c r="E291" s="11">
         <v>1</v>
       </c>
-      <c r="F291" s="72"/>
+      <c r="F291" s="69"/>
       <c r="G291" s="13"/>
       <c r="H291" s="14"/>
     </row>
     <row r="292" spans="1:8">
-      <c r="A292" s="83"/>
-      <c r="B292" s="64"/>
+      <c r="A292" s="81"/>
+      <c r="B292" s="66"/>
       <c r="C292" s="15" t="s">
         <v>50</v>
       </c>
@@ -8515,7 +8515,7 @@
       <c r="E292" s="15">
         <v>2</v>
       </c>
-      <c r="F292" s="71"/>
+      <c r="F292" s="70"/>
       <c r="G292" s="17"/>
       <c r="H292" s="18"/>
     </row>
@@ -8564,10 +8564,10 @@
       </c>
     </row>
     <row r="295" spans="1:8">
-      <c r="A295" s="81" t="s">
+      <c r="A295" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B295" s="62" t="s">
+      <c r="B295" s="71" t="s">
         <v>91</v>
       </c>
       <c r="C295" s="7" t="s">
@@ -8586,8 +8586,8 @@
       </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="A296" s="82"/>
-      <c r="B296" s="63"/>
+      <c r="A296" s="86"/>
+      <c r="B296" s="72"/>
       <c r="C296" s="11" t="s">
         <v>50</v>
       </c>
@@ -8602,8 +8602,8 @@
       <c r="H296" s="14"/>
     </row>
     <row r="297" spans="1:8">
-      <c r="A297" s="82"/>
-      <c r="B297" s="63"/>
+      <c r="A297" s="86"/>
+      <c r="B297" s="72"/>
       <c r="C297" s="11" t="s">
         <v>52</v>
       </c>
@@ -8618,8 +8618,8 @@
       <c r="H297" s="14"/>
     </row>
     <row r="298" spans="1:8">
-      <c r="A298" s="83"/>
-      <c r="B298" s="64"/>
+      <c r="A298" s="81"/>
+      <c r="B298" s="66"/>
       <c r="C298" s="15" t="s">
         <v>52</v>
       </c>
@@ -8634,10 +8634,10 @@
       <c r="H298" s="18"/>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="81" t="s">
+      <c r="A299" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B299" s="62" t="s">
+      <c r="B299" s="71" t="s">
         <v>92</v>
       </c>
       <c r="C299" s="7" t="s">
@@ -8656,8 +8656,8 @@
       </c>
     </row>
     <row r="300" spans="1:8">
-      <c r="A300" s="83"/>
-      <c r="B300" s="64"/>
+      <c r="A300" s="81"/>
+      <c r="B300" s="66"/>
       <c r="C300" s="15" t="s">
         <v>52</v>
       </c>
@@ -8789,8 +8789,8 @@
       <c r="A307" s="61" t="s">
         <v>408</v>
       </c>
-      <c r="B307" s="97" t="s">
-        <v>446</v>
+      <c r="B307" s="62" t="s">
+        <v>444</v>
       </c>
       <c r="C307" s="11"/>
       <c r="D307" s="12"/>
@@ -8821,8 +8821,8 @@
       <c r="A309" s="60" t="s">
         <v>408</v>
       </c>
-      <c r="B309" s="11" t="s">
-        <v>421</v>
+      <c r="B309" s="62" t="s">
+        <v>448</v>
       </c>
       <c r="C309" s="11"/>
       <c r="D309" s="12"/>
@@ -8830,7 +8830,7 @@
       <c r="F309" s="23"/>
       <c r="G309" s="13"/>
       <c r="H309" s="53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8838,7 +8838,7 @@
         <v>408</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C310" s="11"/>
       <c r="D310" s="12"/>
@@ -8846,7 +8846,7 @@
       <c r="F310" s="23"/>
       <c r="G310" s="13"/>
       <c r="H310" s="53" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8854,7 +8854,7 @@
         <v>408</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C311" s="11"/>
       <c r="D311" s="12"/>
@@ -8862,15 +8862,15 @@
       <c r="F311" s="23"/>
       <c r="G311" s="13"/>
       <c r="H311" s="53" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="B312" s="97" t="s">
-        <v>449</v>
+      <c r="B312" s="62" t="s">
+        <v>447</v>
       </c>
       <c r="C312" s="11"/>
       <c r="D312" s="12"/>
@@ -8878,15 +8878,15 @@
       <c r="F312" s="23"/>
       <c r="G312" s="13"/>
       <c r="H312" s="53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="B313" s="11" t="s">
-        <v>428</v>
+      <c r="B313" s="62" t="s">
+        <v>449</v>
       </c>
       <c r="C313" s="11"/>
       <c r="D313" s="12"/>
@@ -8894,7 +8894,7 @@
       <c r="F313" s="23"/>
       <c r="G313" s="13"/>
       <c r="H313" s="53" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8902,7 +8902,7 @@
         <v>386</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C314" s="11"/>
       <c r="D314" s="12"/>
@@ -8910,7 +8910,7 @@
       <c r="F314" s="23"/>
       <c r="G314" s="13"/>
       <c r="H314" s="53" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8918,7 +8918,7 @@
         <v>386</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C315" s="11"/>
       <c r="D315" s="12"/>
@@ -8926,7 +8926,7 @@
       <c r="F315" s="23"/>
       <c r="G315" s="13"/>
       <c r="H315" s="53" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8934,7 +8934,7 @@
         <v>386</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C316" s="11"/>
       <c r="D316" s="12"/>
@@ -8942,21 +8942,21 @@
       <c r="F316" s="23"/>
       <c r="G316" s="13"/>
       <c r="H316" s="53" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="B317" s="65" t="s">
+        <v>445</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D317" s="8" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="A317" s="65" t="s">
-        <v>386</v>
-      </c>
-      <c r="B317" s="98" t="s">
-        <v>447</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D317" s="8" t="s">
-        <v>437</v>
       </c>
       <c r="E317" s="7">
         <v>6</v>
@@ -8964,17 +8964,17 @@
       <c r="F317" s="22"/>
       <c r="G317" s="20"/>
       <c r="H317" s="54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" s="64"/>
+      <c r="B318" s="66"/>
+      <c r="C318" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D318" s="16" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
-      <c r="A318" s="67"/>
-      <c r="B318" s="64"/>
-      <c r="C318" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D318" s="16" t="s">
-        <v>438</v>
       </c>
       <c r="E318" s="15">
         <v>8</v>
@@ -8988,7 +8988,7 @@
         <v>386</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C319" s="11"/>
       <c r="D319" s="12"/>
@@ -8996,15 +8996,15 @@
       <c r="F319" s="23"/>
       <c r="G319" s="13"/>
       <c r="H319" s="53" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="B320" s="97" t="s">
-        <v>448</v>
+      <c r="B320" s="62" t="s">
+        <v>446</v>
       </c>
       <c r="C320" s="11"/>
       <c r="D320" s="12"/>
@@ -9012,15 +9012,15 @@
       <c r="F320" s="23"/>
       <c r="G320" s="13"/>
       <c r="H320" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="51" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C321" s="11"/>
       <c r="D321" s="12"/>
@@ -9028,7 +9028,7 @@
       <c r="F321" s="23"/>
       <c r="G321" s="13"/>
       <c r="H321" s="53" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9092,6 +9092,138 @@
     </row>
   </sheetData>
   <mergeCells count="156">
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="B281:B283"/>
+    <mergeCell ref="A281:A283"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="B270:B271"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A237:A244"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="B276:B280"/>
+    <mergeCell ref="A276:A280"/>
+    <mergeCell ref="F219:F221"/>
+    <mergeCell ref="F222:F223"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A128:A133"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="F113:F115"/>
+    <mergeCell ref="F116:F121"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="F128:F133"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="F137:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="B128:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B142"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="B116:B121"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B179:B184"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A48:A59"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="F35:F47"/>
+    <mergeCell ref="B35:B47"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="F159:F164"/>
+    <mergeCell ref="F165:F169"/>
+    <mergeCell ref="F170:F173"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="B48:B59"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="F2:F16"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="F25:F34"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B75:B88"/>
+    <mergeCell ref="A75:A88"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="A299:A300"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="A191:A194"/>
+    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="B191:B194"/>
+    <mergeCell ref="A295:A298"/>
+    <mergeCell ref="B295:B298"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A159:A164"/>
     <mergeCell ref="A317:A318"/>
     <mergeCell ref="B317:B318"/>
     <mergeCell ref="F224:F225"/>
@@ -9116,138 +9248,6 @@
     <mergeCell ref="B237:B244"/>
     <mergeCell ref="F229:F230"/>
     <mergeCell ref="B203:B206"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="A299:A300"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="A191:A194"/>
-    <mergeCell ref="A207:A212"/>
-    <mergeCell ref="B191:B194"/>
-    <mergeCell ref="A295:A298"/>
-    <mergeCell ref="B295:B298"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="F2:F16"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="F17:F24"/>
-    <mergeCell ref="F25:F34"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B75:B88"/>
-    <mergeCell ref="A75:A88"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="F35:F47"/>
-    <mergeCell ref="B35:B47"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="F159:F164"/>
-    <mergeCell ref="F165:F169"/>
-    <mergeCell ref="F170:F173"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="B48:B59"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B60:B69"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="A35:A47"/>
-    <mergeCell ref="B128:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B142"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="B116:B121"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B179:B184"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="F219:F221"/>
-    <mergeCell ref="F222:F223"/>
-    <mergeCell ref="F145:F148"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A128:A133"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="F113:F115"/>
-    <mergeCell ref="F116:F121"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="F128:F133"/>
-    <mergeCell ref="F134:F136"/>
-    <mergeCell ref="F137:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="B207:B212"/>
-    <mergeCell ref="B281:B283"/>
-    <mergeCell ref="A281:A283"/>
-    <mergeCell ref="A270:A271"/>
-    <mergeCell ref="B270:B271"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="A237:A244"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A245:A248"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="B276:B280"/>
-    <mergeCell ref="A276:A280"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">

--- a/bin/onmyoji.xlsx
+++ b/bin/onmyoji.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\WORKSPACES\WS_STS\onmyojibot\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\git\onmyoji-bot\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="483">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,9 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빨간도깨비</t>
-  </si>
-  <si>
     <t>돌벽,석벽,돌,이끼,바위,벽</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
   </si>
   <si>
     <t>부채,물,조개,꼬리</t>
-  </si>
-  <si>
-    <t>민들레</t>
   </si>
   <si>
     <t>귀여움,손북</t>
@@ -1092,10 +1086,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파란피부,연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>17(어려움)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2212,10 +2202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Higanbana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/09/288skin1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2276,10 +2262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Komatsumaru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/73/290skin1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2293,10 +2275,6 @@
   </si>
   <si>
     <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hako no Shoujo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2358,6 +2336,225 @@
   </si>
   <si>
     <t>킨쿄히메</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>민들레,띵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,띵~</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>빨간도깨비,빨간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>도깨비</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란 피부,파란피부,연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자개소녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코마츠마루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타마모노마에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설동자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피안화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백목귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우사기마루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Juzu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/90/301skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oitsukigami</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/95/295skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nura Rikuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SR</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/e0/306skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/76/O1skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아베노 세이메이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이메이,음양사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/ab/O1skin3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑 세이메이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음양사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카구라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/d9/O2skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히로마사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/e2/O3skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나모토노 히로마사,미나모토노,음양사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/fc/G3skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/ab/Takoskin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑세이메이,음양사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img.hb.aicdn.com/ed55ba6e5599a3580fe69cf1958a9fc56724d69a21789-AmXL9o_fw658</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코하쿠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백장주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2602,7 +2799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2792,6 +2989,39 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2801,12 +3031,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2816,10 +3040,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2852,18 +3076,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2876,6 +3094,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2885,19 +3109,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3446,13 +3658,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H324"/>
+  <dimension ref="A1:H333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2460" ySplit="660" topLeftCell="A307" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1:F1048576"/>
+      <pane xSplit="2460" ySplit="660" activePane="bottomRight"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
       <selection pane="bottomLeft" activeCell="A322" sqref="A322:XFD324"/>
-      <selection pane="bottomRight" activeCell="E330" sqref="E330"/>
+      <selection pane="bottomRight" activeCell="F315" sqref="F315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3462,7 +3674,7 @@
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="10.375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="48.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="5" customWidth="1"/>
     <col min="8" max="8" width="101.125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="6"/>
@@ -3476,29 +3688,29 @@
         <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="68" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -3510,17 +3722,17 @@
       <c r="E2" s="7">
         <v>12</v>
       </c>
-      <c r="F2" s="68" t="s">
-        <v>53</v>
+      <c r="F2" s="93" t="s">
+        <v>445</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="88"/>
-      <c r="B3" s="72"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="11" t="s">
         <v>52</v>
       </c>
@@ -3530,61 +3742,61 @@
       <c r="E3" s="11">
         <v>12</v>
       </c>
-      <c r="F3" s="69"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="88"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="E4" s="11">
         <v>6</v>
       </c>
-      <c r="F4" s="69"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="88"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E5" s="11">
         <v>7</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="88"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="11">
         <v>6</v>
       </c>
-      <c r="F6" s="69"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="88"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="11" t="s">
         <v>52</v>
       </c>
@@ -3594,45 +3806,45 @@
       <c r="E7" s="11">
         <v>4</v>
       </c>
-      <c r="F7" s="69"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="88"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="69"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="88"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E9" s="11">
         <v>4</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="88"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="11" t="s">
         <v>52</v>
       </c>
@@ -3642,31 +3854,31 @@
       <c r="E10" s="11">
         <v>7</v>
       </c>
-      <c r="F10" s="69"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="88"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="69"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="88"/>
-      <c r="B12" s="72"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>30</v>
@@ -3674,15 +3886,15 @@
       <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="F12" s="69"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="88"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>34</v>
@@ -3690,45 +3902,45 @@
       <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="69"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="88"/>
-      <c r="B14" s="72"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E14" s="11">
         <v>1</v>
       </c>
-      <c r="F14" s="69"/>
+      <c r="F14" s="78"/>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="88"/>
-      <c r="B15" s="72"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E15" s="11">
         <v>2</v>
       </c>
-      <c r="F15" s="69"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="89"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="15" t="s">
         <v>50</v>
       </c>
@@ -3738,41 +3950,41 @@
       <c r="E16" s="15">
         <v>2</v>
       </c>
-      <c r="F16" s="70"/>
+      <c r="F16" s="79"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="82" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="90"/>
-      <c r="B18" s="73"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
@@ -3781,13 +3993,13 @@
       <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="90"/>
-      <c r="B19" s="73"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E19" s="3">
         <v>4</v>
@@ -3796,13 +4008,13 @@
       <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="90"/>
-      <c r="B20" s="73"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -3810,8 +4022,8 @@
       <c r="F20" s="67"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="90"/>
-      <c r="B21" s="73"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
@@ -3824,13 +4036,13 @@
       <c r="F21" s="67"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="90"/>
-      <c r="B22" s="73"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -3838,13 +4050,13 @@
       <c r="F22" s="67"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="90"/>
-      <c r="B23" s="73"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
@@ -3852,8 +4064,8 @@
       <c r="F23" s="67"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="90"/>
-      <c r="B24" s="73"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
@@ -3866,144 +4078,144 @@
       <c r="F24" s="67"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="68" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E25" s="7">
         <v>1</v>
       </c>
-      <c r="F25" s="68" t="s">
-        <v>266</v>
+      <c r="F25" s="93" t="s">
+        <v>446</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="88"/>
-      <c r="B26" s="72"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="E26" s="11">
         <v>2</v>
       </c>
-      <c r="F26" s="69"/>
+      <c r="F26" s="78"/>
       <c r="G26" s="13"/>
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="88"/>
-      <c r="B27" s="72"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E27" s="11">
         <v>2</v>
       </c>
-      <c r="F27" s="69"/>
+      <c r="F27" s="78"/>
       <c r="G27" s="13"/>
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="88"/>
-      <c r="B28" s="72"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E28" s="11">
         <v>3</v>
       </c>
-      <c r="F28" s="69"/>
+      <c r="F28" s="78"/>
       <c r="G28" s="13"/>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="88"/>
-      <c r="B29" s="72"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E29" s="11">
         <v>4</v>
       </c>
-      <c r="F29" s="69"/>
+      <c r="F29" s="78"/>
       <c r="G29" s="13"/>
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="88"/>
-      <c r="B30" s="72"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E30" s="11">
         <v>2</v>
       </c>
-      <c r="F30" s="69"/>
+      <c r="F30" s="78"/>
       <c r="G30" s="13"/>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="88"/>
-      <c r="B31" s="72"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E31" s="11">
         <v>3</v>
       </c>
-      <c r="F31" s="69"/>
+      <c r="F31" s="78"/>
       <c r="G31" s="13"/>
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="88"/>
-      <c r="B32" s="72"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E32" s="11">
         <v>1</v>
       </c>
-      <c r="F32" s="69"/>
+      <c r="F32" s="78"/>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="88"/>
-      <c r="B33" s="72"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="11" t="s">
         <v>50</v>
       </c>
@@ -4013,13 +4225,13 @@
       <c r="E33" s="11">
         <v>1</v>
       </c>
-      <c r="F33" s="69"/>
+      <c r="F33" s="78"/>
       <c r="G33" s="13"/>
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="89"/>
-      <c r="B34" s="66"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="15" t="s">
         <v>51</v>
       </c>
@@ -4029,238 +4241,238 @@
       <c r="E34" s="15">
         <v>3</v>
       </c>
-      <c r="F34" s="70"/>
+      <c r="F34" s="79"/>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E35" s="7">
         <v>1</v>
       </c>
-      <c r="F35" s="68" t="s">
-        <v>54</v>
+      <c r="F35" s="77" t="s">
+        <v>53</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="95"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="88"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="E36" s="11">
         <v>9</v>
       </c>
-      <c r="F36" s="69"/>
+      <c r="F36" s="78"/>
       <c r="G36" s="13"/>
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="88"/>
-      <c r="B37" s="72"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E37" s="11">
         <v>10</v>
       </c>
-      <c r="F37" s="69"/>
+      <c r="F37" s="78"/>
       <c r="G37" s="13"/>
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="88"/>
-      <c r="B38" s="72"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E38" s="11">
         <v>4</v>
       </c>
-      <c r="F38" s="69"/>
+      <c r="F38" s="78"/>
       <c r="G38" s="13"/>
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="88"/>
-      <c r="B39" s="72"/>
+      <c r="A39" s="95"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E39" s="11">
         <v>2</v>
       </c>
-      <c r="F39" s="69"/>
+      <c r="F39" s="78"/>
       <c r="G39" s="13"/>
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="88"/>
-      <c r="B40" s="72"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E40" s="11">
         <v>3</v>
       </c>
-      <c r="F40" s="69"/>
+      <c r="F40" s="78"/>
       <c r="G40" s="13"/>
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="88"/>
-      <c r="B41" s="72"/>
+      <c r="A41" s="95"/>
+      <c r="B41" s="69"/>
       <c r="C41" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E41" s="11">
         <v>5</v>
       </c>
-      <c r="F41" s="69"/>
+      <c r="F41" s="78"/>
       <c r="G41" s="13"/>
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="88"/>
-      <c r="B42" s="72"/>
+      <c r="A42" s="95"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E42" s="11">
         <v>2</v>
       </c>
-      <c r="F42" s="69"/>
+      <c r="F42" s="78"/>
       <c r="G42" s="13"/>
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="88"/>
-      <c r="B43" s="72"/>
+      <c r="A43" s="95"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E43" s="11">
         <v>3</v>
       </c>
-      <c r="F43" s="69"/>
+      <c r="F43" s="78"/>
       <c r="G43" s="13"/>
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="88"/>
-      <c r="B44" s="72"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E44" s="11">
         <v>18</v>
       </c>
-      <c r="F44" s="69"/>
+      <c r="F44" s="78"/>
       <c r="G44" s="13"/>
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="88"/>
-      <c r="B45" s="72"/>
+      <c r="A45" s="95"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E45" s="11">
         <v>1</v>
       </c>
-      <c r="F45" s="69"/>
+      <c r="F45" s="78"/>
       <c r="G45" s="13"/>
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="88"/>
-      <c r="B46" s="72"/>
+      <c r="A46" s="95"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E46" s="11">
         <v>1</v>
       </c>
-      <c r="F46" s="69"/>
+      <c r="F46" s="78"/>
       <c r="G46" s="13"/>
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="88"/>
-      <c r="B47" s="72"/>
+      <c r="A47" s="95"/>
+      <c r="B47" s="69"/>
       <c r="C47" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E47" s="11">
         <v>4</v>
       </c>
-      <c r="F47" s="69"/>
+      <c r="F47" s="78"/>
       <c r="G47" s="13"/>
       <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" s="71" t="s">
-        <v>151</v>
+      <c r="A48" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="68" t="s">
+        <v>149</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E48" s="7">
         <v>4</v>
@@ -4268,17 +4480,17 @@
       <c r="F48" s="22"/>
       <c r="G48" s="20"/>
       <c r="H48" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="88"/>
-      <c r="B49" s="72"/>
+      <c r="A49" s="95"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E49" s="11">
         <v>8</v>
@@ -4288,13 +4500,13 @@
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="88"/>
-      <c r="B50" s="72"/>
+      <c r="A50" s="95"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E50" s="11">
         <v>6</v>
@@ -4304,13 +4516,13 @@
       <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="88"/>
-      <c r="B51" s="72"/>
+      <c r="A51" s="95"/>
+      <c r="B51" s="69"/>
       <c r="C51" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E51" s="11">
         <v>1</v>
@@ -4320,13 +4532,13 @@
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="88"/>
-      <c r="B52" s="72"/>
+      <c r="A52" s="95"/>
+      <c r="B52" s="69"/>
       <c r="C52" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E52" s="11">
         <v>6</v>
@@ -4336,13 +4548,13 @@
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="88"/>
-      <c r="B53" s="72"/>
+      <c r="A53" s="95"/>
+      <c r="B53" s="69"/>
       <c r="C53" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E53" s="11">
         <v>3</v>
@@ -4352,13 +4564,13 @@
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="88"/>
-      <c r="B54" s="72"/>
+      <c r="A54" s="95"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E54" s="11">
         <v>9</v>
@@ -4368,13 +4580,13 @@
       <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="88"/>
-      <c r="B55" s="72"/>
+      <c r="A55" s="95"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E55" s="11">
         <v>2</v>
@@ -4384,13 +4596,13 @@
       <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="88"/>
-      <c r="B56" s="72"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="69"/>
       <c r="C56" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E56" s="11">
         <v>4</v>
@@ -4400,13 +4612,13 @@
       <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="88"/>
-      <c r="B57" s="72"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="69"/>
       <c r="C57" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E57" s="11">
         <v>2</v>
@@ -4416,13 +4628,13 @@
       <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="88"/>
-      <c r="B58" s="72"/>
+      <c r="A58" s="95"/>
+      <c r="B58" s="69"/>
       <c r="C58" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E58" s="11">
         <v>3</v>
@@ -4432,13 +4644,13 @@
       <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="89"/>
-      <c r="B59" s="66"/>
+      <c r="A59" s="96"/>
+      <c r="B59" s="70"/>
       <c r="C59" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E59" s="15">
         <v>6</v>
@@ -4448,17 +4660,17 @@
       <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60" s="72" t="s">
-        <v>152</v>
+      <c r="A60" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="69" t="s">
+        <v>150</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E60" s="11">
         <v>5</v>
@@ -4466,17 +4678,17 @@
       <c r="F60" s="23"/>
       <c r="G60" s="13"/>
       <c r="H60" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="88"/>
-      <c r="B61" s="72"/>
+      <c r="A61" s="95"/>
+      <c r="B61" s="69"/>
       <c r="C61" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E61" s="11">
         <v>4</v>
@@ -4486,13 +4698,13 @@
       <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="88"/>
-      <c r="B62" s="72"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="69"/>
       <c r="C62" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E62" s="11">
         <v>2</v>
@@ -4502,13 +4714,13 @@
       <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="88"/>
-      <c r="B63" s="72"/>
+      <c r="A63" s="95"/>
+      <c r="B63" s="69"/>
       <c r="C63" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E63" s="11">
         <v>4</v>
@@ -4518,13 +4730,13 @@
       <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="88"/>
-      <c r="B64" s="72"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E64" s="11">
         <v>4</v>
@@ -4534,13 +4746,13 @@
       <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="88"/>
-      <c r="B65" s="72"/>
+      <c r="A65" s="95"/>
+      <c r="B65" s="69"/>
       <c r="C65" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E65" s="11">
         <v>1</v>
@@ -4550,13 +4762,13 @@
       <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="88"/>
-      <c r="B66" s="72"/>
+      <c r="A66" s="95"/>
+      <c r="B66" s="69"/>
       <c r="C66" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E66" s="11">
         <v>2</v>
@@ -4566,13 +4778,13 @@
       <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="88"/>
-      <c r="B67" s="72"/>
+      <c r="A67" s="95"/>
+      <c r="B67" s="69"/>
       <c r="C67" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E67" s="11">
         <v>1</v>
@@ -4582,13 +4794,13 @@
       <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="88"/>
-      <c r="B68" s="72"/>
+      <c r="A68" s="95"/>
+      <c r="B68" s="69"/>
       <c r="C68" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E68" s="11">
         <v>1</v>
@@ -4598,13 +4810,13 @@
       <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="89"/>
-      <c r="B69" s="66"/>
+      <c r="A69" s="96"/>
+      <c r="B69" s="70"/>
       <c r="C69" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E69" s="15">
         <v>1</v>
@@ -4614,17 +4826,17 @@
       <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B70" s="71" t="s">
-        <v>153</v>
+      <c r="A70" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="68" t="s">
+        <v>151</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E70" s="7">
         <v>6</v>
@@ -4632,17 +4844,17 @@
       <c r="F70" s="22"/>
       <c r="G70" s="20"/>
       <c r="H70" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="88"/>
-      <c r="B71" s="72"/>
+      <c r="A71" s="95"/>
+      <c r="B71" s="69"/>
       <c r="C71" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E71" s="11">
         <v>2</v>
@@ -4652,13 +4864,13 @@
       <c r="H71" s="14"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="88"/>
-      <c r="B72" s="72"/>
+      <c r="A72" s="95"/>
+      <c r="B72" s="69"/>
       <c r="C72" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E72" s="11">
         <v>1</v>
@@ -4668,13 +4880,13 @@
       <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="88"/>
-      <c r="B73" s="72"/>
+      <c r="A73" s="95"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E73" s="11">
         <v>6</v>
@@ -4684,13 +4896,13 @@
       <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="89"/>
-      <c r="B74" s="66"/>
+      <c r="A74" s="96"/>
+      <c r="B74" s="70"/>
       <c r="C74" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E74" s="15">
         <v>4</v>
@@ -4700,206 +4912,206 @@
       <c r="H74" s="18"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="90" t="s">
-        <v>159</v>
-      </c>
-      <c r="B75" s="73" t="s">
-        <v>154</v>
+      <c r="A75" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="82" t="s">
+        <v>152</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E75" s="3">
         <v>4</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="90"/>
-      <c r="B76" s="73"/>
+      <c r="A76" s="97"/>
+      <c r="B76" s="82"/>
       <c r="C76" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E76" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="90"/>
-      <c r="B77" s="73"/>
+      <c r="A77" s="97"/>
+      <c r="B77" s="82"/>
       <c r="C77" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E77" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="90"/>
-      <c r="B78" s="73"/>
+      <c r="A78" s="97"/>
+      <c r="B78" s="82"/>
       <c r="C78" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E78" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="90"/>
-      <c r="B79" s="73"/>
+      <c r="A79" s="97"/>
+      <c r="B79" s="82"/>
       <c r="C79" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E79" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="90"/>
-      <c r="B80" s="73"/>
+      <c r="A80" s="97"/>
+      <c r="B80" s="82"/>
       <c r="C80" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E80" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="90"/>
-      <c r="B81" s="73"/>
+      <c r="A81" s="97"/>
+      <c r="B81" s="82"/>
       <c r="C81" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E81" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="90"/>
-      <c r="B82" s="73"/>
+      <c r="A82" s="97"/>
+      <c r="B82" s="82"/>
       <c r="C82" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E82" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="90"/>
-      <c r="B83" s="73"/>
+      <c r="A83" s="97"/>
+      <c r="B83" s="82"/>
       <c r="C83" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E83" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="90"/>
-      <c r="B84" s="73"/>
+      <c r="A84" s="97"/>
+      <c r="B84" s="82"/>
       <c r="C84" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E84" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="90"/>
-      <c r="B85" s="73"/>
+      <c r="A85" s="97"/>
+      <c r="B85" s="82"/>
       <c r="C85" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E85" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="90"/>
-      <c r="B86" s="73"/>
+      <c r="A86" s="97"/>
+      <c r="B86" s="82"/>
       <c r="C86" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E86" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="90"/>
-      <c r="B87" s="73"/>
+      <c r="A87" s="97"/>
+      <c r="B87" s="82"/>
       <c r="C87" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E87" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="90"/>
-      <c r="B88" s="73"/>
+      <c r="A88" s="97"/>
+      <c r="B88" s="82"/>
       <c r="C88" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E88" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B89" s="71" t="s">
-        <v>155</v>
+      <c r="A89" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="68" t="s">
+        <v>153</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E89" s="7">
         <v>4</v>
@@ -4907,17 +5119,17 @@
       <c r="F89" s="22"/>
       <c r="G89" s="20"/>
       <c r="H89" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="88"/>
-      <c r="B90" s="72"/>
+      <c r="A90" s="95"/>
+      <c r="B90" s="69"/>
       <c r="C90" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E90" s="11">
         <v>3</v>
@@ -4927,13 +5139,13 @@
       <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="88"/>
-      <c r="B91" s="72"/>
+      <c r="A91" s="95"/>
+      <c r="B91" s="69"/>
       <c r="C91" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E91" s="11">
         <v>3</v>
@@ -4943,10 +5155,10 @@
       <c r="H91" s="14"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="88"/>
-      <c r="B92" s="72"/>
+      <c r="A92" s="95"/>
+      <c r="B92" s="69"/>
       <c r="C92" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>30</v>
@@ -4959,13 +5171,13 @@
       <c r="H92" s="14"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="88"/>
-      <c r="B93" s="72"/>
+      <c r="A93" s="95"/>
+      <c r="B93" s="69"/>
       <c r="C93" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E93" s="11">
         <v>4</v>
@@ -4975,13 +5187,13 @@
       <c r="H93" s="14"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="88"/>
-      <c r="B94" s="72"/>
+      <c r="A94" s="95"/>
+      <c r="B94" s="69"/>
       <c r="C94" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E94" s="11">
         <v>3</v>
@@ -4991,13 +5203,13 @@
       <c r="H94" s="14"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="88"/>
-      <c r="B95" s="72"/>
+      <c r="A95" s="95"/>
+      <c r="B95" s="69"/>
       <c r="C95" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E95" s="11">
         <v>4</v>
@@ -5007,13 +5219,13 @@
       <c r="H95" s="14"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="88"/>
-      <c r="B96" s="72"/>
+      <c r="A96" s="95"/>
+      <c r="B96" s="69"/>
       <c r="C96" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E96" s="11">
         <v>3</v>
@@ -5023,13 +5235,13 @@
       <c r="H96" s="14"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="88"/>
-      <c r="B97" s="72"/>
+      <c r="A97" s="95"/>
+      <c r="B97" s="69"/>
       <c r="C97" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E97" s="11">
         <v>2</v>
@@ -5039,13 +5251,13 @@
       <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="88"/>
-      <c r="B98" s="72"/>
+      <c r="A98" s="95"/>
+      <c r="B98" s="69"/>
       <c r="C98" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E98" s="11">
         <v>2</v>
@@ -5055,13 +5267,13 @@
       <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="89"/>
-      <c r="B99" s="66"/>
+      <c r="A99" s="96"/>
+      <c r="B99" s="70"/>
       <c r="C99" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E99" s="15">
         <v>3</v>
@@ -5071,102 +5283,102 @@
       <c r="H99" s="18"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="B100" s="71" t="s">
-        <v>156</v>
+      <c r="A100" s="100" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="68" t="s">
+        <v>154</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E100" s="3">
         <v>9</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="92"/>
-      <c r="B101" s="72"/>
+      <c r="A101" s="101"/>
+      <c r="B101" s="69"/>
       <c r="C101" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E101" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="92"/>
-      <c r="B102" s="72"/>
+      <c r="A102" s="101"/>
+      <c r="B102" s="69"/>
       <c r="C102" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E102" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="92"/>
-      <c r="B103" s="72"/>
+      <c r="A103" s="101"/>
+      <c r="B103" s="69"/>
       <c r="C103" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E103" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="92"/>
-      <c r="B104" s="72"/>
+      <c r="A104" s="101"/>
+      <c r="B104" s="69"/>
       <c r="C104" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E104" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="93"/>
-      <c r="B105" s="66"/>
+      <c r="A105" s="102"/>
+      <c r="B105" s="70"/>
       <c r="C105" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E105" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B106" s="71" t="s">
+      <c r="A106" s="94" t="s">
         <v>157</v>
       </c>
+      <c r="B106" s="68" t="s">
+        <v>155</v>
+      </c>
       <c r="C106" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E106" s="7">
         <v>5</v>
@@ -5174,17 +5386,17 @@
       <c r="F106" s="22"/>
       <c r="G106" s="20"/>
       <c r="H106" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="88"/>
-      <c r="B107" s="72"/>
+      <c r="A107" s="95"/>
+      <c r="B107" s="69"/>
       <c r="C107" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E107" s="11">
         <v>2</v>
@@ -5194,13 +5406,13 @@
       <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="89"/>
-      <c r="B108" s="66"/>
+      <c r="A108" s="96"/>
+      <c r="B108" s="70"/>
       <c r="C108" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E108" s="15">
         <v>5</v>
@@ -5210,17 +5422,17 @@
       <c r="H108" s="18"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B109" s="71" t="s">
-        <v>158</v>
+      <c r="A109" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="B109" s="68" t="s">
+        <v>156</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E109" s="7">
         <v>7</v>
@@ -5228,17 +5440,17 @@
       <c r="F109" s="22"/>
       <c r="G109" s="20"/>
       <c r="H109" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="88"/>
-      <c r="B110" s="72"/>
+      <c r="A110" s="95"/>
+      <c r="B110" s="69"/>
       <c r="C110" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E110" s="11">
         <v>2</v>
@@ -5248,13 +5460,13 @@
       <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="88"/>
-      <c r="B111" s="72"/>
+      <c r="A111" s="95"/>
+      <c r="B111" s="69"/>
       <c r="C111" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E111" s="11">
         <v>1</v>
@@ -5264,13 +5476,13 @@
       <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="89"/>
-      <c r="B112" s="66"/>
+      <c r="A112" s="96"/>
+      <c r="B112" s="70"/>
       <c r="C112" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E112" s="15">
         <v>3</v>
@@ -5280,10 +5492,10 @@
       <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="95" t="s">
+      <c r="A113" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="73" t="s">
+      <c r="B113" s="82" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="3" t="s">
@@ -5296,15 +5508,15 @@
         <v>6</v>
       </c>
       <c r="F113" s="67" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="82"/>
-      <c r="B114" s="73"/>
+      <c r="A114" s="91"/>
+      <c r="B114" s="82"/>
       <c r="C114" s="3" t="s">
         <v>52</v>
       </c>
@@ -5317,8 +5529,8 @@
       <c r="F114" s="67"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="96"/>
-      <c r="B115" s="73"/>
+      <c r="A115" s="99"/>
+      <c r="B115" s="82"/>
       <c r="C115" s="3" t="s">
         <v>50</v>
       </c>
@@ -5331,80 +5543,80 @@
       <c r="F115" s="67"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="83" t="s">
+      <c r="A116" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="71" t="s">
+      <c r="B116" s="68" t="s">
         <v>17</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E116" s="7">
         <v>1</v>
       </c>
-      <c r="F116" s="68" t="s">
-        <v>55</v>
+      <c r="F116" s="77" t="s">
+        <v>54</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="84"/>
-      <c r="B117" s="72"/>
+      <c r="A117" s="73"/>
+      <c r="B117" s="69"/>
       <c r="C117" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E117" s="11">
         <v>2</v>
       </c>
-      <c r="F117" s="69"/>
+      <c r="F117" s="78"/>
       <c r="G117" s="13"/>
       <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="84"/>
-      <c r="B118" s="72"/>
+      <c r="A118" s="73"/>
+      <c r="B118" s="69"/>
       <c r="C118" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E118" s="11">
         <v>4</v>
       </c>
-      <c r="F118" s="69"/>
+      <c r="F118" s="78"/>
       <c r="G118" s="13"/>
       <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="84"/>
-      <c r="B119" s="72"/>
+      <c r="A119" s="73"/>
+      <c r="B119" s="69"/>
       <c r="C119" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E119" s="11">
         <v>4</v>
       </c>
-      <c r="F119" s="69"/>
+      <c r="F119" s="78"/>
       <c r="G119" s="13"/>
       <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="84"/>
-      <c r="B120" s="72"/>
+      <c r="A120" s="73"/>
+      <c r="B120" s="69"/>
       <c r="C120" s="11" t="s">
         <v>50</v>
       </c>
@@ -5414,13 +5626,13 @@
       <c r="E120" s="11">
         <v>2</v>
       </c>
-      <c r="F120" s="69"/>
+      <c r="F120" s="78"/>
       <c r="G120" s="13"/>
       <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="85"/>
-      <c r="B121" s="66"/>
+      <c r="A121" s="72"/>
+      <c r="B121" s="70"/>
       <c r="C121" s="15" t="s">
         <v>50</v>
       </c>
@@ -5430,15 +5642,15 @@
       <c r="E121" s="15">
         <v>1</v>
       </c>
-      <c r="F121" s="70"/>
+      <c r="F121" s="79"/>
       <c r="G121" s="17"/>
       <c r="H121" s="18"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="82" t="s">
+      <c r="A122" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="73" t="s">
+      <c r="B122" s="82" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -5451,15 +5663,15 @@
         <v>7</v>
       </c>
       <c r="F122" s="67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="82"/>
-      <c r="B123" s="73"/>
+      <c r="A123" s="91"/>
+      <c r="B123" s="82"/>
       <c r="C123" s="3" t="s">
         <v>50</v>
       </c>
@@ -5472,8 +5684,8 @@
       <c r="F123" s="67"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="82"/>
-      <c r="B124" s="73"/>
+      <c r="A124" s="91"/>
+      <c r="B124" s="82"/>
       <c r="C124" s="3" t="s">
         <v>50</v>
       </c>
@@ -5486,8 +5698,8 @@
       <c r="F124" s="67"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="96"/>
-      <c r="B125" s="73"/>
+      <c r="A125" s="99"/>
+      <c r="B125" s="82"/>
       <c r="C125" s="3" t="s">
         <v>50</v>
       </c>
@@ -5500,10 +5712,10 @@
       <c r="F125" s="67"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="83" t="s">
+      <c r="A126" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B126" s="71" t="s">
+      <c r="B126" s="68" t="s">
         <v>22</v>
       </c>
       <c r="C126" s="7" t="s">
@@ -5515,17 +5727,17 @@
       <c r="E126" s="7">
         <v>1</v>
       </c>
-      <c r="F126" s="68" t="s">
-        <v>354</v>
+      <c r="F126" s="77" t="s">
+        <v>351</v>
       </c>
       <c r="G126" s="20"/>
       <c r="H126" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="85"/>
-      <c r="B127" s="66"/>
+      <c r="A127" s="72"/>
+      <c r="B127" s="70"/>
       <c r="C127" s="15" t="s">
         <v>50</v>
       </c>
@@ -5535,41 +5747,41 @@
       <c r="E127" s="15">
         <v>1</v>
       </c>
-      <c r="F127" s="70"/>
+      <c r="F127" s="79"/>
       <c r="G127" s="17"/>
       <c r="H127" s="18"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="95" t="s">
+      <c r="A128" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="73" t="s">
+      <c r="B128" s="82" t="s">
         <v>20</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E128" s="3">
         <v>2</v>
       </c>
       <c r="F128" s="67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="82"/>
-      <c r="B129" s="73"/>
+      <c r="A129" s="91"/>
+      <c r="B129" s="82"/>
       <c r="C129" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E129" s="3">
         <v>4</v>
@@ -5578,13 +5790,13 @@
       <c r="H129" s="19"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="82"/>
-      <c r="B130" s="73"/>
+      <c r="A130" s="91"/>
+      <c r="B130" s="82"/>
       <c r="C130" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E130" s="3">
         <v>6</v>
@@ -5593,13 +5805,13 @@
       <c r="H130" s="19"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="82"/>
-      <c r="B131" s="73"/>
+      <c r="A131" s="91"/>
+      <c r="B131" s="82"/>
       <c r="C131" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E131" s="3">
         <v>3</v>
@@ -5607,13 +5819,13 @@
       <c r="F131" s="67"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="82"/>
-      <c r="B132" s="73"/>
+      <c r="A132" s="91"/>
+      <c r="B132" s="82"/>
       <c r="C132" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E132" s="3">
         <v>3</v>
@@ -5621,13 +5833,13 @@
       <c r="F132" s="67"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="96"/>
-      <c r="B133" s="73"/>
+      <c r="A133" s="99"/>
+      <c r="B133" s="82"/>
       <c r="C133" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
@@ -5635,10 +5847,10 @@
       <c r="F133" s="67"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="83" t="s">
+      <c r="A134" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="71" t="s">
+      <c r="B134" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -5650,17 +5862,17 @@
       <c r="E134" s="7">
         <v>2</v>
       </c>
-      <c r="F134" s="68" t="s">
-        <v>58</v>
+      <c r="F134" s="77" t="s">
+        <v>57</v>
       </c>
       <c r="G134" s="20"/>
       <c r="H134" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="84"/>
-      <c r="B135" s="72"/>
+      <c r="A135" s="73"/>
+      <c r="B135" s="69"/>
       <c r="C135" s="11" t="s">
         <v>52</v>
       </c>
@@ -5670,13 +5882,13 @@
       <c r="E135" s="11">
         <v>2</v>
       </c>
-      <c r="F135" s="69"/>
+      <c r="F135" s="78"/>
       <c r="G135" s="13"/>
       <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="85"/>
-      <c r="B136" s="66"/>
+      <c r="A136" s="72"/>
+      <c r="B136" s="70"/>
       <c r="C136" s="15" t="s">
         <v>50</v>
       </c>
@@ -5686,53 +5898,53 @@
       <c r="E136" s="15">
         <v>1</v>
       </c>
-      <c r="F136" s="70"/>
+      <c r="F136" s="79"/>
       <c r="G136" s="17"/>
       <c r="H136" s="18"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="83" t="s">
+      <c r="A137" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="71" t="s">
+      <c r="B137" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E137" s="7">
         <v>7</v>
       </c>
-      <c r="F137" s="68" t="s">
-        <v>264</v>
+      <c r="F137" s="77" t="s">
+        <v>262</v>
       </c>
       <c r="G137" s="20"/>
       <c r="H137" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="84"/>
-      <c r="B138" s="72"/>
+      <c r="A138" s="73"/>
+      <c r="B138" s="69"/>
       <c r="C138" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E138" s="11">
         <v>6</v>
       </c>
-      <c r="F138" s="69"/>
+      <c r="F138" s="78"/>
       <c r="G138" s="13"/>
       <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="84"/>
-      <c r="B139" s="72"/>
+      <c r="A139" s="73"/>
+      <c r="B139" s="69"/>
       <c r="C139" s="11" t="s">
         <v>52</v>
       </c>
@@ -5742,13 +5954,13 @@
       <c r="E139" s="11">
         <v>1</v>
       </c>
-      <c r="F139" s="69"/>
+      <c r="F139" s="78"/>
       <c r="G139" s="13"/>
       <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="84"/>
-      <c r="B140" s="72"/>
+      <c r="A140" s="73"/>
+      <c r="B140" s="69"/>
       <c r="C140" s="11" t="s">
         <v>52</v>
       </c>
@@ -5758,13 +5970,13 @@
       <c r="E140" s="11">
         <v>5</v>
       </c>
-      <c r="F140" s="69"/>
+      <c r="F140" s="78"/>
       <c r="G140" s="13"/>
       <c r="H140" s="14"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="84"/>
-      <c r="B141" s="72"/>
+      <c r="A141" s="73"/>
+      <c r="B141" s="69"/>
       <c r="C141" s="11" t="s">
         <v>50</v>
       </c>
@@ -5774,13 +5986,13 @@
       <c r="E141" s="11">
         <v>2</v>
       </c>
-      <c r="F141" s="69"/>
+      <c r="F141" s="78"/>
       <c r="G141" s="13"/>
       <c r="H141" s="14"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="85"/>
-      <c r="B142" s="66"/>
+      <c r="A142" s="72"/>
+      <c r="B142" s="70"/>
       <c r="C142" s="15" t="s">
         <v>50</v>
       </c>
@@ -5790,15 +6002,15 @@
       <c r="E142" s="15">
         <v>1</v>
       </c>
-      <c r="F142" s="70"/>
+      <c r="F142" s="79"/>
       <c r="G142" s="17"/>
       <c r="H142" s="18"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="83" t="s">
+      <c r="A143" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B143" s="71" t="s">
+      <c r="B143" s="68" t="s">
         <v>19</v>
       </c>
       <c r="C143" s="7" t="s">
@@ -5810,17 +6022,17 @@
       <c r="E143" s="7">
         <v>2</v>
       </c>
-      <c r="F143" s="68" t="s">
-        <v>59</v>
+      <c r="F143" s="77" t="s">
+        <v>58</v>
       </c>
       <c r="G143" s="20"/>
       <c r="H143" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="85"/>
-      <c r="B144" s="66"/>
+      <c r="A144" s="72"/>
+      <c r="B144" s="70"/>
       <c r="C144" s="15" t="s">
         <v>50</v>
       </c>
@@ -5830,15 +6042,15 @@
       <c r="E144" s="15">
         <v>1</v>
       </c>
-      <c r="F144" s="70"/>
+      <c r="F144" s="79"/>
       <c r="G144" s="17"/>
       <c r="H144" s="18"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="83" t="s">
+      <c r="A145" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B145" s="71" t="s">
+      <c r="B145" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="7" t="s">
@@ -5850,33 +6062,33 @@
       <c r="E145" s="7">
         <v>2</v>
       </c>
-      <c r="F145" s="68" t="s">
-        <v>60</v>
+      <c r="F145" s="77" t="s">
+        <v>59</v>
       </c>
       <c r="G145" s="20"/>
       <c r="H145" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="84"/>
-      <c r="B146" s="72"/>
+      <c r="A146" s="73"/>
+      <c r="B146" s="69"/>
       <c r="C146" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E146" s="11">
         <v>1</v>
       </c>
-      <c r="F146" s="69"/>
+      <c r="F146" s="78"/>
       <c r="G146" s="13"/>
       <c r="H146" s="14"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="84"/>
-      <c r="B147" s="72"/>
+      <c r="A147" s="73"/>
+      <c r="B147" s="69"/>
       <c r="C147" s="11" t="s">
         <v>52</v>
       </c>
@@ -5886,13 +6098,13 @@
       <c r="E147" s="11">
         <v>3</v>
       </c>
-      <c r="F147" s="69"/>
+      <c r="F147" s="78"/>
       <c r="G147" s="13"/>
       <c r="H147" s="14"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="85"/>
-      <c r="B148" s="66"/>
+      <c r="A148" s="72"/>
+      <c r="B148" s="70"/>
       <c r="C148" s="15" t="s">
         <v>50</v>
       </c>
@@ -5902,16 +6114,16 @@
       <c r="E148" s="15">
         <v>1</v>
       </c>
-      <c r="F148" s="70"/>
+      <c r="F148" s="79"/>
       <c r="G148" s="17"/>
       <c r="H148" s="18"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="83" t="s">
+      <c r="A149" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B149" s="71" t="s">
-        <v>277</v>
+      <c r="B149" s="68" t="s">
+        <v>274</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>52</v>
@@ -5922,17 +6134,17 @@
       <c r="E149" s="7">
         <v>7</v>
       </c>
-      <c r="F149" s="94" t="s">
-        <v>443</v>
+      <c r="F149" s="93" t="s">
+        <v>437</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="84"/>
-      <c r="B150" s="72"/>
+      <c r="A150" s="73"/>
+      <c r="B150" s="69"/>
       <c r="C150" s="11" t="s">
         <v>52</v>
       </c>
@@ -5942,13 +6154,13 @@
       <c r="E150" s="11">
         <v>2</v>
       </c>
-      <c r="F150" s="69"/>
+      <c r="F150" s="78"/>
       <c r="G150" s="13"/>
       <c r="H150" s="14"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="84"/>
-      <c r="B151" s="72"/>
+      <c r="A151" s="73"/>
+      <c r="B151" s="69"/>
       <c r="C151" s="11" t="s">
         <v>50</v>
       </c>
@@ -5958,13 +6170,13 @@
       <c r="E151" s="11">
         <v>1</v>
       </c>
-      <c r="F151" s="69"/>
+      <c r="F151" s="78"/>
       <c r="G151" s="13"/>
       <c r="H151" s="14"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="85"/>
-      <c r="B152" s="66"/>
+      <c r="A152" s="72"/>
+      <c r="B152" s="70"/>
       <c r="C152" s="15" t="s">
         <v>50</v>
       </c>
@@ -5974,53 +6186,53 @@
       <c r="E152" s="15">
         <v>1</v>
       </c>
-      <c r="F152" s="70"/>
+      <c r="F152" s="79"/>
       <c r="G152" s="17"/>
       <c r="H152" s="18"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="83" t="s">
+      <c r="A153" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B153" s="71" t="s">
+      <c r="B153" s="68" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E153" s="7">
         <v>5</v>
       </c>
-      <c r="F153" s="68" t="s">
-        <v>355</v>
+      <c r="F153" s="77" t="s">
+        <v>352</v>
       </c>
       <c r="G153" s="20"/>
       <c r="H153" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="84"/>
-      <c r="B154" s="72"/>
+      <c r="A154" s="73"/>
+      <c r="B154" s="69"/>
       <c r="C154" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E154" s="11">
         <v>7</v>
       </c>
-      <c r="F154" s="69"/>
+      <c r="F154" s="78"/>
       <c r="G154" s="13"/>
       <c r="H154" s="21"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="84"/>
-      <c r="B155" s="72"/>
+      <c r="A155" s="73"/>
+      <c r="B155" s="69"/>
       <c r="C155" s="11" t="s">
         <v>50</v>
       </c>
@@ -6030,13 +6242,13 @@
       <c r="E155" s="11">
         <v>1</v>
       </c>
-      <c r="F155" s="69"/>
+      <c r="F155" s="78"/>
       <c r="G155" s="13"/>
       <c r="H155" s="14"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="85"/>
-      <c r="B156" s="66"/>
+      <c r="A156" s="72"/>
+      <c r="B156" s="70"/>
       <c r="C156" s="15" t="s">
         <v>50</v>
       </c>
@@ -6046,15 +6258,15 @@
       <c r="E156" s="15">
         <v>1</v>
       </c>
-      <c r="F156" s="70"/>
+      <c r="F156" s="79"/>
       <c r="G156" s="17"/>
       <c r="H156" s="18"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="95" t="s">
+      <c r="A157" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="73" t="s">
+      <c r="B157" s="82" t="s">
         <v>21</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -6067,15 +6279,15 @@
         <v>1</v>
       </c>
       <c r="F157" s="67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H157" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="96"/>
-      <c r="B158" s="73"/>
+      <c r="A158" s="99"/>
+      <c r="B158" s="82"/>
       <c r="C158" s="3" t="s">
         <v>50</v>
       </c>
@@ -6088,10 +6300,10 @@
       <c r="F158" s="67"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="83" t="s">
+      <c r="A159" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B159" s="71" t="s">
+      <c r="B159" s="68" t="s">
         <v>16</v>
       </c>
       <c r="C159" s="7" t="s">
@@ -6103,33 +6315,33 @@
       <c r="E159" s="7">
         <v>1</v>
       </c>
-      <c r="F159" s="68" t="s">
-        <v>62</v>
+      <c r="F159" s="77" t="s">
+        <v>61</v>
       </c>
       <c r="G159" s="20"/>
       <c r="H159" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="84"/>
-      <c r="B160" s="72"/>
+      <c r="A160" s="73"/>
+      <c r="B160" s="69"/>
       <c r="C160" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E160" s="11">
         <v>1</v>
       </c>
-      <c r="F160" s="69"/>
+      <c r="F160" s="78"/>
       <c r="G160" s="13"/>
       <c r="H160" s="21"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="84"/>
-      <c r="B161" s="72"/>
+      <c r="A161" s="73"/>
+      <c r="B161" s="69"/>
       <c r="C161" s="11" t="s">
         <v>50</v>
       </c>
@@ -6139,13 +6351,13 @@
       <c r="E161" s="11">
         <v>1</v>
       </c>
-      <c r="F161" s="69"/>
+      <c r="F161" s="78"/>
       <c r="G161" s="13"/>
       <c r="H161" s="14"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="84"/>
-      <c r="B162" s="72"/>
+      <c r="A162" s="73"/>
+      <c r="B162" s="69"/>
       <c r="C162" s="11" t="s">
         <v>50</v>
       </c>
@@ -6155,13 +6367,13 @@
       <c r="E162" s="11">
         <v>1</v>
       </c>
-      <c r="F162" s="69"/>
+      <c r="F162" s="78"/>
       <c r="G162" s="13"/>
       <c r="H162" s="14"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="84"/>
-      <c r="B163" s="72"/>
+      <c r="A163" s="73"/>
+      <c r="B163" s="69"/>
       <c r="C163" s="11" t="s">
         <v>50</v>
       </c>
@@ -6171,13 +6383,13 @@
       <c r="E163" s="11">
         <v>1</v>
       </c>
-      <c r="F163" s="69"/>
+      <c r="F163" s="78"/>
       <c r="G163" s="13"/>
       <c r="H163" s="14"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="85"/>
-      <c r="B164" s="66"/>
+      <c r="A164" s="72"/>
+      <c r="B164" s="70"/>
       <c r="C164" s="15" t="s">
         <v>51</v>
       </c>
@@ -6187,15 +6399,15 @@
       <c r="E164" s="15">
         <v>3</v>
       </c>
-      <c r="F164" s="70"/>
+      <c r="F164" s="79"/>
       <c r="G164" s="17"/>
       <c r="H164" s="18"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="83" t="s">
+      <c r="A165" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B165" s="71" t="s">
+      <c r="B165" s="68" t="s">
         <v>11</v>
       </c>
       <c r="C165" s="7" t="s">
@@ -6207,17 +6419,17 @@
       <c r="E165" s="7">
         <v>2</v>
       </c>
-      <c r="F165" s="68" t="s">
-        <v>63</v>
+      <c r="F165" s="93" t="s">
+        <v>444</v>
       </c>
       <c r="G165" s="20"/>
       <c r="H165" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="84"/>
-      <c r="B166" s="72"/>
+      <c r="A166" s="73"/>
+      <c r="B166" s="69"/>
       <c r="C166" s="11" t="s">
         <v>52</v>
       </c>
@@ -6227,63 +6439,63 @@
       <c r="E166" s="11">
         <v>3</v>
       </c>
-      <c r="F166" s="69"/>
+      <c r="F166" s="78"/>
       <c r="G166" s="13"/>
       <c r="H166" s="14"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="84"/>
-      <c r="B167" s="72"/>
+      <c r="A167" s="73"/>
+      <c r="B167" s="69"/>
       <c r="C167" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E167" s="11">
         <v>1</v>
       </c>
-      <c r="F167" s="69"/>
+      <c r="F167" s="78"/>
       <c r="G167" s="13"/>
       <c r="H167" s="14"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="84"/>
-      <c r="B168" s="72"/>
+      <c r="A168" s="73"/>
+      <c r="B168" s="69"/>
       <c r="C168" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E168" s="11">
         <v>1</v>
       </c>
-      <c r="F168" s="69"/>
+      <c r="F168" s="78"/>
       <c r="G168" s="13"/>
       <c r="H168" s="14"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="85"/>
-      <c r="B169" s="66"/>
+      <c r="A169" s="72"/>
+      <c r="B169" s="70"/>
       <c r="C169" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E169" s="15">
         <v>1</v>
       </c>
-      <c r="F169" s="70"/>
+      <c r="F169" s="79"/>
       <c r="G169" s="17"/>
       <c r="H169" s="18"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="83" t="s">
+      <c r="A170" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B170" s="71" t="s">
+      <c r="B170" s="68" t="s">
         <v>18</v>
       </c>
       <c r="C170" s="7" t="s">
@@ -6295,33 +6507,33 @@
       <c r="E170" s="7">
         <v>2</v>
       </c>
-      <c r="F170" s="68" t="s">
-        <v>64</v>
+      <c r="F170" s="77" t="s">
+        <v>62</v>
       </c>
       <c r="G170" s="20"/>
       <c r="H170" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="73"/>
+      <c r="B171" s="69"/>
+      <c r="C171" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D171" s="12" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="84"/>
-      <c r="B171" s="72"/>
-      <c r="C171" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D171" s="12" t="s">
-        <v>249</v>
       </c>
       <c r="E171" s="11">
         <v>2</v>
       </c>
-      <c r="F171" s="69"/>
+      <c r="F171" s="78"/>
       <c r="G171" s="13"/>
       <c r="H171" s="21"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="84"/>
-      <c r="B172" s="72"/>
+      <c r="A172" s="73"/>
+      <c r="B172" s="69"/>
       <c r="C172" s="11" t="s">
         <v>50</v>
       </c>
@@ -6331,13 +6543,13 @@
       <c r="E172" s="11">
         <v>1</v>
       </c>
-      <c r="F172" s="69"/>
+      <c r="F172" s="78"/>
       <c r="G172" s="13"/>
       <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="85"/>
-      <c r="B173" s="66"/>
+      <c r="A173" s="72"/>
+      <c r="B173" s="70"/>
       <c r="C173" s="15" t="s">
         <v>50</v>
       </c>
@@ -6347,15 +6559,15 @@
       <c r="E173" s="15">
         <v>1</v>
       </c>
-      <c r="F173" s="70"/>
+      <c r="F173" s="79"/>
       <c r="G173" s="17"/>
       <c r="H173" s="18"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="83" t="s">
+      <c r="A174" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B174" s="71" t="s">
+      <c r="B174" s="68" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="7" t="s">
@@ -6367,17 +6579,17 @@
       <c r="E174" s="7">
         <v>6</v>
       </c>
-      <c r="F174" s="68" t="s">
-        <v>263</v>
+      <c r="F174" s="77" t="s">
+        <v>261</v>
       </c>
       <c r="G174" s="20"/>
       <c r="H174" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="84"/>
-      <c r="B175" s="72"/>
+      <c r="A175" s="73"/>
+      <c r="B175" s="69"/>
       <c r="C175" s="11" t="s">
         <v>52</v>
       </c>
@@ -6387,13 +6599,13 @@
       <c r="E175" s="11">
         <v>1</v>
       </c>
-      <c r="F175" s="69"/>
+      <c r="F175" s="78"/>
       <c r="G175" s="13"/>
       <c r="H175" s="14"/>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="85"/>
-      <c r="B176" s="66"/>
+      <c r="A176" s="72"/>
+      <c r="B176" s="70"/>
       <c r="C176" s="15" t="s">
         <v>50</v>
       </c>
@@ -6403,15 +6615,15 @@
       <c r="E176" s="15">
         <v>1</v>
       </c>
-      <c r="F176" s="70"/>
+      <c r="F176" s="79"/>
       <c r="G176" s="17"/>
       <c r="H176" s="18"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="82" t="s">
+      <c r="A177" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B177" s="73" t="s">
+      <c r="B177" s="82" t="s">
         <v>15</v>
       </c>
       <c r="C177" s="3" t="s">
@@ -6424,15 +6636,15 @@
         <v>1</v>
       </c>
       <c r="F177" s="67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="82"/>
-      <c r="B178" s="73"/>
+      <c r="A178" s="91"/>
+      <c r="B178" s="82"/>
       <c r="C178" s="3" t="s">
         <v>50</v>
       </c>
@@ -6445,17 +6657,17 @@
       <c r="F178" s="67"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="83" t="s">
+      <c r="A179" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B179" s="71" t="s">
-        <v>121</v>
+      <c r="B179" s="68" t="s">
+        <v>119</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E179" s="7">
         <v>3</v>
@@ -6463,17 +6675,17 @@
       <c r="F179" s="22"/>
       <c r="G179" s="20"/>
       <c r="H179" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="84"/>
-      <c r="B180" s="72"/>
+      <c r="A180" s="73"/>
+      <c r="B180" s="69"/>
       <c r="C180" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E180" s="11">
         <v>3</v>
@@ -6483,13 +6695,13 @@
       <c r="H180" s="14"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="84"/>
-      <c r="B181" s="72"/>
+      <c r="A181" s="73"/>
+      <c r="B181" s="69"/>
       <c r="C181" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E181" s="11">
         <v>4</v>
@@ -6499,13 +6711,13 @@
       <c r="H181" s="14"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="84"/>
-      <c r="B182" s="72"/>
+      <c r="A182" s="73"/>
+      <c r="B182" s="69"/>
       <c r="C182" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E182" s="11">
         <v>3</v>
@@ -6515,13 +6727,13 @@
       <c r="H182" s="14"/>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="84"/>
-      <c r="B183" s="72"/>
+      <c r="A183" s="73"/>
+      <c r="B183" s="69"/>
       <c r="C183" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E183" s="11">
         <v>3</v>
@@ -6531,13 +6743,13 @@
       <c r="H183" s="14"/>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="84"/>
-      <c r="B184" s="72"/>
+      <c r="A184" s="73"/>
+      <c r="B184" s="69"/>
       <c r="C184" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E184" s="11">
         <v>1</v>
@@ -6547,17 +6759,17 @@
       <c r="H184" s="14"/>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="83" t="s">
+      <c r="A185" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B185" s="71" t="s">
-        <v>122</v>
+      <c r="B185" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E185" s="7">
         <v>3</v>
@@ -6565,17 +6777,17 @@
       <c r="F185" s="22"/>
       <c r="G185" s="20"/>
       <c r="H185" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="84"/>
-      <c r="B186" s="72"/>
+      <c r="A186" s="73"/>
+      <c r="B186" s="69"/>
       <c r="C186" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E186" s="11">
         <v>9</v>
@@ -6585,13 +6797,13 @@
       <c r="H186" s="21"/>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="84"/>
-      <c r="B187" s="72"/>
+      <c r="A187" s="73"/>
+      <c r="B187" s="69"/>
       <c r="C187" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E187" s="11">
         <v>24</v>
@@ -6601,17 +6813,17 @@
       <c r="H187" s="14"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="83" t="s">
+      <c r="A188" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B188" s="71" t="s">
-        <v>123</v>
+      <c r="B188" s="68" t="s">
+        <v>121</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E188" s="7">
         <v>5</v>
@@ -6619,17 +6831,17 @@
       <c r="F188" s="22"/>
       <c r="G188" s="20"/>
       <c r="H188" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="84"/>
-      <c r="B189" s="72"/>
+      <c r="A189" s="73"/>
+      <c r="B189" s="69"/>
       <c r="C189" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E189" s="11">
         <v>3</v>
@@ -6639,13 +6851,13 @@
       <c r="H189" s="21"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="85"/>
-      <c r="B190" s="66"/>
+      <c r="A190" s="72"/>
+      <c r="B190" s="70"/>
       <c r="C190" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E190" s="15">
         <v>1</v>
@@ -6655,17 +6867,17 @@
       <c r="H190" s="18"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="83" t="s">
+      <c r="A191" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B191" s="71" t="s">
-        <v>124</v>
+      <c r="B191" s="68" t="s">
+        <v>122</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E191" s="7">
         <v>1</v>
@@ -6673,17 +6885,17 @@
       <c r="F191" s="22"/>
       <c r="G191" s="20"/>
       <c r="H191" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="84"/>
-      <c r="B192" s="72"/>
+      <c r="A192" s="73"/>
+      <c r="B192" s="69"/>
       <c r="C192" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E192" s="11">
         <v>3</v>
@@ -6693,13 +6905,13 @@
       <c r="H192" s="21"/>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="84"/>
-      <c r="B193" s="72"/>
+      <c r="A193" s="73"/>
+      <c r="B193" s="69"/>
       <c r="C193" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E193" s="11">
         <v>1</v>
@@ -6709,13 +6921,13 @@
       <c r="H193" s="14"/>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="85"/>
-      <c r="B194" s="66"/>
+      <c r="A194" s="72"/>
+      <c r="B194" s="70"/>
       <c r="C194" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E194" s="15">
         <v>2</v>
@@ -6725,46 +6937,46 @@
       <c r="H194" s="18"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="82" t="s">
+      <c r="A195" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B195" s="73" t="s">
-        <v>125</v>
+      <c r="B195" s="82" t="s">
+        <v>123</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E195" s="3">
         <v>2</v>
       </c>
       <c r="H195" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="82"/>
-      <c r="B196" s="73"/>
+      <c r="A196" s="91"/>
+      <c r="B196" s="82"/>
       <c r="C196" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E196" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="82"/>
-      <c r="B197" s="73"/>
+      <c r="A197" s="91"/>
+      <c r="B197" s="82"/>
       <c r="C197" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E197" s="3">
         <v>2</v>
@@ -6772,16 +6984,16 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="26" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D198" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E198" s="28">
         <v>5</v>
@@ -6789,21 +7001,21 @@
       <c r="F198" s="30"/>
       <c r="G198" s="31"/>
       <c r="H198" s="32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="83" t="s">
+      <c r="A199" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B199" s="71" t="s">
-        <v>126</v>
+      <c r="B199" s="68" t="s">
+        <v>124</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E199" s="7">
         <v>1</v>
@@ -6811,17 +7023,17 @@
       <c r="F199" s="22"/>
       <c r="G199" s="20"/>
       <c r="H199" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="85"/>
-      <c r="B200" s="66"/>
+      <c r="A200" s="72"/>
+      <c r="B200" s="70"/>
       <c r="C200" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D200" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E200" s="15">
         <v>1</v>
@@ -6831,17 +7043,17 @@
       <c r="H200" s="18"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="83" t="s">
+      <c r="A201" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B201" s="71" t="s">
-        <v>127</v>
+      <c r="B201" s="68" t="s">
+        <v>125</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E201" s="7">
         <v>18</v>
@@ -6849,17 +7061,17 @@
       <c r="F201" s="22"/>
       <c r="G201" s="20"/>
       <c r="H201" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="85"/>
-      <c r="B202" s="66"/>
+      <c r="A202" s="72"/>
+      <c r="B202" s="70"/>
       <c r="C202" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D202" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E202" s="15">
         <v>6</v>
@@ -6869,17 +7081,17 @@
       <c r="H202" s="18"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="83" t="s">
+      <c r="A203" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B203" s="71" t="s">
-        <v>128</v>
+      <c r="B203" s="68" t="s">
+        <v>126</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E203" s="7">
         <v>3</v>
@@ -6887,17 +7099,17 @@
       <c r="F203" s="22"/>
       <c r="G203" s="20"/>
       <c r="H203" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="84"/>
-      <c r="B204" s="72"/>
+      <c r="A204" s="73"/>
+      <c r="B204" s="69"/>
       <c r="C204" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E204" s="11">
         <v>4</v>
@@ -6907,13 +7119,13 @@
       <c r="H204" s="14"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="84"/>
-      <c r="B205" s="72"/>
+      <c r="A205" s="73"/>
+      <c r="B205" s="69"/>
       <c r="C205" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E205" s="11">
         <v>1</v>
@@ -6923,13 +7135,13 @@
       <c r="H205" s="14"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="85"/>
-      <c r="B206" s="66"/>
+      <c r="A206" s="72"/>
+      <c r="B206" s="70"/>
       <c r="C206" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D206" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E206" s="15">
         <v>2</v>
@@ -6939,17 +7151,17 @@
       <c r="H206" s="18"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="83" t="s">
+      <c r="A207" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B207" s="71" t="s">
-        <v>129</v>
+      <c r="B207" s="68" t="s">
+        <v>127</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E207" s="7">
         <v>7</v>
@@ -6957,17 +7169,17 @@
       <c r="F207" s="22"/>
       <c r="G207" s="20"/>
       <c r="H207" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="84"/>
-      <c r="B208" s="72"/>
+      <c r="A208" s="73"/>
+      <c r="B208" s="69"/>
       <c r="C208" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E208" s="11">
         <v>1</v>
@@ -6977,13 +7189,13 @@
       <c r="H208" s="14"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="84"/>
-      <c r="B209" s="72"/>
+      <c r="A209" s="73"/>
+      <c r="B209" s="69"/>
       <c r="C209" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E209" s="11">
         <v>3</v>
@@ -6993,13 +7205,13 @@
       <c r="H209" s="14"/>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="84"/>
-      <c r="B210" s="72"/>
+      <c r="A210" s="73"/>
+      <c r="B210" s="69"/>
       <c r="C210" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E210" s="11">
         <v>1</v>
@@ -7009,13 +7221,13 @@
       <c r="H210" s="14"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="84"/>
-      <c r="B211" s="72"/>
+      <c r="A211" s="73"/>
+      <c r="B211" s="69"/>
       <c r="C211" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E211" s="11">
         <v>9</v>
@@ -7025,13 +7237,13 @@
       <c r="H211" s="14"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="85"/>
-      <c r="B212" s="66"/>
+      <c r="A212" s="72"/>
+      <c r="B212" s="70"/>
       <c r="C212" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E212" s="15">
         <v>1</v>
@@ -7045,13 +7257,13 @@
         <v>6</v>
       </c>
       <c r="B213" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D213" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E213" s="28">
         <v>3</v>
@@ -7059,21 +7271,21 @@
       <c r="F213" s="30"/>
       <c r="G213" s="31"/>
       <c r="H213" s="32" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="83" t="s">
+      <c r="A214" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B214" s="71" t="s">
-        <v>131</v>
+      <c r="B214" s="68" t="s">
+        <v>129</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E214" s="7">
         <v>4</v>
@@ -7081,17 +7293,17 @@
       <c r="F214" s="22"/>
       <c r="G214" s="20"/>
       <c r="H214" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="84"/>
-      <c r="B215" s="72"/>
+      <c r="A215" s="73"/>
+      <c r="B215" s="69"/>
       <c r="C215" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E215" s="11">
         <v>2</v>
@@ -7101,13 +7313,13 @@
       <c r="H215" s="14"/>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="85"/>
-      <c r="B216" s="66"/>
+      <c r="A216" s="72"/>
+      <c r="B216" s="70"/>
       <c r="C216" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D216" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E216" s="15">
         <v>1</v>
@@ -7117,17 +7329,17 @@
       <c r="H216" s="18"/>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="83" t="s">
-        <v>391</v>
-      </c>
-      <c r="B217" s="71" t="s">
-        <v>390</v>
+      <c r="A217" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="B217" s="68" t="s">
+        <v>387</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E217" s="7">
         <v>1</v>
@@ -7135,17 +7347,17 @@
       <c r="F217" s="22"/>
       <c r="G217" s="20"/>
       <c r="H217" s="54" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="85"/>
-      <c r="B218" s="66"/>
+      <c r="A218" s="72"/>
+      <c r="B218" s="70"/>
       <c r="C218" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E218" s="15">
         <v>15</v>
@@ -7158,7 +7370,7 @@
       <c r="A219" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B219" s="73" t="s">
+      <c r="B219" s="82" t="s">
         <v>24</v>
       </c>
       <c r="C219" s="3" t="s">
@@ -7171,20 +7383,20 @@
         <v>4</v>
       </c>
       <c r="F219" s="67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H219" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="33"/>
-      <c r="B220" s="73"/>
+      <c r="B220" s="82"/>
       <c r="C220" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E220" s="3">
         <v>1</v>
@@ -7196,7 +7408,7 @@
       <c r="A221" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B221" s="73"/>
+      <c r="B221" s="82"/>
       <c r="C221" s="3" t="s">
         <v>50</v>
       </c>
@@ -7212,7 +7424,7 @@
       <c r="A222" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B222" s="71" t="s">
+      <c r="B222" s="68" t="s">
         <v>25</v>
       </c>
       <c r="C222" s="7" t="s">
@@ -7224,19 +7436,19 @@
       <c r="E222" s="7">
         <v>2</v>
       </c>
-      <c r="F222" s="68" t="s">
-        <v>67</v>
+      <c r="F222" s="77" t="s">
+        <v>65</v>
       </c>
       <c r="G222" s="20"/>
       <c r="H222" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B223" s="66"/>
+      <c r="B223" s="70"/>
       <c r="C223" s="15" t="s">
         <v>50</v>
       </c>
@@ -7246,7 +7458,7 @@
       <c r="E223" s="15">
         <v>1</v>
       </c>
-      <c r="F223" s="70"/>
+      <c r="F223" s="79"/>
       <c r="G223" s="17"/>
       <c r="H223" s="18"/>
     </row>
@@ -7254,7 +7466,7 @@
       <c r="A224" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B224" s="73" t="s">
+      <c r="B224" s="82" t="s">
         <v>26</v>
       </c>
       <c r="C224" s="3" t="s">
@@ -7267,17 +7479,17 @@
         <v>1</v>
       </c>
       <c r="F224" s="67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H224" s="19" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B225" s="73"/>
+      <c r="B225" s="82"/>
       <c r="C225" s="3" t="s">
         <v>50</v>
       </c>
@@ -7290,10 +7502,10 @@
       <c r="F225" s="67"/>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="63" t="s">
+      <c r="A226" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B226" s="71" t="s">
+      <c r="B226" s="68" t="s">
         <v>30</v>
       </c>
       <c r="C226" s="7" t="s">
@@ -7305,17 +7517,17 @@
       <c r="E226" s="7">
         <v>1</v>
       </c>
-      <c r="F226" s="68" t="s">
-        <v>69</v>
+      <c r="F226" s="77" t="s">
+        <v>67</v>
       </c>
       <c r="G226" s="20"/>
       <c r="H226" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="97"/>
-      <c r="B227" s="72"/>
+      <c r="A227" s="80"/>
+      <c r="B227" s="69"/>
       <c r="C227" s="11" t="s">
         <v>50</v>
       </c>
@@ -7325,13 +7537,13 @@
       <c r="E227" s="11">
         <v>1</v>
       </c>
-      <c r="F227" s="69"/>
+      <c r="F227" s="78"/>
       <c r="G227" s="13"/>
       <c r="H227" s="14"/>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="64"/>
-      <c r="B228" s="66"/>
+      <c r="A228" s="75"/>
+      <c r="B228" s="70"/>
       <c r="C228" s="15" t="s">
         <v>51</v>
       </c>
@@ -7341,7 +7553,7 @@
       <c r="E228" s="15">
         <v>3</v>
       </c>
-      <c r="F228" s="70"/>
+      <c r="F228" s="79"/>
       <c r="G228" s="17"/>
       <c r="H228" s="18"/>
     </row>
@@ -7349,7 +7561,7 @@
       <c r="A229" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B229" s="73" t="s">
+      <c r="B229" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -7362,17 +7574,17 @@
         <v>1</v>
       </c>
       <c r="F229" s="67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H229" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B230" s="73"/>
+      <c r="B230" s="82"/>
       <c r="C230" s="3" t="s">
         <v>50</v>
       </c>
@@ -7385,10 +7597,10 @@
       <c r="F230" s="67"/>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="63" t="s">
+      <c r="A231" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B231" s="71" t="s">
+      <c r="B231" s="68" t="s">
         <v>35</v>
       </c>
       <c r="C231" s="7" t="s">
@@ -7400,17 +7612,17 @@
       <c r="E231" s="7">
         <v>2</v>
       </c>
-      <c r="F231" s="68" t="s">
-        <v>71</v>
+      <c r="F231" s="77" t="s">
+        <v>69</v>
       </c>
       <c r="G231" s="20"/>
       <c r="H231" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="97"/>
-      <c r="B232" s="72"/>
+      <c r="A232" s="80"/>
+      <c r="B232" s="69"/>
       <c r="C232" s="11" t="s">
         <v>52</v>
       </c>
@@ -7420,13 +7632,13 @@
       <c r="E232" s="11">
         <v>3</v>
       </c>
-      <c r="F232" s="69"/>
+      <c r="F232" s="78"/>
       <c r="G232" s="13"/>
       <c r="H232" s="14"/>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="97"/>
-      <c r="B233" s="72"/>
+      <c r="A233" s="80"/>
+      <c r="B233" s="69"/>
       <c r="C233" s="11" t="s">
         <v>50</v>
       </c>
@@ -7436,13 +7648,13 @@
       <c r="E233" s="11">
         <v>2</v>
       </c>
-      <c r="F233" s="69"/>
+      <c r="F233" s="78"/>
       <c r="G233" s="13"/>
       <c r="H233" s="14"/>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" s="64"/>
-      <c r="B234" s="66"/>
+      <c r="A234" s="75"/>
+      <c r="B234" s="70"/>
       <c r="C234" s="15" t="s">
         <v>50</v>
       </c>
@@ -7452,15 +7664,15 @@
       <c r="E234" s="15">
         <v>1</v>
       </c>
-      <c r="F234" s="70"/>
+      <c r="F234" s="79"/>
       <c r="G234" s="17"/>
       <c r="H234" s="18"/>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="63" t="s">
+      <c r="A235" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B235" s="71" t="s">
+      <c r="B235" s="68" t="s">
         <v>28</v>
       </c>
       <c r="C235" s="7" t="s">
@@ -7472,17 +7684,17 @@
       <c r="E235" s="7">
         <v>2</v>
       </c>
-      <c r="F235" s="68" t="s">
-        <v>72</v>
+      <c r="F235" s="77" t="s">
+        <v>70</v>
       </c>
       <c r="G235" s="20"/>
       <c r="H235" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="64"/>
-      <c r="B236" s="66"/>
+      <c r="A236" s="75"/>
+      <c r="B236" s="70"/>
       <c r="C236" s="15" t="s">
         <v>50</v>
       </c>
@@ -7492,15 +7704,15 @@
       <c r="E236" s="15">
         <v>1</v>
       </c>
-      <c r="F236" s="70"/>
+      <c r="F236" s="79"/>
       <c r="G236" s="17"/>
       <c r="H236" s="18"/>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="63" t="s">
+      <c r="A237" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B237" s="71" t="s">
+      <c r="B237" s="68" t="s">
         <v>36</v>
       </c>
       <c r="C237" s="7" t="s">
@@ -7512,65 +7724,65 @@
       <c r="E237" s="7">
         <v>2</v>
       </c>
-      <c r="F237" s="68" t="s">
-        <v>73</v>
+      <c r="F237" s="77" t="s">
+        <v>71</v>
       </c>
       <c r="G237" s="20"/>
       <c r="H237" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="97"/>
-      <c r="B238" s="72"/>
+      <c r="A238" s="80"/>
+      <c r="B238" s="69"/>
       <c r="C238" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E238" s="11">
         <v>1</v>
       </c>
-      <c r="F238" s="69"/>
+      <c r="F238" s="78"/>
       <c r="G238" s="13"/>
       <c r="H238" s="21"/>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="97"/>
-      <c r="B239" s="72"/>
+      <c r="A239" s="80"/>
+      <c r="B239" s="69"/>
       <c r="C239" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E239" s="11">
         <v>1</v>
       </c>
-      <c r="F239" s="69"/>
+      <c r="F239" s="78"/>
       <c r="G239" s="13"/>
       <c r="H239" s="21"/>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="97"/>
-      <c r="B240" s="72"/>
+      <c r="A240" s="80"/>
+      <c r="B240" s="69"/>
       <c r="C240" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E240" s="11">
         <v>1</v>
       </c>
-      <c r="F240" s="69"/>
+      <c r="F240" s="78"/>
       <c r="G240" s="13"/>
       <c r="H240" s="21"/>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="97"/>
-      <c r="B241" s="72"/>
+      <c r="A241" s="80"/>
+      <c r="B241" s="69"/>
       <c r="C241" s="11" t="s">
         <v>52</v>
       </c>
@@ -7580,13 +7792,13 @@
       <c r="E241" s="11">
         <v>2</v>
       </c>
-      <c r="F241" s="69"/>
+      <c r="F241" s="78"/>
       <c r="G241" s="13"/>
       <c r="H241" s="14"/>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="97"/>
-      <c r="B242" s="72"/>
+      <c r="A242" s="80"/>
+      <c r="B242" s="69"/>
       <c r="C242" s="11" t="s">
         <v>50</v>
       </c>
@@ -7596,13 +7808,13 @@
       <c r="E242" s="11">
         <v>2</v>
       </c>
-      <c r="F242" s="69"/>
+      <c r="F242" s="78"/>
       <c r="G242" s="13"/>
       <c r="H242" s="14"/>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="97"/>
-      <c r="B243" s="72"/>
+      <c r="A243" s="80"/>
+      <c r="B243" s="69"/>
       <c r="C243" s="11" t="s">
         <v>50</v>
       </c>
@@ -7612,13 +7824,13 @@
       <c r="E243" s="11">
         <v>1</v>
       </c>
-      <c r="F243" s="69"/>
+      <c r="F243" s="78"/>
       <c r="G243" s="13"/>
       <c r="H243" s="14"/>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244" s="64"/>
-      <c r="B244" s="66"/>
+      <c r="A244" s="75"/>
+      <c r="B244" s="70"/>
       <c r="C244" s="15" t="s">
         <v>51</v>
       </c>
@@ -7628,15 +7840,15 @@
       <c r="E244" s="15">
         <v>3</v>
       </c>
-      <c r="F244" s="70"/>
+      <c r="F244" s="79"/>
       <c r="G244" s="17"/>
       <c r="H244" s="18"/>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="63" t="s">
+      <c r="A245" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B245" s="77" t="s">
+      <c r="B245" s="86" t="s">
         <v>34</v>
       </c>
       <c r="C245" s="7" t="s">
@@ -7648,17 +7860,17 @@
       <c r="E245" s="37">
         <v>1</v>
       </c>
-      <c r="F245" s="74" t="s">
-        <v>74</v>
+      <c r="F245" s="83" t="s">
+        <v>72</v>
       </c>
       <c r="G245" s="38"/>
       <c r="H245" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="97"/>
-      <c r="B246" s="78"/>
+      <c r="A246" s="80"/>
+      <c r="B246" s="87"/>
       <c r="C246" s="11" t="s">
         <v>52</v>
       </c>
@@ -7668,13 +7880,13 @@
       <c r="E246" s="40">
         <v>2</v>
       </c>
-      <c r="F246" s="75"/>
+      <c r="F246" s="84"/>
       <c r="G246" s="41"/>
       <c r="H246" s="14"/>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="97"/>
-      <c r="B247" s="78"/>
+      <c r="A247" s="80"/>
+      <c r="B247" s="87"/>
       <c r="C247" s="11" t="s">
         <v>50</v>
       </c>
@@ -7684,13 +7896,13 @@
       <c r="E247" s="40">
         <v>1</v>
       </c>
-      <c r="F247" s="75"/>
+      <c r="F247" s="84"/>
       <c r="G247" s="41"/>
       <c r="H247" s="14"/>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="64"/>
-      <c r="B248" s="79"/>
+      <c r="A248" s="75"/>
+      <c r="B248" s="88"/>
       <c r="C248" s="15" t="s">
         <v>51</v>
       </c>
@@ -7700,15 +7912,15 @@
       <c r="E248" s="43">
         <v>3</v>
       </c>
-      <c r="F248" s="76"/>
+      <c r="F248" s="85"/>
       <c r="G248" s="44"/>
       <c r="H248" s="18"/>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="63" t="s">
+      <c r="A249" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B249" s="71" t="s">
+      <c r="B249" s="68" t="s">
         <v>33</v>
       </c>
       <c r="C249" s="7" t="s">
@@ -7720,17 +7932,17 @@
       <c r="E249" s="7">
         <v>4</v>
       </c>
-      <c r="F249" s="68" t="s">
-        <v>75</v>
+      <c r="F249" s="77" t="s">
+        <v>73</v>
       </c>
       <c r="G249" s="20"/>
       <c r="H249" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="97"/>
-      <c r="B250" s="72"/>
+      <c r="A250" s="80"/>
+      <c r="B250" s="69"/>
       <c r="C250" s="11" t="s">
         <v>52</v>
       </c>
@@ -7740,13 +7952,13 @@
       <c r="E250" s="11">
         <v>2</v>
       </c>
-      <c r="F250" s="69"/>
+      <c r="F250" s="78"/>
       <c r="G250" s="13"/>
       <c r="H250" s="14"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="64"/>
-      <c r="B251" s="66"/>
+      <c r="A251" s="75"/>
+      <c r="B251" s="70"/>
       <c r="C251" s="15" t="s">
         <v>50</v>
       </c>
@@ -7756,15 +7968,15 @@
       <c r="E251" s="15">
         <v>1</v>
       </c>
-      <c r="F251" s="70"/>
+      <c r="F251" s="79"/>
       <c r="G251" s="17"/>
       <c r="H251" s="18"/>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="98" t="s">
+      <c r="A252" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B252" s="73" t="s">
+      <c r="B252" s="82" t="s">
         <v>27</v>
       </c>
       <c r="C252" s="3" t="s">
@@ -7777,15 +7989,15 @@
         <v>2</v>
       </c>
       <c r="F252" s="67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H252" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="98"/>
-      <c r="B253" s="73"/>
+      <c r="A253" s="81"/>
+      <c r="B253" s="82"/>
       <c r="C253" s="3" t="s">
         <v>50</v>
       </c>
@@ -7798,8 +8010,8 @@
       <c r="F253" s="67"/>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="98"/>
-      <c r="B254" s="73"/>
+      <c r="A254" s="81"/>
+      <c r="B254" s="82"/>
       <c r="C254" s="3" t="s">
         <v>51</v>
       </c>
@@ -7812,10 +8024,10 @@
       <c r="F254" s="67"/>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="63" t="s">
+      <c r="A255" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B255" s="71" t="s">
+      <c r="B255" s="68" t="s">
         <v>31</v>
       </c>
       <c r="C255" s="7" t="s">
@@ -7827,17 +8039,17 @@
       <c r="E255" s="7">
         <v>6</v>
       </c>
-      <c r="F255" s="68" t="s">
-        <v>77</v>
+      <c r="F255" s="77" t="s">
+        <v>75</v>
       </c>
       <c r="G255" s="20"/>
       <c r="H255" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="97"/>
-      <c r="B256" s="72"/>
+      <c r="A256" s="80"/>
+      <c r="B256" s="69"/>
       <c r="C256" s="11" t="s">
         <v>50</v>
       </c>
@@ -7847,13 +8059,13 @@
       <c r="E256" s="11">
         <v>2</v>
       </c>
-      <c r="F256" s="69"/>
+      <c r="F256" s="78"/>
       <c r="G256" s="13"/>
       <c r="H256" s="14"/>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="64"/>
-      <c r="B257" s="66"/>
+      <c r="A257" s="75"/>
+      <c r="B257" s="70"/>
       <c r="C257" s="15" t="s">
         <v>50</v>
       </c>
@@ -7863,7 +8075,7 @@
       <c r="E257" s="15">
         <v>1</v>
       </c>
-      <c r="F257" s="70"/>
+      <c r="F257" s="79"/>
       <c r="G257" s="17"/>
       <c r="H257" s="18"/>
     </row>
@@ -7884,25 +8096,25 @@
         <v>1</v>
       </c>
       <c r="F258" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G258" s="31"/>
       <c r="H258" s="32" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="63" t="s">
+      <c r="A259" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B259" s="71" t="s">
-        <v>101</v>
+      <c r="B259" s="68" t="s">
+        <v>99</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E259" s="7">
         <v>4</v>
@@ -7910,17 +8122,17 @@
       <c r="F259" s="22"/>
       <c r="G259" s="20"/>
       <c r="H259" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" s="64"/>
-      <c r="B260" s="66"/>
+      <c r="A260" s="75"/>
+      <c r="B260" s="70"/>
       <c r="C260" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E260" s="15">
         <v>2</v>
@@ -7934,13 +8146,13 @@
         <v>23</v>
       </c>
       <c r="B261" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C261" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D261" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E261" s="28">
         <v>2</v>
@@ -7948,21 +8160,21 @@
       <c r="F261" s="30"/>
       <c r="G261" s="31"/>
       <c r="H261" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="63" t="s">
+      <c r="A262" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B262" s="71" t="s">
-        <v>103</v>
+      <c r="B262" s="68" t="s">
+        <v>101</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E262" s="7">
         <v>1</v>
@@ -7970,17 +8182,17 @@
       <c r="F262" s="22"/>
       <c r="G262" s="20"/>
       <c r="H262" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" s="64"/>
-      <c r="B263" s="66"/>
+      <c r="A263" s="75"/>
+      <c r="B263" s="70"/>
       <c r="C263" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D263" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E263" s="15">
         <v>1</v>
@@ -7990,46 +8202,46 @@
       <c r="H263" s="18"/>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="98" t="s">
+      <c r="A264" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B264" s="73" t="s">
-        <v>104</v>
+      <c r="B264" s="82" t="s">
+        <v>102</v>
       </c>
       <c r="C264" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E264" s="3">
+        <v>1</v>
+      </c>
+      <c r="H264" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="81"/>
+      <c r="B265" s="82"/>
+      <c r="C265" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D265" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D264" s="4" t="s">
+      <c r="E265" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="81"/>
+      <c r="B266" s="82"/>
+      <c r="C266" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D266" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="E264" s="3">
-        <v>1</v>
-      </c>
-      <c r="H264" s="19" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" s="98"/>
-      <c r="B265" s="73"/>
-      <c r="C265" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D265" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E265" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" s="98"/>
-      <c r="B266" s="73"/>
-      <c r="C266" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="E266" s="3">
         <v>1</v>
@@ -8037,16 +8249,16 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="45" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B267" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="C267" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D267" s="29" t="s">
         <v>327</v>
-      </c>
-      <c r="C267" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D267" s="29" t="s">
-        <v>330</v>
       </c>
       <c r="E267" s="28">
         <v>3</v>
@@ -8054,21 +8266,21 @@
       <c r="F267" s="30"/>
       <c r="G267" s="31"/>
       <c r="H267" s="32" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268" s="63" t="s">
-        <v>301</v>
-      </c>
-      <c r="B268" s="71" t="s">
-        <v>325</v>
+      <c r="A268" s="74" t="s">
+        <v>298</v>
+      </c>
+      <c r="B268" s="68" t="s">
+        <v>322</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E268" s="7">
         <v>13</v>
@@ -8076,17 +8288,17 @@
       <c r="F268" s="22"/>
       <c r="G268" s="20"/>
       <c r="H268" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="269" spans="1:8">
-      <c r="A269" s="64"/>
-      <c r="B269" s="66"/>
+      <c r="A269" s="75"/>
+      <c r="B269" s="70"/>
       <c r="C269" s="15" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D269" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E269" s="15">
         <v>4</v>
@@ -8096,17 +8308,17 @@
       <c r="H269" s="47"/>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270" s="63" t="s">
+      <c r="A270" s="74" t="s">
+        <v>371</v>
+      </c>
+      <c r="B270" s="68" t="s">
+        <v>320</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D270" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="B270" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D270" s="8" t="s">
-        <v>377</v>
       </c>
       <c r="E270" s="7">
         <v>15</v>
@@ -8114,17 +8326,17 @@
       <c r="F270" s="22"/>
       <c r="G270" s="20"/>
       <c r="H270" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="271" spans="1:8">
-      <c r="A271" s="64"/>
-      <c r="B271" s="66"/>
+      <c r="A271" s="75"/>
+      <c r="B271" s="70"/>
       <c r="C271" s="15" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D271" s="16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E271" s="15">
         <v>5</v>
@@ -8135,16 +8347,16 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="45" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B272" s="27" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D272" s="29" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E272" s="28">
         <v>1</v>
@@ -8152,21 +8364,21 @@
       <c r="F272" s="30"/>
       <c r="G272" s="31"/>
       <c r="H272" s="32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="45" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B273" s="27" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D273" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E273" s="28">
         <v>3</v>
@@ -8174,7 +8386,7 @@
       <c r="F273" s="30"/>
       <c r="G273" s="31"/>
       <c r="H273" s="32" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8182,13 +8394,13 @@
         <v>23</v>
       </c>
       <c r="B274" s="27" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D274" s="29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E274" s="28">
         <v>2</v>
@@ -8196,7 +8408,7 @@
       <c r="F274" s="30"/>
       <c r="G274" s="31"/>
       <c r="H274" s="32" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8204,13 +8416,13 @@
         <v>23</v>
       </c>
       <c r="B275" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D275" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E275" s="28">
         <v>1</v>
@@ -8218,21 +8430,21 @@
       <c r="F275" s="30"/>
       <c r="G275" s="31"/>
       <c r="H275" s="32" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="63" t="s">
+      <c r="A276" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B276" s="71" t="s">
-        <v>106</v>
+      <c r="B276" s="68" t="s">
+        <v>104</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E276" s="7">
         <v>2</v>
@@ -8240,17 +8452,17 @@
       <c r="F276" s="22"/>
       <c r="G276" s="20"/>
       <c r="H276" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="97"/>
-      <c r="B277" s="72"/>
+      <c r="A277" s="80"/>
+      <c r="B277" s="69"/>
       <c r="C277" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E277" s="11">
         <v>13</v>
@@ -8260,13 +8472,13 @@
       <c r="H277" s="14"/>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="97"/>
-      <c r="B278" s="72"/>
+      <c r="A278" s="80"/>
+      <c r="B278" s="69"/>
       <c r="C278" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E278" s="11">
         <v>4</v>
@@ -8276,13 +8488,13 @@
       <c r="H278" s="14"/>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="97"/>
-      <c r="B279" s="72"/>
+      <c r="A279" s="80"/>
+      <c r="B279" s="69"/>
       <c r="C279" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E279" s="11">
         <v>1</v>
@@ -8292,13 +8504,13 @@
       <c r="H279" s="14"/>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280" s="64"/>
-      <c r="B280" s="66"/>
+      <c r="A280" s="75"/>
+      <c r="B280" s="70"/>
       <c r="C280" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D280" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E280" s="15">
         <v>13</v>
@@ -8308,17 +8520,17 @@
       <c r="H280" s="18"/>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="63" t="s">
+      <c r="A281" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B281" s="71" t="s">
-        <v>304</v>
+      <c r="B281" s="68" t="s">
+        <v>301</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E281" s="7">
         <v>13</v>
@@ -8326,17 +8538,17 @@
       <c r="F281" s="22"/>
       <c r="G281" s="20"/>
       <c r="H281" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="97"/>
-      <c r="B282" s="72"/>
+      <c r="A282" s="80"/>
+      <c r="B282" s="69"/>
       <c r="C282" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E282" s="11">
         <v>5</v>
@@ -8346,13 +8558,13 @@
       <c r="H282" s="21"/>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="64"/>
-      <c r="B283" s="66"/>
+      <c r="A283" s="75"/>
+      <c r="B283" s="70"/>
       <c r="C283" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D283" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E283" s="15">
         <v>1</v>
@@ -8363,10 +8575,10 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="45" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B284" s="27" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C284" s="28"/>
       <c r="D284" s="29"/>
@@ -8374,15 +8586,15 @@
       <c r="F284" s="30"/>
       <c r="G284" s="31"/>
       <c r="H284" s="32" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="45" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B285" s="27" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C285" s="28"/>
       <c r="D285" s="29"/>
@@ -8390,15 +8602,15 @@
       <c r="F285" s="30"/>
       <c r="G285" s="31"/>
       <c r="H285" s="32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="45" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B286" s="27" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C286" s="28"/>
       <c r="D286" s="29"/>
@@ -8406,7 +8618,7 @@
       <c r="F286" s="30"/>
       <c r="G286" s="31"/>
       <c r="H286" s="32" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8414,13 +8626,13 @@
         <v>23</v>
       </c>
       <c r="B287" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C287" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D287" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E287" s="28">
         <v>1</v>
@@ -8428,15 +8640,15 @@
       <c r="F287" s="30"/>
       <c r="G287" s="31"/>
       <c r="H287" s="32" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B288" s="52" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C288" s="11"/>
       <c r="D288" s="12"/>
@@ -8444,14 +8656,14 @@
       <c r="F288" s="23"/>
       <c r="G288" s="13"/>
       <c r="H288" s="53" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="289" spans="1:8">
-      <c r="A289" s="80" t="s">
+      <c r="A289" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B289" s="71" t="s">
+      <c r="B289" s="68" t="s">
         <v>38</v>
       </c>
       <c r="C289" s="7" t="s">
@@ -8463,17 +8675,17 @@
       <c r="E289" s="7">
         <v>2</v>
       </c>
-      <c r="F289" s="68" t="s">
-        <v>79</v>
+      <c r="F289" s="77" t="s">
+        <v>77</v>
       </c>
       <c r="G289" s="20"/>
       <c r="H289" s="54" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290" s="86"/>
-      <c r="B290" s="72"/>
+      <c r="A290" s="92"/>
+      <c r="B290" s="69"/>
       <c r="C290" s="11" t="s">
         <v>52</v>
       </c>
@@ -8483,13 +8695,13 @@
       <c r="E290" s="11">
         <v>1</v>
       </c>
-      <c r="F290" s="69"/>
+      <c r="F290" s="78"/>
       <c r="G290" s="13"/>
       <c r="H290" s="14"/>
     </row>
     <row r="291" spans="1:8">
-      <c r="A291" s="86"/>
-      <c r="B291" s="72"/>
+      <c r="A291" s="92"/>
+      <c r="B291" s="69"/>
       <c r="C291" s="11" t="s">
         <v>50</v>
       </c>
@@ -8499,13 +8711,13 @@
       <c r="E291" s="11">
         <v>1</v>
       </c>
-      <c r="F291" s="69"/>
+      <c r="F291" s="78"/>
       <c r="G291" s="13"/>
       <c r="H291" s="14"/>
     </row>
     <row r="292" spans="1:8">
-      <c r="A292" s="81"/>
-      <c r="B292" s="66"/>
+      <c r="A292" s="90"/>
+      <c r="B292" s="70"/>
       <c r="C292" s="15" t="s">
         <v>50</v>
       </c>
@@ -8515,7 +8727,7 @@
       <c r="E292" s="15">
         <v>2</v>
       </c>
-      <c r="F292" s="70"/>
+      <c r="F292" s="79"/>
       <c r="G292" s="17"/>
       <c r="H292" s="18"/>
     </row>
@@ -8536,11 +8748,11 @@
         <v>1</v>
       </c>
       <c r="F293" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G293" s="31"/>
       <c r="H293" s="58" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8548,33 +8760,33 @@
         <v>37</v>
       </c>
       <c r="B294" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E294" s="3">
         <v>2</v>
       </c>
       <c r="H294" s="56" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="295" spans="1:8">
-      <c r="A295" s="80" t="s">
+      <c r="A295" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B295" s="71" t="s">
-        <v>91</v>
+      <c r="B295" s="68" t="s">
+        <v>89</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E295" s="7">
         <v>1</v>
@@ -8582,17 +8794,17 @@
       <c r="F295" s="22"/>
       <c r="G295" s="20"/>
       <c r="H295" s="54" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="A296" s="86"/>
-      <c r="B296" s="72"/>
+      <c r="A296" s="92"/>
+      <c r="B296" s="69"/>
       <c r="C296" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E296" s="11">
         <v>1</v>
@@ -8602,13 +8814,13 @@
       <c r="H296" s="14"/>
     </row>
     <row r="297" spans="1:8">
-      <c r="A297" s="86"/>
-      <c r="B297" s="72"/>
+      <c r="A297" s="92"/>
+      <c r="B297" s="69"/>
       <c r="C297" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E297" s="11">
         <v>2</v>
@@ -8618,13 +8830,13 @@
       <c r="H297" s="14"/>
     </row>
     <row r="298" spans="1:8">
-      <c r="A298" s="81"/>
-      <c r="B298" s="66"/>
+      <c r="A298" s="90"/>
+      <c r="B298" s="70"/>
       <c r="C298" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E298" s="15">
         <v>1</v>
@@ -8634,17 +8846,17 @@
       <c r="H298" s="18"/>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="80" t="s">
+      <c r="A299" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B299" s="71" t="s">
-        <v>92</v>
+      <c r="B299" s="68" t="s">
+        <v>90</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E299" s="7">
         <v>2</v>
@@ -8652,17 +8864,17 @@
       <c r="F299" s="22"/>
       <c r="G299" s="20"/>
       <c r="H299" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="300" spans="1:8">
-      <c r="A300" s="81"/>
-      <c r="B300" s="66"/>
+      <c r="A300" s="90"/>
+      <c r="B300" s="70"/>
       <c r="C300" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E300" s="15">
         <v>1</v>
@@ -8673,16 +8885,16 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="57" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B301" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="C301" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="D301" s="29" t="s">
         <v>397</v>
-      </c>
-      <c r="C301" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="D301" s="29" t="s">
-        <v>400</v>
       </c>
       <c r="E301" s="28">
         <v>1</v>
@@ -8690,7 +8902,7 @@
       <c r="F301" s="30"/>
       <c r="G301" s="31"/>
       <c r="H301" s="58" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8698,13 +8910,13 @@
         <v>37</v>
       </c>
       <c r="B302" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C302" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D302" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E302" s="28">
         <v>2</v>
@@ -8712,15 +8924,15 @@
       <c r="F302" s="30"/>
       <c r="G302" s="31"/>
       <c r="H302" s="32" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="57" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B303" s="27" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C303" s="28"/>
       <c r="D303" s="29"/>
@@ -8728,21 +8940,21 @@
       <c r="F303" s="30"/>
       <c r="G303" s="31"/>
       <c r="H303" s="58" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="57" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B304" s="27" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C304" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D304" s="29" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E304" s="28">
         <v>1</v>
@@ -8750,15 +8962,15 @@
       <c r="F304" s="30"/>
       <c r="G304" s="31"/>
       <c r="H304" s="58" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="57" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B305" s="27" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C305" s="28"/>
       <c r="D305" s="29"/>
@@ -8766,31 +8978,31 @@
       <c r="F305" s="30"/>
       <c r="G305" s="31"/>
       <c r="H305" s="58" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="60" t="s">
-        <v>408</v>
-      </c>
-      <c r="B306" s="11" t="s">
-        <v>416</v>
+        <v>405</v>
+      </c>
+      <c r="B306" s="62" t="s">
+        <v>452</v>
       </c>
       <c r="C306" s="11"/>
       <c r="D306" s="12"/>
       <c r="E306" s="11"/>
-      <c r="F306" s="23"/>
+      <c r="F306" s="64"/>
       <c r="G306" s="13"/>
       <c r="H306" s="53" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="61" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B307" s="62" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C307" s="11"/>
       <c r="D307" s="12"/>
@@ -8798,15 +9010,15 @@
       <c r="F307" s="23"/>
       <c r="G307" s="13"/>
       <c r="H307" s="53" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="57" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B308" s="27" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C308" s="28"/>
       <c r="D308" s="29"/>
@@ -8814,15 +9026,15 @@
       <c r="F308" s="30"/>
       <c r="G308" s="31"/>
       <c r="H308" s="58" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="60" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B309" s="62" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C309" s="11"/>
       <c r="D309" s="12"/>
@@ -8830,47 +9042,51 @@
       <c r="F309" s="23"/>
       <c r="G309" s="13"/>
       <c r="H309" s="53" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="57" t="s">
-        <v>408</v>
-      </c>
-      <c r="B310" s="11" t="s">
-        <v>422</v>
+        <v>405</v>
+      </c>
+      <c r="B310" s="63" t="s">
+        <v>418</v>
       </c>
       <c r="C310" s="11"/>
       <c r="D310" s="12"/>
       <c r="E310" s="11"/>
-      <c r="F310" s="23"/>
+      <c r="F310" s="64" t="s">
+        <v>451</v>
+      </c>
       <c r="G310" s="13"/>
       <c r="H310" s="53" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="57" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C311" s="11"/>
       <c r="D311" s="12"/>
       <c r="E311" s="11"/>
-      <c r="F311" s="23"/>
+      <c r="F311" s="64" t="s">
+        <v>450</v>
+      </c>
       <c r="G311" s="13"/>
       <c r="H311" s="53" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B312" s="62" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C312" s="11"/>
       <c r="D312" s="12"/>
@@ -8878,15 +9094,15 @@
       <c r="F312" s="23"/>
       <c r="G312" s="13"/>
       <c r="H312" s="53" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B313" s="62" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C313" s="11"/>
       <c r="D313" s="12"/>
@@ -8894,47 +9110,51 @@
       <c r="F313" s="23"/>
       <c r="G313" s="13"/>
       <c r="H313" s="53" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="51" t="s">
-        <v>386</v>
-      </c>
-      <c r="B314" s="11" t="s">
-        <v>428</v>
+        <v>383</v>
+      </c>
+      <c r="B314" s="63" t="s">
+        <v>424</v>
       </c>
       <c r="C314" s="11"/>
       <c r="D314" s="12"/>
       <c r="E314" s="11"/>
-      <c r="F314" s="23"/>
+      <c r="F314" s="64" t="s">
+        <v>453</v>
+      </c>
       <c r="G314" s="13"/>
       <c r="H314" s="53" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="51" t="s">
-        <v>386</v>
-      </c>
-      <c r="B315" s="11" t="s">
-        <v>430</v>
+        <v>383</v>
+      </c>
+      <c r="B315" s="63" t="s">
+        <v>426</v>
       </c>
       <c r="C315" s="11"/>
       <c r="D315" s="12"/>
       <c r="E315" s="11"/>
-      <c r="F315" s="23"/>
+      <c r="F315" s="64" t="s">
+        <v>449</v>
+      </c>
       <c r="G315" s="13"/>
       <c r="H315" s="53" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="51" t="s">
-        <v>386</v>
-      </c>
-      <c r="B316" s="11" t="s">
-        <v>432</v>
+        <v>383</v>
+      </c>
+      <c r="B316" s="62" t="s">
+        <v>448</v>
       </c>
       <c r="C316" s="11"/>
       <c r="D316" s="12"/>
@@ -8942,21 +9162,21 @@
       <c r="F316" s="23"/>
       <c r="G316" s="13"/>
       <c r="H316" s="53" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="317" spans="1:8">
-      <c r="A317" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="B317" s="65" t="s">
-        <v>445</v>
+      <c r="A317" s="74" t="s">
+        <v>383</v>
+      </c>
+      <c r="B317" s="76" t="s">
+        <v>439</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E317" s="7">
         <v>6</v>
@@ -8964,17 +9184,17 @@
       <c r="F317" s="22"/>
       <c r="G317" s="20"/>
       <c r="H317" s="54" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="318" spans="1:8">
-      <c r="A318" s="64"/>
-      <c r="B318" s="66"/>
+      <c r="A318" s="75"/>
+      <c r="B318" s="70"/>
       <c r="C318" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D318" s="16" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E318" s="15">
         <v>8</v>
@@ -8985,10 +9205,10 @@
     </row>
     <row r="319" spans="1:8">
       <c r="A319" s="51" t="s">
-        <v>386</v>
-      </c>
-      <c r="B319" s="11" t="s">
-        <v>437</v>
+        <v>383</v>
+      </c>
+      <c r="B319" s="62" t="s">
+        <v>447</v>
       </c>
       <c r="C319" s="11"/>
       <c r="D319" s="12"/>
@@ -8996,15 +9216,15 @@
       <c r="F319" s="23"/>
       <c r="G319" s="13"/>
       <c r="H319" s="53" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B320" s="62" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C320" s="11"/>
       <c r="D320" s="12"/>
@@ -9012,54 +9232,59 @@
       <c r="F320" s="23"/>
       <c r="G320" s="13"/>
       <c r="H320" s="53" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="51" t="s">
-        <v>441</v>
-      </c>
-      <c r="B321" s="11" t="s">
-        <v>440</v>
+        <v>435</v>
+      </c>
+      <c r="B321" s="63" t="s">
+        <v>434</v>
       </c>
       <c r="C321" s="11"/>
       <c r="D321" s="12"/>
       <c r="E321" s="11"/>
-      <c r="F321" s="23"/>
+      <c r="F321" s="64" t="s">
+        <v>454</v>
+      </c>
       <c r="G321" s="13"/>
       <c r="H321" s="53" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="322" spans="1:8">
       <c r="A322" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B322" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E322" s="3">
+        <v>1</v>
+      </c>
+      <c r="H322" s="56" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B323" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B322" s="49" t="s">
+      <c r="C323" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D323" s="29" t="s">
         <v>86</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D322" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E322" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
-      <c r="A323" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B323" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C323" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D323" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="E323" s="28">
         <v>9</v>
@@ -9067,76 +9292,150 @@
       <c r="F323" s="30"/>
       <c r="G323" s="31"/>
       <c r="H323" s="32" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="324" spans="1:8">
       <c r="A324" s="50" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B324" s="27" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C324" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D324" s="29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E324" s="28">
         <v>1</v>
       </c>
-      <c r="F324" s="30"/>
+      <c r="F324" s="66" t="s">
+        <v>469</v>
+      </c>
       <c r="G324" s="31"/>
       <c r="H324" s="59"/>
     </row>
+    <row r="325" spans="1:8">
+      <c r="A325" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="B325" s="65" t="s">
+        <v>456</v>
+      </c>
+      <c r="H325" s="56" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" s="65" t="s">
+        <v>459</v>
+      </c>
+      <c r="B326" s="65" t="s">
+        <v>458</v>
+      </c>
+      <c r="H326" s="56" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="65" t="s">
+        <v>462</v>
+      </c>
+      <c r="B327" s="65" t="s">
+        <v>461</v>
+      </c>
+      <c r="H327" s="56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="B328" s="65" t="s">
+        <v>465</v>
+      </c>
+      <c r="F328" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="H328" s="56" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="B329" s="65" t="s">
+        <v>468</v>
+      </c>
+      <c r="F329" s="65" t="s">
+        <v>479</v>
+      </c>
+      <c r="H329" s="56" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="B330" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="F330" s="65" t="s">
+        <v>469</v>
+      </c>
+      <c r="H330" s="56" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="B331" s="65" t="s">
+        <v>473</v>
+      </c>
+      <c r="F331" s="65" t="s">
+        <v>475</v>
+      </c>
+      <c r="H331" s="56" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B332" s="65" t="s">
+        <v>477</v>
+      </c>
+      <c r="H332" s="56" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="B333" s="65" t="s">
+        <v>481</v>
+      </c>
+      <c r="F333" s="65" t="s">
+        <v>482</v>
+      </c>
+      <c r="H333" s="56" t="s">
+        <v>480</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="B207:B212"/>
-    <mergeCell ref="B281:B283"/>
-    <mergeCell ref="A281:A283"/>
-    <mergeCell ref="A270:A271"/>
-    <mergeCell ref="B270:B271"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="A237:A244"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A245:A248"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="B276:B280"/>
-    <mergeCell ref="A276:A280"/>
-    <mergeCell ref="F219:F221"/>
-    <mergeCell ref="F222:F223"/>
-    <mergeCell ref="F145:F148"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A128:A133"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="F113:F115"/>
-    <mergeCell ref="F116:F121"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="F128:F133"/>
-    <mergeCell ref="F134:F136"/>
-    <mergeCell ref="F137:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="B264:B266"/>
     <mergeCell ref="A35:A47"/>
     <mergeCell ref="B128:B133"/>
     <mergeCell ref="B134:B136"/>
@@ -9147,19 +9446,44 @@
     <mergeCell ref="A106:A108"/>
     <mergeCell ref="B109:B112"/>
     <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A48:A59"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A128:A133"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="B75:B88"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="A75:A88"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="A89:A99"/>
     <mergeCell ref="A149:A152"/>
     <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A126:A127"/>
     <mergeCell ref="B195:B197"/>
     <mergeCell ref="A195:A197"/>
     <mergeCell ref="B199:B200"/>
     <mergeCell ref="A199:A200"/>
     <mergeCell ref="B179:B184"/>
     <mergeCell ref="A179:A184"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B153:B156"/>
     <mergeCell ref="F35:F47"/>
     <mergeCell ref="B35:B47"/>
     <mergeCell ref="F153:F156"/>
@@ -9175,15 +9499,15 @@
     <mergeCell ref="B149:B152"/>
     <mergeCell ref="B145:B148"/>
     <mergeCell ref="B60:B69"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="F113:F115"/>
+    <mergeCell ref="F116:F121"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="F128:F133"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="F137:F142"/>
+    <mergeCell ref="F143:F144"/>
     <mergeCell ref="F2:F16"/>
     <mergeCell ref="B2:B16"/>
     <mergeCell ref="A2:A16"/>
@@ -9193,15 +9517,6 @@
     <mergeCell ref="B17:B24"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B75:B88"/>
-    <mergeCell ref="A75:A88"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="B299:B300"/>
     <mergeCell ref="A299:A300"/>
     <mergeCell ref="A177:A178"/>
     <mergeCell ref="B165:B169"/>
@@ -9218,17 +9533,14 @@
     <mergeCell ref="B295:B298"/>
     <mergeCell ref="A259:A260"/>
     <mergeCell ref="B259:B260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A317:A318"/>
-    <mergeCell ref="B317:B318"/>
-    <mergeCell ref="F224:F225"/>
-    <mergeCell ref="F226:F228"/>
-    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="A276:A280"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="B217:B218"/>
     <mergeCell ref="F122:F125"/>
     <mergeCell ref="B229:B230"/>
     <mergeCell ref="B226:B228"/>
@@ -9245,9 +9557,38 @@
     <mergeCell ref="B252:B254"/>
     <mergeCell ref="B249:B251"/>
     <mergeCell ref="B245:B248"/>
+    <mergeCell ref="F219:F221"/>
+    <mergeCell ref="F222:F223"/>
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="B281:B283"/>
+    <mergeCell ref="B270:B271"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="B231:B234"/>
     <mergeCell ref="B237:B244"/>
     <mergeCell ref="F229:F230"/>
     <mergeCell ref="B203:B206"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="A317:A318"/>
+    <mergeCell ref="B317:B318"/>
+    <mergeCell ref="F224:F225"/>
+    <mergeCell ref="F226:F228"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="A281:A283"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A237:A244"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="B276:B280"/>
+    <mergeCell ref="B299:B300"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -9361,9 +9702,19 @@
     <hyperlink ref="H319" r:id="rId97" xr:uid="{00000000-0004-0000-0300-000060000000}"/>
     <hyperlink ref="H320" r:id="rId98" xr:uid="{00000000-0004-0000-0300-000061000000}"/>
     <hyperlink ref="H321" r:id="rId99" xr:uid="{00000000-0004-0000-0300-000062000000}"/>
+    <hyperlink ref="H325" r:id="rId100" xr:uid="{4AB981EB-2441-4C21-8364-8D0102317FC0}"/>
+    <hyperlink ref="H326" r:id="rId101" xr:uid="{6BF39984-6396-44C3-9BF5-37788067601D}"/>
+    <hyperlink ref="H327" r:id="rId102" xr:uid="{FA1FAE03-105C-463A-83E6-9881460425CC}"/>
+    <hyperlink ref="H328" r:id="rId103" xr:uid="{877D16D9-7421-474B-AFDE-3DCB19518AA6}"/>
+    <hyperlink ref="H329" r:id="rId104" xr:uid="{50F5E37A-F3BA-4962-AFA2-A54331D4524E}"/>
+    <hyperlink ref="H330" r:id="rId105" xr:uid="{00238061-F9AA-4789-9234-BD47362A6AC7}"/>
+    <hyperlink ref="H331" r:id="rId106" xr:uid="{6AD30F45-9EFD-4BFF-8AB4-31965D8022B1}"/>
+    <hyperlink ref="H322" r:id="rId107" xr:uid="{CCAD52E0-5A66-4DA0-91DB-DDE20EFC0ECE}"/>
+    <hyperlink ref="H332" r:id="rId108" xr:uid="{B907FABC-4242-46EF-8C5B-8C8AD174D50F}"/>
+    <hyperlink ref="H333" r:id="rId109" xr:uid="{14AF8874-F4BA-467F-B0CC-28AB88091E4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId110"/>
 </worksheet>
 </file>
 
